--- a/solr/Evaluation.xlsx
+++ b/solr/Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PRI\solr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A38DE8-1C46-4710-802E-B86FF283B3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647EA729-EB91-4F6A-983D-6D50E871D65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F5A3B19-910C-4A1F-9359-A2D6231D0330}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="18">
   <si>
     <t>Rank</t>
   </si>
@@ -82,6 +82,15 @@
   <si>
     <t>Without the all 1's</t>
   </si>
+  <si>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t>F Measure</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
 </sst>
 </file>
 
@@ -90,7 +99,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,13 +133,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -142,10 +183,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -160,8 +203,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1376,6 +1424,2174 @@
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>F</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t> Measure (Beta = 1)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="0">
+              <a:solidFill>
+                <a:srgbClr val="757575"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>V1</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$V$20:$V$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$20:$W$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15384615384615383</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31578947368421051</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36363636363636359</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45161290322580644</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47058823529411764</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48648648648648646</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A2D-40B8-88C2-9692F3439E56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>V2</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$V$20:$V$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$20:$X$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46153846153846151</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57142857142857151</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82352941176470584</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88888888888888895</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42452830188679241</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.43478260869565222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1A2D-40B8-88C2-9692F3439E56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1361606489"/>
+        <c:axId val="1331152447"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1361606489"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Recall</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1331152447"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1331152447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Precision</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1361606489"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:tint val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>F</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t> Measure (Beta = 1)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="0">
+              <a:solidFill>
+                <a:srgbClr val="757575"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>V1</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$V$20:$V$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$55:$W$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0909090909090898E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11764705882352941</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13043478260869565</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13793103448275862</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14634146341463414</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14893617021276595</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15094339622641509</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15254237288135591</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15384615384615385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1565-4F43-A603-A2D47A4D304B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>V2</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$V$20:$V$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$55:$X$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17391304347826089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30769230769230765</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41379310344827586</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57142857142857151</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59154929577464799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63636363636363646</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67469879518072295</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7078651685393258</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73684210526315785</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1565-4F43-A603-A2D47A4D304B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1361606489"/>
+        <c:axId val="1331152447"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1361606489"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Recall</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1331152447"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1331152447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Precision</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1361606489"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:tint val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>F</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t> Measure (Beta = 1)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="0">
+              <a:solidFill>
+                <a:srgbClr val="757575"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>V1</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$V$20:$V$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$90:$W$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46153846153846151</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57142857142857151</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82352941176470584</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88888888888888895</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94736842105263164</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A5A1-496C-A982-F5F5F89BA2C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>V2</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$V$20:$V$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$90:$X$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46153846153846151</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57142857142857151</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82352941176470584</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88888888888888895</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94736842105263164</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A5A1-496C-A982-F5F5F89BA2C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1361606489"/>
+        <c:axId val="1331152447"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1361606489"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Recall</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1331152447"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1331152447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Precision</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1361606489"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:tint val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>F</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t> Measure (Beta = 1)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="0">
+              <a:solidFill>
+                <a:srgbClr val="757575"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>V1</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$V$20:$V$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$125:$W$135</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50909090909090904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64615384615384619</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64615384615384619</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68571428571428572</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.62857142857142856</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C5C4-4B91-B79F-8326D37A26F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>V2</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$V$20:$V$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$125:$X$135</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17647058823529416</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31578947368421056</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42253521126760563</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47457627118644069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53846153846153844</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56470588235294117</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.54654654654654644</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57458563535911611</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59846547314578002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61904761904761907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C5C4-4B91-B79F-8326D37A26F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1361606489"/>
+        <c:axId val="1331152447"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1361606489"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Recall</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1331152447"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1331152447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Precision</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1361606489"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:tint val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -6201,6 +8417,138 @@
     </xdr:graphicFrame>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5105400" cy="3152775"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD2F6BC6-AA8B-45A7-9E68-8FD249E124BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>449036</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5105400" cy="3152775"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C988A802-EFF2-4BBB-96BA-65B288A22A63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>421822</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5105400" cy="3152775"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C59A736A-F9A9-4D2E-B51E-E6B7F3B83F0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>394608</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5105400" cy="3152775"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5E913D1-4BEA-4918-8087-A8EA4AFEEC48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6503,23 +8851,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90E2CE5-2754-4DEC-9740-5E5101C42739}">
   <dimension ref="A1:Y181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L173" sqref="L173"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI119" sqref="AI119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="22" width="9.140625" style="1"/>
     <col min="23" max="23" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15">
+    <row r="2" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="J2" s="5" t="s">
         <v>7</v>
       </c>
@@ -6534,13 +8882,19 @@
       </c>
       <c r="S2" s="5"/>
       <c r="T2"/>
+      <c r="U2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" s="8">
+        <v>1</v>
+      </c>
       <c r="W2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="X2" s="5"/>
       <c r="Y2"/>
     </row>
-    <row r="3" spans="1:25" ht="15">
+    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -6579,7 +8933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -6625,7 +8979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -6671,7 +9025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -6717,7 +9071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -6763,7 +9117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -6809,7 +9163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -6855,7 +9209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -6901,7 +9255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -6947,7 +9301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -6993,7 +9347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -7039,7 +9393,7 @@
         <v>0.27777777777777779</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -7085,7 +9439,7 @@
         <v>0.27777777777777779</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -7120,7 +9474,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -7155,7 +9509,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -7190,7 +9544,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -7224,8 +9578,12 @@
         <f>SUMIF(C$4:C18,"=1")/SUMIF(C$4:C$33,"=1")</f>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="W18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X18" s="5"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -7259,8 +9617,17 @@
         <f>SUMIF(C$4:C19,"=1")/SUMIF(C$4:C$33,"=1")</f>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="V19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -7294,8 +9661,19 @@
         <f>SUMIF(C$4:C20,"=1")/SUMIF(C$4:C$33,"=1")</f>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="V20" s="4">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <f>(1 + $V$2^2) * (W4*$V4/($V$2^2 * W4 +$V4))</f>
+        <v>0</v>
+      </c>
+      <c r="X20" s="1">
+        <f>(1 + $V$2^2) * (X4*$V4/($V$2^2 * X4 +$V4))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -7329,8 +9707,19 @@
         <f>SUMIF(C$4:C21,"=1")/SUMIF(C$4:C$33,"=1")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="V21" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" ref="W21:X21" si="2">(1 + $V$2^2) * (W5*$V5/($V$2^2 * W5 +$V5))</f>
+        <v>0.15384615384615383</v>
+      </c>
+      <c r="X21" s="1">
+        <f t="shared" si="2"/>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -7364,8 +9753,19 @@
         <f>SUMIF(C$4:C22,"=1")/SUMIF(C$4:C$33,"=1")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="V22" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W22" s="1">
+        <f t="shared" ref="W22:X22" si="3">(1 + $V$2^2) * (W6*$V6/($V$2^2 * W6 +$V6))</f>
+        <v>0.25</v>
+      </c>
+      <c r="X22" s="1">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -7399,8 +9799,19 @@
         <f>SUMIF(C$4:C23,"=1")/SUMIF(C$4:C$33,"=1")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="V23" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" ref="W23:X23" si="4">(1 + $V$2^2) * (W7*$V7/($V$2^2 * W7 +$V7))</f>
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="X23" s="1">
+        <f t="shared" si="4"/>
+        <v>0.46153846153846151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -7434,8 +9845,19 @@
         <f>SUMIF(C$4:C24,"=1")/SUMIF(C$4:C$33,"=1")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="V24" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" ref="W24:X24" si="5">(1 + $V$2^2) * (W8*$V8/($V$2^2 * W8 +$V8))</f>
+        <v>0.36363636363636359</v>
+      </c>
+      <c r="X24" s="1">
+        <f t="shared" si="5"/>
+        <v>0.57142857142857151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -7469,8 +9891,19 @@
         <f>SUMIF(C$4:C25,"=1")/SUMIF(C$4:C$33,"=1")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="V25" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="W25" s="1">
+        <f t="shared" ref="W25:X25" si="6">(1 + $V$2^2) * (W9*$V9/($V$2^2 * W9 +$V9))</f>
+        <v>0.4</v>
+      </c>
+      <c r="X25" s="1">
+        <f t="shared" si="6"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -7504,8 +9937,19 @@
         <f>SUMIF(C$4:C26,"=1")/SUMIF(C$4:C$33,"=1")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="V26" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="W26" s="1">
+        <f t="shared" ref="W26:X26" si="7">(1 + $V$2^2) * (W10*$V10/($V$2^2 * W10 +$V10))</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="X26" s="1">
+        <f t="shared" si="7"/>
+        <v>0.74999999999999989</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -7539,8 +9983,19 @@
         <f>SUMIF(C$4:C27,"=1")/SUMIF(C$4:C$33,"=1")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="V27" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="W27" s="1">
+        <f t="shared" ref="W27:X27" si="8">(1 + $V$2^2) * (W11*$V11/($V$2^2 * W11 +$V11))</f>
+        <v>0.45161290322580644</v>
+      </c>
+      <c r="X27" s="1">
+        <f t="shared" si="8"/>
+        <v>0.82352941176470584</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -7574,8 +10029,19 @@
         <f>SUMIF(C$4:C28,"=1")/SUMIF(C$4:C$33,"=1")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="V28" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="W28" s="1">
+        <f t="shared" ref="W28:X28" si="9">(1 + $V$2^2) * (W12*$V12/($V$2^2 * W12 +$V12))</f>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="X28" s="1">
+        <f t="shared" si="9"/>
+        <v>0.88888888888888895</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -7609,8 +10075,19 @@
         <f>SUMIF(C$4:C29,"=1")/SUMIF(C$4:C$33,"=1")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="V29" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="W29" s="1">
+        <f t="shared" ref="W29:X29" si="10">(1 + $V$2^2) * (W13*$V13/($V$2^2 * W13 +$V13))</f>
+        <v>0.48648648648648646</v>
+      </c>
+      <c r="X29" s="1">
+        <f t="shared" si="10"/>
+        <v>0.42452830188679241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -7644,8 +10121,19 @@
         <f>SUMIF(C$4:C30,"=1")/SUMIF(C$4:C$33,"=1")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="V30" s="4">
+        <v>1</v>
+      </c>
+      <c r="W30" s="1">
+        <f t="shared" ref="W30:X30" si="11">(1 + $V$2^2) * (W14*$V14/($V$2^2 * W14 +$V14))</f>
+        <v>0.5</v>
+      </c>
+      <c r="X30" s="1">
+        <f t="shared" si="11"/>
+        <v>0.43478260869565222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -7680,7 +10168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -7715,7 +10203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -7750,12 +10238,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:24">
+    <row r="34" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="I34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="6">
+        <f>AVERAGE(J4:J33)</f>
+        <v>8.3166237697346337E-2</v>
+      </c>
+      <c r="K34" s="6">
+        <f>AVERAGE(K4:K33)</f>
+        <v>0.40673499328759549</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="15">
+    <row r="37" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="J37" s="5" t="s">
         <v>7</v>
       </c>
@@ -7775,7 +10276,7 @@
       </c>
       <c r="X37" s="5"/>
     </row>
-    <row r="38" spans="1:24" ht="15">
+    <row r="38" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>0</v>
       </c>
@@ -7814,7 +10315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -7860,7 +10361,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -7879,7 +10380,7 @@
         <v>0.5</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" ref="N40:N68" si="2">J40*B40</f>
+        <f t="shared" ref="N40:N68" si="12">J40*B40</f>
         <v>0</v>
       </c>
       <c r="O40" s="1">
@@ -7898,15 +10399,15 @@
         <v>0.1</v>
       </c>
       <c r="W40" s="1">
-        <f t="shared" ref="W40:X49" si="3">_xlfn.MAXIFS(J$39:J$68,R$39:R$68,"&gt;="&amp;$V40)</f>
+        <f t="shared" ref="W40:X49" si="13">_xlfn.MAXIFS(J$39:J$68,R$39:R$68,"&gt;="&amp;$V40)</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="X40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>3</v>
       </c>
@@ -7925,11 +10426,11 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="N41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O41" s="1">
-        <f t="shared" ref="O41:O68" si="4">K41*C41</f>
+        <f t="shared" ref="O41:O68" si="14">K41*C41</f>
         <v>0</v>
       </c>
       <c r="R41" s="1">
@@ -7944,15 +10445,15 @@
         <v>0.2</v>
       </c>
       <c r="W41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="X41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>4</v>
       </c>
@@ -7971,11 +10472,11 @@
         <v>0.5</v>
       </c>
       <c r="N42" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="R42" s="1">
@@ -7990,15 +10491,15 @@
         <v>0.3</v>
       </c>
       <c r="W42" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="X42" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>5</v>
       </c>
@@ -8017,11 +10518,11 @@
         <v>0.6</v>
       </c>
       <c r="N43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O43" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.6</v>
       </c>
       <c r="R43" s="1">
@@ -8036,15 +10537,15 @@
         <v>0.4</v>
       </c>
       <c r="W43" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="X43" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>6</v>
       </c>
@@ -8063,11 +10564,11 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="N44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O44" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="R44" s="1">
@@ -8082,15 +10583,15 @@
         <v>0.5</v>
       </c>
       <c r="W44" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="X44" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>7</v>
       </c>
@@ -8109,11 +10610,11 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="N45" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O45" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R45" s="1">
@@ -8128,15 +10629,15 @@
         <v>0.6</v>
       </c>
       <c r="W45" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="X45" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>8</v>
       </c>
@@ -8155,11 +10656,11 @@
         <v>0.5</v>
       </c>
       <c r="N46" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O46" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R46" s="1">
@@ -8174,15 +10675,15 @@
         <v>0.7</v>
       </c>
       <c r="W46" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="X46" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>9</v>
       </c>
@@ -8201,11 +10702,11 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O47" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R47" s="1">
@@ -8220,15 +10721,15 @@
         <v>0.8</v>
       </c>
       <c r="W47" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="X47" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>10</v>
       </c>
@@ -8247,11 +10748,11 @@
         <v>0.5</v>
       </c>
       <c r="N48" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O48" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="R48" s="1">
@@ -8266,15 +10767,15 @@
         <v>0.9</v>
       </c>
       <c r="W48" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="X48" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>11</v>
       </c>
@@ -8293,11 +10794,11 @@
         <v>0.54545454545454541</v>
       </c>
       <c r="N49" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O49" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="R49" s="1">
@@ -8312,15 +10813,15 @@
         <v>1</v>
       </c>
       <c r="W49" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="X49" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>12</v>
       </c>
@@ -8339,11 +10840,11 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="N50" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="O50" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="R50" s="1">
@@ -8355,7 +10856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>13</v>
       </c>
@@ -8374,11 +10875,11 @@
         <v>0.53846153846153844</v>
       </c>
       <c r="N51" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O51" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R51" s="1">
@@ -8390,7 +10891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>14</v>
       </c>
@@ -8409,11 +10910,11 @@
         <v>0.5</v>
       </c>
       <c r="N52" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O52" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R52" s="1">
@@ -8425,7 +10926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>15</v>
       </c>
@@ -8444,11 +10945,11 @@
         <v>0.46666666666666667</v>
       </c>
       <c r="N53" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O53" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R53" s="1">
@@ -8459,8 +10960,12 @@
         <f>SUMIF(C$39:C53,"=1")/SUMIF(C$39:C$68,"=1")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:24">
+      <c r="W53" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X53" s="5"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>16</v>
       </c>
@@ -8479,11 +10984,11 @@
         <v>0.4375</v>
       </c>
       <c r="N54" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O54" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R54" s="1">
@@ -8494,8 +10999,17 @@
         <f>SUMIF(C$39:C54,"=1")/SUMIF(C$39:C$68,"=1")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:24">
+      <c r="V54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X54" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>17</v>
       </c>
@@ -8514,11 +11028,11 @@
         <v>0.41176470588235292</v>
       </c>
       <c r="N55" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O55" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R55" s="1">
@@ -8529,8 +11043,19 @@
         <f>SUMIF(C$39:C55,"=1")/SUMIF(C$39:C$68,"=1")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:24">
+      <c r="V55" s="4">
+        <v>0</v>
+      </c>
+      <c r="W55" s="1">
+        <f>(1 + $V$2^2) * (W39*$V39/($V$2^2 * W39 +$V39))</f>
+        <v>0</v>
+      </c>
+      <c r="X55" s="1">
+        <f>(1 + $V$2^2) * (X39*$V39/($V$2^2 * X39 +$V39))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>18</v>
       </c>
@@ -8549,11 +11074,11 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="N56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O56" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R56" s="1">
@@ -8564,8 +11089,19 @@
         <f>SUMIF(C$39:C56,"=1")/SUMIF(C$39:C$68,"=1")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:24">
+      <c r="V56" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="W56" s="1">
+        <f t="shared" ref="W56:X56" si="15">(1 + $V$2^2) * (W40*$V40/($V$2^2 * W40 +$V40))</f>
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="X56" s="1">
+        <f t="shared" si="15"/>
+        <v>0.17391304347826089</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>19</v>
       </c>
@@ -8584,11 +11120,11 @@
         <v>0.36842105263157893</v>
       </c>
       <c r="N57" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R57" s="1">
@@ -8599,8 +11135,19 @@
         <f>SUMIF(C$39:C57,"=1")/SUMIF(C$39:C$68,"=1")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:24">
+      <c r="V57" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W57" s="1">
+        <f t="shared" ref="W57:X57" si="16">(1 + $V$2^2) * (W41*$V41/($V$2^2 * W41 +$V41))</f>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="X57" s="1">
+        <f t="shared" si="16"/>
+        <v>0.30769230769230765</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>20</v>
       </c>
@@ -8619,11 +11166,11 @@
         <v>0.35</v>
       </c>
       <c r="N58" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O58" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R58" s="1">
@@ -8634,8 +11181,19 @@
         <f>SUMIF(C$39:C58,"=1")/SUMIF(C$39:C$68,"=1")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:24">
+      <c r="V58" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="W58" s="1">
+        <f t="shared" ref="W58:X58" si="17">(1 + $V$2^2) * (W42*$V42/($V$2^2 * W42 +$V42))</f>
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="X58" s="1">
+        <f t="shared" si="17"/>
+        <v>0.41379310344827586</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>21</v>
       </c>
@@ -8654,11 +11212,11 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="N59" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O59" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R59" s="1">
@@ -8669,8 +11227,19 @@
         <f>SUMIF(C$39:C59,"=1")/SUMIF(C$39:C$68,"=1")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:24">
+      <c r="V59" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="W59" s="1">
+        <f t="shared" ref="W59:X59" si="18">(1 + $V$2^2) * (W43*$V43/($V$2^2 * W43 +$V43))</f>
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="X59" s="1">
+        <f t="shared" si="18"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>22</v>
       </c>
@@ -8689,11 +11258,11 @@
         <v>0.31818181818181818</v>
       </c>
       <c r="N60" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O60" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R60" s="1">
@@ -8704,8 +11273,19 @@
         <f>SUMIF(C$39:C60,"=1")/SUMIF(C$39:C$68,"=1")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:24">
+      <c r="V60" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="W60" s="1">
+        <f t="shared" ref="W60:X60" si="19">(1 + $V$2^2) * (W44*$V44/($V$2^2 * W44 +$V44))</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="X60" s="1">
+        <f t="shared" si="19"/>
+        <v>0.57142857142857151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>23</v>
       </c>
@@ -8724,11 +11304,11 @@
         <v>0.30434782608695654</v>
       </c>
       <c r="N61" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O61" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R61" s="1">
@@ -8739,8 +11319,19 @@
         <f>SUMIF(C$39:C61,"=1")/SUMIF(C$39:C$68,"=1")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:24">
+      <c r="V61" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="W61" s="1">
+        <f t="shared" ref="W61:X61" si="20">(1 + $V$2^2) * (W45*$V45/($V$2^2 * W45 +$V45))</f>
+        <v>0.14634146341463414</v>
+      </c>
+      <c r="X61" s="1">
+        <f t="shared" si="20"/>
+        <v>0.59154929577464799</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>24</v>
       </c>
@@ -8759,11 +11350,11 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="N62" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O62" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R62" s="1">
@@ -8774,8 +11365,19 @@
         <f>SUMIF(C$39:C62,"=1")/SUMIF(C$39:C$68,"=1")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:24">
+      <c r="V62" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="W62" s="1">
+        <f t="shared" ref="W62:X62" si="21">(1 + $V$2^2) * (W46*$V46/($V$2^2 * W46 +$V46))</f>
+        <v>0.14893617021276595</v>
+      </c>
+      <c r="X62" s="1">
+        <f t="shared" si="21"/>
+        <v>0.63636363636363646</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>25</v>
       </c>
@@ -8794,11 +11396,11 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="N63" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O63" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R63" s="1">
@@ -8809,8 +11411,19 @@
         <f>SUMIF(C$39:C63,"=1")/SUMIF(C$39:C$68,"=1")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:24">
+      <c r="V63" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="W63" s="1">
+        <f t="shared" ref="W63:X63" si="22">(1 + $V$2^2) * (W47*$V47/($V$2^2 * W47 +$V47))</f>
+        <v>0.15094339622641509</v>
+      </c>
+      <c r="X63" s="1">
+        <f t="shared" si="22"/>
+        <v>0.67469879518072295</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>26</v>
       </c>
@@ -8829,11 +11442,11 @@
         <v>0.26923076923076922</v>
       </c>
       <c r="N64" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O64" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R64" s="1">
@@ -8844,8 +11457,19 @@
         <f>SUMIF(C$39:C64,"=1")/SUMIF(C$39:C$68,"=1")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:24">
+      <c r="V64" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="W64" s="1">
+        <f t="shared" ref="W64:X64" si="23">(1 + $V$2^2) * (W48*$V48/($V$2^2 * W48 +$V48))</f>
+        <v>0.15254237288135591</v>
+      </c>
+      <c r="X64" s="1">
+        <f t="shared" si="23"/>
+        <v>0.7078651685393258</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>27</v>
       </c>
@@ -8864,11 +11488,11 @@
         <v>0.25925925925925924</v>
       </c>
       <c r="N65" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O65" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R65" s="1">
@@ -8879,8 +11503,19 @@
         <f>SUMIF(C$39:C65,"=1")/SUMIF(C$39:C$68,"=1")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:24">
+      <c r="V65" s="4">
+        <v>1</v>
+      </c>
+      <c r="W65" s="1">
+        <f t="shared" ref="W65:X65" si="24">(1 + $V$2^2) * (W49*$V49/($V$2^2 * W49 +$V49))</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="X65" s="1">
+        <f t="shared" si="24"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>28</v>
       </c>
@@ -8899,11 +11534,11 @@
         <v>0.25</v>
       </c>
       <c r="N66" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O66" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R66" s="1">
@@ -8915,7 +11550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:24">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>29</v>
       </c>
@@ -8934,11 +11569,11 @@
         <v>0.2413793103448276</v>
       </c>
       <c r="N67" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O67" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R67" s="1">
@@ -8950,7 +11585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:24">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>30</v>
       </c>
@@ -8969,11 +11604,11 @@
         <v>0.23333333333333334</v>
       </c>
       <c r="N68" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O68" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R68" s="1">
@@ -8985,12 +11620,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:24">
+    <row r="69" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="I69" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J69" s="6">
+        <f>AVERAGE(J39:J68)</f>
+        <v>3.2503659534768206E-2</v>
+      </c>
+      <c r="K69" s="6">
+        <f>AVERAGE(K39:K68)</f>
+        <v>0.3995698687876294</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="15">
+    <row r="72" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="J72" s="5" t="s">
         <v>7</v>
       </c>
@@ -9010,7 +11658,7 @@
       </c>
       <c r="X72" s="5"/>
     </row>
-    <row r="73" spans="1:24" ht="15">
+    <row r="73" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>0</v>
       </c>
@@ -9049,7 +11697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:24">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>1</v>
       </c>
@@ -9095,7 +11743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:24">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>2</v>
       </c>
@@ -9114,7 +11762,7 @@
         <v>1</v>
       </c>
       <c r="N75" s="1">
-        <f t="shared" ref="N75:N103" si="5">J75*B75</f>
+        <f t="shared" ref="N75:N103" si="25">J75*B75</f>
         <v>1</v>
       </c>
       <c r="O75" s="1">
@@ -9133,15 +11781,15 @@
         <v>0.1</v>
       </c>
       <c r="W75" s="1">
-        <f t="shared" ref="W75:X84" si="6">_xlfn.MAXIFS(J$74:J$103,R$74:R$103,"&gt;="&amp;$V75)</f>
+        <f t="shared" ref="W75:X84" si="26">_xlfn.MAXIFS(J$74:J$103,R$74:R$103,"&gt;="&amp;$V75)</f>
         <v>1</v>
       </c>
       <c r="X75" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>3</v>
       </c>
@@ -9160,11 +11808,11 @@
         <v>1</v>
       </c>
       <c r="N76" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O76" s="1">
-        <f t="shared" ref="O76:O103" si="7">K76*C76</f>
+        <f t="shared" ref="O76:O103" si="27">K76*C76</f>
         <v>1</v>
       </c>
       <c r="R76" s="1">
@@ -9179,15 +11827,15 @@
         <v>0.2</v>
       </c>
       <c r="W76" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="X76" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>4</v>
       </c>
@@ -9206,11 +11854,11 @@
         <v>1</v>
       </c>
       <c r="N77" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O77" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R77" s="1">
@@ -9225,15 +11873,15 @@
         <v>0.3</v>
       </c>
       <c r="W77" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="X77" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>5</v>
       </c>
@@ -9252,11 +11900,11 @@
         <v>1</v>
       </c>
       <c r="N78" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O78" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R78" s="1">
@@ -9271,15 +11919,15 @@
         <v>0.4</v>
       </c>
       <c r="W78" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="X78" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>6</v>
       </c>
@@ -9298,11 +11946,11 @@
         <v>1</v>
       </c>
       <c r="N79" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O79" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R79" s="1">
@@ -9317,15 +11965,15 @@
         <v>0.5</v>
       </c>
       <c r="W79" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="X79" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>7</v>
       </c>
@@ -9344,11 +11992,11 @@
         <v>1</v>
       </c>
       <c r="N80" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O80" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R80" s="1">
@@ -9363,15 +12011,15 @@
         <v>0.6</v>
       </c>
       <c r="W80" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="X80" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>8</v>
       </c>
@@ -9390,11 +12038,11 @@
         <v>1</v>
       </c>
       <c r="N81" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O81" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R81" s="1">
@@ -9409,15 +12057,15 @@
         <v>0.7</v>
       </c>
       <c r="W81" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="X81" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>9</v>
       </c>
@@ -9436,11 +12084,11 @@
         <v>1</v>
       </c>
       <c r="N82" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O82" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R82" s="1">
@@ -9455,15 +12103,15 @@
         <v>0.8</v>
       </c>
       <c r="W82" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="X82" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>10</v>
       </c>
@@ -9482,11 +12130,11 @@
         <v>1</v>
       </c>
       <c r="N83" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O83" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R83" s="1">
@@ -9501,15 +12149,15 @@
         <v>0.9</v>
       </c>
       <c r="W83" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="X83" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>11</v>
       </c>
@@ -9528,11 +12176,11 @@
         <v>1</v>
       </c>
       <c r="N84" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O84" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R84" s="1">
@@ -9547,15 +12195,15 @@
         <v>1</v>
       </c>
       <c r="W84" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="X84" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>12</v>
       </c>
@@ -9574,11 +12222,11 @@
         <v>1</v>
       </c>
       <c r="N85" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O85" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R85" s="1">
@@ -9590,7 +12238,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="86" spans="1:24">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>13</v>
       </c>
@@ -9609,11 +12257,11 @@
         <v>1</v>
       </c>
       <c r="N86" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O86" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R86" s="1">
@@ -9625,7 +12273,7 @@
         <v>0.43333333333333335</v>
       </c>
     </row>
-    <row r="87" spans="1:24">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>14</v>
       </c>
@@ -9644,11 +12292,11 @@
         <v>1</v>
       </c>
       <c r="N87" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O87" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R87" s="1">
@@ -9660,7 +12308,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="88" spans="1:24">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>15</v>
       </c>
@@ -9679,11 +12327,11 @@
         <v>1</v>
       </c>
       <c r="N88" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O88" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R88" s="1">
@@ -9694,8 +12342,12 @@
         <f>SUMIF(C$74:C88,"=1")/SUMIF(C$74:C$103,"=1")</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="89" spans="1:24">
+      <c r="W88" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X88" s="5"/>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>16</v>
       </c>
@@ -9714,11 +12366,11 @@
         <v>1</v>
       </c>
       <c r="N89" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O89" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R89" s="1">
@@ -9729,8 +12381,17 @@
         <f>SUMIF(C$74:C89,"=1")/SUMIF(C$74:C$103,"=1")</f>
         <v>0.53333333333333333</v>
       </c>
-    </row>
-    <row r="90" spans="1:24">
+      <c r="V89" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W89" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X89" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>17</v>
       </c>
@@ -9749,11 +12410,11 @@
         <v>1</v>
       </c>
       <c r="N90" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O90" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R90" s="1">
@@ -9764,8 +12425,19 @@
         <f>SUMIF(C$74:C90,"=1")/SUMIF(C$74:C$103,"=1")</f>
         <v>0.56666666666666665</v>
       </c>
-    </row>
-    <row r="91" spans="1:24">
+      <c r="V90" s="4">
+        <v>0</v>
+      </c>
+      <c r="W90" s="1">
+        <f>(1 + $V$2^2) * (W74*$V74/($V$2^2 * W74 +$V74))</f>
+        <v>0</v>
+      </c>
+      <c r="X90" s="1">
+        <f>(1 + $V$2^2) * (X74*$V74/($V$2^2 * X74 +$V74))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>18</v>
       </c>
@@ -9784,11 +12456,11 @@
         <v>1</v>
       </c>
       <c r="N91" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O91" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R91" s="1">
@@ -9799,8 +12471,19 @@
         <f>SUMIF(C$74:C91,"=1")/SUMIF(C$74:C$103,"=1")</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="92" spans="1:24">
+      <c r="V91" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="W91" s="1">
+        <f t="shared" ref="W91:X91" si="28">(1 + $V$2^2) * (W75*$V75/($V$2^2 * W75 +$V75))</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="X91" s="1">
+        <f t="shared" si="28"/>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>19</v>
       </c>
@@ -9819,11 +12502,11 @@
         <v>1</v>
       </c>
       <c r="N92" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O92" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R92" s="1">
@@ -9834,8 +12517,19 @@
         <f>SUMIF(C$74:C92,"=1")/SUMIF(C$74:C$103,"=1")</f>
         <v>0.6333333333333333</v>
       </c>
-    </row>
-    <row r="93" spans="1:24">
+      <c r="V92" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W92" s="1">
+        <f t="shared" ref="W92:X92" si="29">(1 + $V$2^2) * (W76*$V76/($V$2^2 * W76 +$V76))</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="X92" s="1">
+        <f t="shared" si="29"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>20</v>
       </c>
@@ -9854,11 +12548,11 @@
         <v>1</v>
       </c>
       <c r="N93" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O93" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R93" s="1">
@@ -9869,8 +12563,19 @@
         <f>SUMIF(C$74:C93,"=1")/SUMIF(C$74:C$103,"=1")</f>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="94" spans="1:24">
+      <c r="V93" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="W93" s="1">
+        <f t="shared" ref="W93:X93" si="30">(1 + $V$2^2) * (W77*$V77/($V$2^2 * W77 +$V77))</f>
+        <v>0.46153846153846151</v>
+      </c>
+      <c r="X93" s="1">
+        <f t="shared" si="30"/>
+        <v>0.46153846153846151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>21</v>
       </c>
@@ -9889,11 +12594,11 @@
         <v>1</v>
       </c>
       <c r="N94" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O94" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R94" s="1">
@@ -9904,8 +12609,19 @@
         <f>SUMIF(C$74:C94,"=1")/SUMIF(C$74:C$103,"=1")</f>
         <v>0.7</v>
       </c>
-    </row>
-    <row r="95" spans="1:24">
+      <c r="V94" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="W94" s="1">
+        <f t="shared" ref="W94:X94" si="31">(1 + $V$2^2) * (W78*$V78/($V$2^2 * W78 +$V78))</f>
+        <v>0.57142857142857151</v>
+      </c>
+      <c r="X94" s="1">
+        <f t="shared" si="31"/>
+        <v>0.57142857142857151</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>22</v>
       </c>
@@ -9924,11 +12640,11 @@
         <v>1</v>
       </c>
       <c r="N95" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O95" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R95" s="1">
@@ -9939,8 +12655,19 @@
         <f>SUMIF(C$74:C95,"=1")/SUMIF(C$74:C$103,"=1")</f>
         <v>0.73333333333333328</v>
       </c>
-    </row>
-    <row r="96" spans="1:24">
+      <c r="V95" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="W95" s="1">
+        <f t="shared" ref="W95:X95" si="32">(1 + $V$2^2) * (W79*$V79/($V$2^2 * W79 +$V79))</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="X95" s="1">
+        <f t="shared" si="32"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>23</v>
       </c>
@@ -9959,11 +12686,11 @@
         <v>1</v>
       </c>
       <c r="N96" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O96" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R96" s="1">
@@ -9974,8 +12701,19 @@
         <f>SUMIF(C$74:C96,"=1")/SUMIF(C$74:C$103,"=1")</f>
         <v>0.76666666666666672</v>
       </c>
-    </row>
-    <row r="97" spans="1:24">
+      <c r="V96" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="W96" s="1">
+        <f t="shared" ref="W96:X96" si="33">(1 + $V$2^2) * (W80*$V80/($V$2^2 * W80 +$V80))</f>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="X96" s="1">
+        <f t="shared" si="33"/>
+        <v>0.74999999999999989</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>24</v>
       </c>
@@ -9994,11 +12732,11 @@
         <v>1</v>
       </c>
       <c r="N97" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O97" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R97" s="1">
@@ -10009,8 +12747,19 @@
         <f>SUMIF(C$74:C97,"=1")/SUMIF(C$74:C$103,"=1")</f>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="98" spans="1:24">
+      <c r="V97" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="W97" s="1">
+        <f t="shared" ref="W97:X97" si="34">(1 + $V$2^2) * (W81*$V81/($V$2^2 * W81 +$V81))</f>
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="X97" s="1">
+        <f t="shared" si="34"/>
+        <v>0.82352941176470584</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>25</v>
       </c>
@@ -10029,11 +12778,11 @@
         <v>1</v>
       </c>
       <c r="N98" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O98" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R98" s="1">
@@ -10044,8 +12793,19 @@
         <f>SUMIF(C$74:C98,"=1")/SUMIF(C$74:C$103,"=1")</f>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="99" spans="1:24">
+      <c r="V98" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="W98" s="1">
+        <f t="shared" ref="W98:X98" si="35">(1 + $V$2^2) * (W82*$V82/($V$2^2 * W82 +$V82))</f>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="X98" s="1">
+        <f t="shared" si="35"/>
+        <v>0.88888888888888895</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>26</v>
       </c>
@@ -10064,11 +12824,11 @@
         <v>1</v>
       </c>
       <c r="N99" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O99" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R99" s="1">
@@ -10079,8 +12839,19 @@
         <f>SUMIF(C$74:C99,"=1")/SUMIF(C$74:C$103,"=1")</f>
         <v>0.8666666666666667</v>
       </c>
-    </row>
-    <row r="100" spans="1:24">
+      <c r="V99" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="W99" s="1">
+        <f t="shared" ref="W99:X99" si="36">(1 + $V$2^2) * (W83*$V83/($V$2^2 * W83 +$V83))</f>
+        <v>0.94736842105263164</v>
+      </c>
+      <c r="X99" s="1">
+        <f t="shared" si="36"/>
+        <v>0.94736842105263164</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>27</v>
       </c>
@@ -10099,11 +12870,11 @@
         <v>1</v>
       </c>
       <c r="N100" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O100" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R100" s="1">
@@ -10114,8 +12885,19 @@
         <f>SUMIF(C$74:C100,"=1")/SUMIF(C$74:C$103,"=1")</f>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="101" spans="1:24">
+      <c r="V100" s="4">
+        <v>1</v>
+      </c>
+      <c r="W100" s="1">
+        <f t="shared" ref="W100:X100" si="37">(1 + $V$2^2) * (W84*$V84/($V$2^2 * W84 +$V84))</f>
+        <v>1</v>
+      </c>
+      <c r="X100" s="1">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>28</v>
       </c>
@@ -10134,11 +12916,11 @@
         <v>1</v>
       </c>
       <c r="N101" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O101" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R101" s="1">
@@ -10150,7 +12932,7 @@
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="102" spans="1:24">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>29</v>
       </c>
@@ -10169,11 +12951,11 @@
         <v>1</v>
       </c>
       <c r="N102" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O102" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R102" s="1">
@@ -10185,7 +12967,7 @@
         <v>0.96666666666666667</v>
       </c>
     </row>
-    <row r="103" spans="1:24">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>30</v>
       </c>
@@ -10204,11 +12986,11 @@
         <v>1</v>
       </c>
       <c r="N103" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O103" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R103" s="1">
@@ -10220,12 +13002,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:24">
+    <row r="104" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="I104" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J104" s="6">
+        <f>AVERAGE(J74:J103)</f>
+        <v>1</v>
+      </c>
+      <c r="K104" s="6">
+        <f>AVERAGE(K74:K103)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="15">
+    <row r="107" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="J107" s="5" t="s">
         <v>7</v>
       </c>
@@ -10245,7 +13040,7 @@
       </c>
       <c r="X107" s="5"/>
     </row>
-    <row r="108" spans="1:24" ht="15">
+    <row r="108" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>0</v>
       </c>
@@ -10284,7 +13079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:24">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>1</v>
       </c>
@@ -10330,7 +13125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:24">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>2</v>
       </c>
@@ -10349,7 +13144,7 @@
         <v>0.5</v>
       </c>
       <c r="N110" s="1">
-        <f t="shared" ref="N110:N138" si="8">J110*B110</f>
+        <f t="shared" ref="N110:N138" si="38">J110*B110</f>
         <v>0.5</v>
       </c>
       <c r="O110" s="1">
@@ -10368,15 +13163,15 @@
         <v>0.1</v>
       </c>
       <c r="W110" s="1">
-        <f t="shared" ref="W110:X119" si="9">_xlfn.MAXIFS(J$109:J$138,R$109:R$138,"&gt;="&amp;$V110)</f>
+        <f t="shared" ref="W110:X119" si="39">_xlfn.MAXIFS(J$109:J$138,R$109:R$138,"&gt;="&amp;$V110)</f>
         <v>0.7</v>
       </c>
       <c r="X110" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="39"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="111" spans="1:24">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>3</v>
       </c>
@@ -10395,11 +13190,11 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="N111" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O111" s="1">
-        <f t="shared" ref="O111:O138" si="10">K111*C111</f>
+        <f t="shared" ref="O111:O138" si="40">K111*C111</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="R111" s="1">
@@ -10414,15 +13209,15 @@
         <v>0.2</v>
       </c>
       <c r="W111" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="39"/>
         <v>0.7</v>
       </c>
       <c r="X111" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="39"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="112" spans="1:24">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>4</v>
       </c>
@@ -10441,11 +13236,11 @@
         <v>0.75</v>
       </c>
       <c r="N112" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O112" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>0.75</v>
       </c>
       <c r="R112" s="1">
@@ -10460,15 +13255,15 @@
         <v>0.3</v>
       </c>
       <c r="W112" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="39"/>
         <v>0.7</v>
       </c>
       <c r="X112" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="39"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="113" spans="1:24">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>5</v>
       </c>
@@ -10487,11 +13282,11 @@
         <v>0.6</v>
       </c>
       <c r="N113" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="38"/>
         <v>0.4</v>
       </c>
       <c r="O113" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R113" s="1">
@@ -10506,15 +13301,15 @@
         <v>0.4</v>
       </c>
       <c r="W113" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="39"/>
         <v>0.7</v>
       </c>
       <c r="X113" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="39"/>
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="114" spans="1:24">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>6</v>
       </c>
@@ -10533,11 +13328,11 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="N114" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="38"/>
         <v>0.5</v>
       </c>
       <c r="O114" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="R114" s="1">
@@ -10552,15 +13347,15 @@
         <v>0.5</v>
       </c>
       <c r="W114" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="39"/>
         <v>0.7</v>
       </c>
       <c r="X114" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="39"/>
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="115" spans="1:24">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>7</v>
       </c>
@@ -10579,11 +13374,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="N115" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="38"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="O115" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="R115" s="1">
@@ -10598,15 +13393,15 @@
         <v>0.6</v>
       </c>
       <c r="W115" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="39"/>
         <v>0.7</v>
       </c>
       <c r="X115" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="39"/>
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="116" spans="1:24">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>8</v>
       </c>
@@ -10625,11 +13420,11 @@
         <v>0.625</v>
       </c>
       <c r="N116" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="38"/>
         <v>0.625</v>
       </c>
       <c r="O116" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R116" s="1">
@@ -10644,15 +13439,15 @@
         <v>0.7</v>
       </c>
       <c r="W116" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="39"/>
         <v>0.6</v>
       </c>
       <c r="X116" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="39"/>
         <v>0.44827586206896552</v>
       </c>
     </row>
-    <row r="117" spans="1:24">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>9</v>
       </c>
@@ -10671,11 +13466,11 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="N117" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="38"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="O117" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R117" s="1">
@@ -10690,15 +13485,15 @@
         <v>0.8</v>
       </c>
       <c r="W117" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="39"/>
         <v>0.6</v>
       </c>
       <c r="X117" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="39"/>
         <v>0.44827586206896552</v>
       </c>
     </row>
-    <row r="118" spans="1:24">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>10</v>
       </c>
@@ -10717,11 +13512,11 @@
         <v>0.5</v>
       </c>
       <c r="N118" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="38"/>
         <v>0.7</v>
       </c>
       <c r="O118" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R118" s="1">
@@ -10736,15 +13531,15 @@
         <v>0.9</v>
       </c>
       <c r="W118" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="39"/>
         <v>0.5</v>
       </c>
       <c r="X118" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="39"/>
         <v>0.44827586206896552</v>
       </c>
     </row>
-    <row r="119" spans="1:24">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>11</v>
       </c>
@@ -10763,11 +13558,11 @@
         <v>0.54545454545454541</v>
       </c>
       <c r="N119" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O119" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="R119" s="1">
@@ -10782,15 +13577,15 @@
         <v>1</v>
       </c>
       <c r="W119" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="39"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="X119" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="39"/>
         <v>0.44827586206896552</v>
       </c>
     </row>
-    <row r="120" spans="1:24">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>12</v>
       </c>
@@ -10809,11 +13604,11 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="N120" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O120" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="R120" s="1">
@@ -10825,7 +13620,7 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
-    <row r="121" spans="1:24">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>13</v>
       </c>
@@ -10844,11 +13639,11 @@
         <v>0.53846153846153844</v>
       </c>
       <c r="N121" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O121" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R121" s="1">
@@ -10860,7 +13655,7 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
-    <row r="122" spans="1:24">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>14</v>
       </c>
@@ -10879,11 +13674,11 @@
         <v>0.5</v>
       </c>
       <c r="N122" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="38"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="O122" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R122" s="1">
@@ -10895,7 +13690,7 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
-    <row r="123" spans="1:24">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>15</v>
       </c>
@@ -10914,11 +13709,11 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="N123" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="38"/>
         <v>0.6</v>
       </c>
       <c r="O123" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="R123" s="1">
@@ -10929,8 +13724,12 @@
         <f>SUMIF(C$109:C123,"=1")/SUMIF(C$109:C$138,"=1")</f>
         <v>0.61538461538461542</v>
       </c>
-    </row>
-    <row r="124" spans="1:24">
+      <c r="W123" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X123" s="5"/>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>16</v>
       </c>
@@ -10949,11 +13748,11 @@
         <v>0.5</v>
       </c>
       <c r="N124" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O124" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R124" s="1">
@@ -10964,8 +13763,17 @@
         <f>SUMIF(C$109:C124,"=1")/SUMIF(C$109:C$138,"=1")</f>
         <v>0.61538461538461542</v>
       </c>
-    </row>
-    <row r="125" spans="1:24">
+      <c r="V124" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W124" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X124" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>17</v>
       </c>
@@ -10984,11 +13792,11 @@
         <v>0.47058823529411764</v>
       </c>
       <c r="N125" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O125" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R125" s="1">
@@ -10999,8 +13807,19 @@
         <f>SUMIF(C$109:C125,"=1")/SUMIF(C$109:C$138,"=1")</f>
         <v>0.61538461538461542</v>
       </c>
-    </row>
-    <row r="126" spans="1:24">
+      <c r="V125" s="4">
+        <v>0</v>
+      </c>
+      <c r="W125" s="1">
+        <f>(1 + $V$2^2) * (W109*$V109/($V$2^2 * W109 +$V109))</f>
+        <v>0</v>
+      </c>
+      <c r="X125" s="1">
+        <f>(1 + $V$2^2) * (X109*$V109/($V$2^2 * X109 +$V109))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>18</v>
       </c>
@@ -11019,11 +13838,11 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="N126" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O126" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R126" s="1">
@@ -11034,8 +13853,19 @@
         <f>SUMIF(C$109:C126,"=1")/SUMIF(C$109:C$138,"=1")</f>
         <v>0.61538461538461542</v>
       </c>
-    </row>
-    <row r="127" spans="1:24">
+      <c r="V126" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="W126" s="1">
+        <f t="shared" ref="W126:X126" si="41">(1 + $V$2^2) * (W110*$V110/($V$2^2 * W110 +$V110))</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="X126" s="1">
+        <f t="shared" si="41"/>
+        <v>0.17647058823529416</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>19</v>
       </c>
@@ -11054,11 +13884,11 @@
         <v>0.42105263157894735</v>
       </c>
       <c r="N127" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O127" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R127" s="1">
@@ -11069,8 +13899,19 @@
         <f>SUMIF(C$109:C127,"=1")/SUMIF(C$109:C$138,"=1")</f>
         <v>0.61538461538461542</v>
       </c>
-    </row>
-    <row r="128" spans="1:24">
+      <c r="V127" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W127" s="1">
+        <f t="shared" ref="W127:X127" si="42">(1 + $V$2^2) * (W111*$V111/($V$2^2 * W111 +$V111))</f>
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="X127" s="1">
+        <f t="shared" si="42"/>
+        <v>0.31578947368421056</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>20</v>
       </c>
@@ -11089,11 +13930,11 @@
         <v>0.4</v>
       </c>
       <c r="N128" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="38"/>
         <v>0.5</v>
       </c>
       <c r="O128" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R128" s="1">
@@ -11104,8 +13945,19 @@
         <f>SUMIF(C$109:C128,"=1")/SUMIF(C$109:C$138,"=1")</f>
         <v>0.61538461538461542</v>
       </c>
-    </row>
-    <row r="129" spans="1:19">
+      <c r="V128" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="W128" s="1">
+        <f t="shared" ref="W128:X128" si="43">(1 + $V$2^2) * (W112*$V112/($V$2^2 * W112 +$V112))</f>
+        <v>0.42</v>
+      </c>
+      <c r="X128" s="1">
+        <f t="shared" si="43"/>
+        <v>0.42253521126760563</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>21</v>
       </c>
@@ -11124,11 +13976,11 @@
         <v>0.38095238095238093</v>
       </c>
       <c r="N129" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O129" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R129" s="1">
@@ -11139,8 +13991,19 @@
         <f>SUMIF(C$109:C129,"=1")/SUMIF(C$109:C$138,"=1")</f>
         <v>0.61538461538461542</v>
       </c>
-    </row>
-    <row r="130" spans="1:19">
+      <c r="V129" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="W129" s="1">
+        <f t="shared" ref="W129:X129" si="44">(1 + $V$2^2) * (W113*$V113/($V$2^2 * W113 +$V113))</f>
+        <v>0.50909090909090904</v>
+      </c>
+      <c r="X129" s="1">
+        <f t="shared" si="44"/>
+        <v>0.47457627118644069</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>22</v>
       </c>
@@ -11159,11 +14022,11 @@
         <v>0.40909090909090912</v>
       </c>
       <c r="N130" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O130" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>0.40909090909090912</v>
       </c>
       <c r="R130" s="1">
@@ -11174,8 +14037,19 @@
         <f>SUMIF(C$109:C130,"=1")/SUMIF(C$109:C$138,"=1")</f>
         <v>0.69230769230769229</v>
       </c>
-    </row>
-    <row r="131" spans="1:19">
+      <c r="V130" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="W130" s="1">
+        <f t="shared" ref="W130:X130" si="45">(1 + $V$2^2) * (W114*$V114/($V$2^2 * W114 +$V114))</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="X130" s="1">
+        <f t="shared" si="45"/>
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>23</v>
       </c>
@@ -11194,11 +14068,11 @@
         <v>0.43478260869565216</v>
       </c>
       <c r="N131" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O131" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>0.43478260869565216</v>
       </c>
       <c r="R131" s="1">
@@ -11209,8 +14083,19 @@
         <f>SUMIF(C$109:C131,"=1")/SUMIF(C$109:C$138,"=1")</f>
         <v>0.76923076923076927</v>
       </c>
-    </row>
-    <row r="132" spans="1:19">
+      <c r="V131" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="W131" s="1">
+        <f t="shared" ref="W131:X131" si="46">(1 + $V$2^2) * (W115*$V115/($V$2^2 * W115 +$V115))</f>
+        <v>0.64615384615384619</v>
+      </c>
+      <c r="X131" s="1">
+        <f t="shared" si="46"/>
+        <v>0.56470588235294117</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>24</v>
       </c>
@@ -11229,11 +14114,11 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="N132" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="38"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="O132" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R132" s="1">
@@ -11244,8 +14129,19 @@
         <f>SUMIF(C$109:C132,"=1")/SUMIF(C$109:C$138,"=1")</f>
         <v>0.76923076923076927</v>
       </c>
-    </row>
-    <row r="133" spans="1:19">
+      <c r="V132" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="W132" s="1">
+        <f t="shared" ref="W132:X132" si="47">(1 + $V$2^2) * (W116*$V116/($V$2^2 * W116 +$V116))</f>
+        <v>0.64615384615384619</v>
+      </c>
+      <c r="X132" s="1">
+        <f t="shared" si="47"/>
+        <v>0.54654654654654644</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>25</v>
       </c>
@@ -11264,11 +14160,11 @@
         <v>0.4</v>
       </c>
       <c r="N133" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O133" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R133" s="1">
@@ -11279,8 +14175,19 @@
         <f>SUMIF(C$109:C133,"=1")/SUMIF(C$109:C$138,"=1")</f>
         <v>0.76923076923076927</v>
       </c>
-    </row>
-    <row r="134" spans="1:19">
+      <c r="V133" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="W133" s="1">
+        <f t="shared" ref="W133:X133" si="48">(1 + $V$2^2) * (W117*$V117/($V$2^2 * W117 +$V117))</f>
+        <v>0.68571428571428572</v>
+      </c>
+      <c r="X133" s="1">
+        <f t="shared" si="48"/>
+        <v>0.57458563535911611</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>26</v>
       </c>
@@ -11299,11 +14206,11 @@
         <v>0.42307692307692307</v>
       </c>
       <c r="N134" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O134" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>0.42307692307692307</v>
       </c>
       <c r="R134" s="1">
@@ -11314,8 +14221,19 @@
         <f>SUMIF(C$109:C134,"=1")/SUMIF(C$109:C$138,"=1")</f>
         <v>0.84615384615384615</v>
       </c>
-    </row>
-    <row r="135" spans="1:19">
+      <c r="V134" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="W134" s="1">
+        <f t="shared" ref="W134:X134" si="49">(1 + $V$2^2) * (W118*$V118/($V$2^2 * W118 +$V118))</f>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="X134" s="1">
+        <f t="shared" si="49"/>
+        <v>0.59846547314578002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>27</v>
       </c>
@@ -11334,11 +14252,11 @@
         <v>0.40740740740740738</v>
       </c>
       <c r="N135" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O135" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R135" s="1">
@@ -11349,8 +14267,19 @@
         <f>SUMIF(C$109:C135,"=1")/SUMIF(C$109:C$138,"=1")</f>
         <v>0.84615384615384615</v>
       </c>
-    </row>
-    <row r="136" spans="1:19">
+      <c r="V135" s="4">
+        <v>1</v>
+      </c>
+      <c r="W135" s="1">
+        <f t="shared" ref="W135:X135" si="50">(1 + $V$2^2) * (W119*$V119/($V$2^2 * W119 +$V119))</f>
+        <v>0.62857142857142856</v>
+      </c>
+      <c r="X135" s="1">
+        <f t="shared" si="50"/>
+        <v>0.61904761904761907</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>28</v>
       </c>
@@ -11369,11 +14298,11 @@
         <v>0.42857142857142855</v>
       </c>
       <c r="N136" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O136" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="R136" s="1">
@@ -11385,7 +14314,7 @@
         <v>0.92307692307692313</v>
       </c>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>29</v>
       </c>
@@ -11404,11 +14333,11 @@
         <v>0.44827586206896552</v>
       </c>
       <c r="N137" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O137" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>0.44827586206896552</v>
       </c>
       <c r="R137" s="1">
@@ -11420,7 +14349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>30</v>
       </c>
@@ -11439,11 +14368,11 @@
         <v>0.43333333333333335</v>
       </c>
       <c r="N138" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O138" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R138" s="1">
@@ -11455,7 +14384,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:19">
+    <row r="139" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="I139" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J139" s="6">
+        <f>AVERAGE(J109:J138)</f>
+        <v>0.47582606612828299</v>
+      </c>
+      <c r="K139" s="6">
+        <f>AVERAGE(K109:K138)</f>
+        <v>0.52323333949795103</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="I142" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J142" s="6">
+        <f>AVERAGE(J104,J139,J69,J34)</f>
+        <v>0.39787399084009939</v>
+      </c>
+      <c r="K142" s="6">
+        <f>AVERAGE(K139,K104,K69,K34)</f>
+        <v>0.58238455039329395</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -11463,18 +14418,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="5:11">
+    <row r="145" spans="5:11" x14ac:dyDescent="0.2">
       <c r="F145" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="5"/>
     </row>
-    <row r="146" spans="5:11">
+    <row r="146" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E146" s="3" t="s">
         <v>11</v>
       </c>
@@ -11485,7 +14440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="5:11">
+    <row r="147" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E147" s="4">
         <v>0</v>
       </c>
@@ -11500,151 +14455,151 @@
       <c r="J147" s="5"/>
       <c r="K147" s="5"/>
     </row>
-    <row r="148" spans="5:11">
+    <row r="148" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E148" s="4">
         <v>0.1</v>
       </c>
       <c r="F148" s="1">
-        <f t="shared" ref="F148:G148" si="11">AVERAGE(W5,W40,W75,W110)</f>
+        <f t="shared" ref="F148:G148" si="51">AVERAGE(W5,W40,W75,W110)</f>
         <v>0.52916666666666656</v>
       </c>
       <c r="G148" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="51"/>
         <v>0.85416666666666663</v>
       </c>
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
     </row>
-    <row r="149" spans="5:11">
+    <row r="149" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E149" s="4">
         <v>0.2</v>
       </c>
       <c r="F149" s="1">
-        <f t="shared" ref="F149:G149" si="12">AVERAGE(W6,W41,W76,W111)</f>
+        <f t="shared" ref="F149:G149" si="52">AVERAGE(W6,W41,W76,W111)</f>
         <v>0.52916666666666656</v>
       </c>
       <c r="G149" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="52"/>
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="150" spans="5:11">
+    <row r="150" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E150" s="4">
         <v>0.3</v>
       </c>
       <c r="F150" s="1">
-        <f t="shared" ref="F150:G150" si="13">AVERAGE(W7,W42,W77,W112)</f>
+        <f t="shared" ref="F150:G150" si="53">AVERAGE(W7,W42,W77,W112)</f>
         <v>0.52916666666666656</v>
       </c>
       <c r="G150" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="53"/>
         <v>0.84523809523809523</v>
       </c>
     </row>
-    <row r="151" spans="5:11">
+    <row r="151" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E151" s="4">
         <v>0.4</v>
       </c>
       <c r="F151" s="1">
-        <f t="shared" ref="F151:G151" si="14">AVERAGE(W8,W43,W78,W113)</f>
+        <f t="shared" ref="F151:G151" si="54">AVERAGE(W8,W43,W78,W113)</f>
         <v>0.52916666666666656</v>
       </c>
       <c r="G151" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="54"/>
         <v>0.8125</v>
       </c>
     </row>
-    <row r="152" spans="5:11">
+    <row r="152" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E152" s="4">
         <v>0.5</v>
       </c>
       <c r="F152" s="1">
-        <f t="shared" ref="F152:G152" si="15">AVERAGE(W9,W44,W79,W114)</f>
+        <f t="shared" ref="F152:G152" si="55">AVERAGE(W9,W44,W79,W114)</f>
         <v>0.52916666666666656</v>
       </c>
       <c r="G152" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="55"/>
         <v>0.8125</v>
       </c>
     </row>
-    <row r="153" spans="5:11">
+    <row r="153" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E153" s="4">
         <v>0.6</v>
       </c>
       <c r="F153" s="1">
-        <f t="shared" ref="F153:G153" si="16">AVERAGE(W10,W45,W80,W115)</f>
+        <f t="shared" ref="F153:G153" si="56">AVERAGE(W10,W45,W80,W115)</f>
         <v>0.52916666666666656</v>
       </c>
       <c r="G153" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="56"/>
         <v>0.77916666666666667</v>
       </c>
     </row>
-    <row r="154" spans="5:11">
+    <row r="154" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E154" s="4">
         <v>0.7</v>
       </c>
       <c r="F154" s="1">
-        <f t="shared" ref="F154:G154" si="17">AVERAGE(W11,W46,W81,W116)</f>
+        <f t="shared" ref="F154:G154" si="57">AVERAGE(W11,W46,W81,W116)</f>
         <v>0.50416666666666665</v>
       </c>
       <c r="G154" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="57"/>
         <v>0.75790229885057481</v>
       </c>
     </row>
-    <row r="155" spans="5:11">
+    <row r="155" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E155" s="4">
         <v>0.8</v>
       </c>
       <c r="F155" s="1">
-        <f t="shared" ref="F155:G155" si="18">AVERAGE(W12,W47,W82,W117)</f>
+        <f t="shared" ref="F155:G155" si="58">AVERAGE(W12,W47,W82,W117)</f>
         <v>0.50416666666666665</v>
       </c>
       <c r="G155" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="58"/>
         <v>0.75790229885057481</v>
       </c>
     </row>
-    <row r="156" spans="5:11">
+    <row r="156" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E156" s="4">
         <v>0.9</v>
       </c>
       <c r="F156" s="1">
-        <f t="shared" ref="F156:G156" si="19">AVERAGE(W13,W48,W83,W118)</f>
+        <f t="shared" ref="F156:G156" si="59">AVERAGE(W13,W48,W83,W118)</f>
         <v>0.47916666666666663</v>
       </c>
       <c r="G156" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="59"/>
         <v>0.57734674329501923</v>
       </c>
     </row>
-    <row r="157" spans="5:11">
+    <row r="157" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E157" s="4">
         <v>1</v>
       </c>
       <c r="F157" s="1">
-        <f t="shared" ref="F157:G157" si="20">AVERAGE(W14,W49,W84,W119)</f>
+        <f t="shared" ref="F157:G157" si="60">AVERAGE(W14,W49,W84,W119)</f>
         <v>0.46874999999999994</v>
       </c>
       <c r="G157" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="60"/>
         <v>0.57734674329501923</v>
       </c>
     </row>
-    <row r="167" spans="5:7">
+    <row r="167" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E167" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="5:7">
+    <row r="169" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F169" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="5"/>
     </row>
-    <row r="170" spans="5:7">
+    <row r="170" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E170" s="3" t="s">
         <v>11</v>
       </c>
@@ -11655,7 +14610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="5:7">
+    <row r="171" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E171" s="4">
         <v>0</v>
       </c>
@@ -11668,138 +14623,145 @@
         <v>0.88888888888888884</v>
       </c>
     </row>
-    <row r="172" spans="5:7">
+    <row r="172" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E172" s="4">
         <v>0.1</v>
       </c>
       <c r="F172" s="1">
-        <f t="shared" ref="F172:G172" si="21">AVERAGE(W110,W40,W5)</f>
+        <f t="shared" ref="F172:G172" si="61">AVERAGE(W110,W40,W5)</f>
         <v>0.37222222222222223</v>
       </c>
       <c r="G172" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="61"/>
         <v>0.80555555555555547</v>
       </c>
     </row>
-    <row r="173" spans="5:7">
+    <row r="173" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E173" s="4">
         <v>0.2</v>
       </c>
       <c r="F173" s="1">
-        <f t="shared" ref="F173:G173" si="22">AVERAGE(W111,W41,W6)</f>
+        <f t="shared" ref="F173:G173" si="62">AVERAGE(W111,W41,W6)</f>
         <v>0.37222222222222223</v>
       </c>
       <c r="G173" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="62"/>
         <v>0.80555555555555547</v>
       </c>
     </row>
-    <row r="174" spans="5:7">
+    <row r="174" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E174" s="4">
         <v>0.3</v>
       </c>
       <c r="F174" s="1">
-        <f t="shared" ref="F174:G174" si="23">AVERAGE(W112,W42,W7)</f>
+        <f t="shared" ref="F174:G174" si="63">AVERAGE(W112,W42,W7)</f>
         <v>0.37222222222222223</v>
       </c>
       <c r="G174" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="63"/>
         <v>0.79365079365079361</v>
       </c>
     </row>
-    <row r="175" spans="5:7">
+    <row r="175" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E175" s="4">
         <v>0.4</v>
       </c>
       <c r="F175" s="1">
-        <f t="shared" ref="F175:G175" si="24">AVERAGE(W113,W43,W8)</f>
+        <f t="shared" ref="F175:G175" si="64">AVERAGE(W113,W43,W8)</f>
         <v>0.37222222222222223</v>
       </c>
       <c r="G175" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="64"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="176" spans="5:7">
+    <row r="176" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E176" s="4">
         <v>0.5</v>
       </c>
       <c r="F176" s="1">
-        <f t="shared" ref="F176:G176" si="25">AVERAGE(W114,W44,W9)</f>
+        <f t="shared" ref="F176:G176" si="65">AVERAGE(W114,W44,W9)</f>
         <v>0.37222222222222223</v>
       </c>
       <c r="G176" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="65"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="177" spans="5:7">
+    <row r="177" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E177" s="4">
         <v>0.6</v>
       </c>
       <c r="F177" s="1">
-        <f t="shared" ref="F177:G177" si="26">AVERAGE(W115,W45,W10)</f>
+        <f t="shared" ref="F177:G177" si="66">AVERAGE(W115,W45,W10)</f>
         <v>0.37222222222222223</v>
       </c>
       <c r="G177" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="66"/>
         <v>0.7055555555555556</v>
       </c>
     </row>
-    <row r="178" spans="5:7">
+    <row r="178" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E178" s="4">
         <v>0.7</v>
       </c>
       <c r="F178" s="1">
-        <f t="shared" ref="F178:G178" si="27">AVERAGE(W116,W46,W11)</f>
+        <f t="shared" ref="F178:G178" si="67">AVERAGE(W116,W46,W11)</f>
         <v>0.33888888888888885</v>
       </c>
       <c r="G178" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="67"/>
         <v>0.67720306513409956</v>
       </c>
     </row>
-    <row r="179" spans="5:7">
+    <row r="179" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E179" s="4">
         <v>0.8</v>
       </c>
       <c r="F179" s="1">
-        <f t="shared" ref="F179:G179" si="28">AVERAGE(W117,W47,W12)</f>
+        <f t="shared" ref="F179:G179" si="68">AVERAGE(W117,W47,W12)</f>
         <v>0.33888888888888885</v>
       </c>
       <c r="G179" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="68"/>
         <v>0.67720306513409956</v>
       </c>
     </row>
-    <row r="180" spans="5:7">
+    <row r="180" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E180" s="4">
         <v>0.9</v>
       </c>
       <c r="F180" s="1">
-        <f t="shared" ref="F180:G180" si="29">AVERAGE(W118,W48,W13)</f>
+        <f t="shared" ref="F180:G180" si="69">AVERAGE(W118,W48,W13)</f>
         <v>0.30555555555555558</v>
       </c>
       <c r="G180" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="69"/>
         <v>0.4364623243933588</v>
       </c>
     </row>
-    <row r="181" spans="5:7">
+    <row r="181" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E181" s="4">
         <v>1</v>
       </c>
       <c r="F181" s="1">
-        <f t="shared" ref="F181:G181" si="30">AVERAGE(W119,W49,W14)</f>
+        <f t="shared" ref="F181:G181" si="70">AVERAGE(W119,W49,W14)</f>
         <v>0.29166666666666669</v>
       </c>
       <c r="G181" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="70"/>
         <v>0.4364623243933588</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="23">
+    <mergeCell ref="W123:X123"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="W88:X88"/>
     <mergeCell ref="F169:G169"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="J37:K37"/>
@@ -11816,9 +14778,6 @@
     <mergeCell ref="W107:X107"/>
     <mergeCell ref="J147:K147"/>
     <mergeCell ref="F145:G145"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="R72:S72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/solr/Evaluation.xlsx
+++ b/solr/Evaluation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PRI\solr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\up202004907\Documents\GitHub\PRI\solr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647EA729-EB91-4F6A-983D-6D50E871D65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CEB498-2C75-41C1-AC24-C5B0766C79F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F5A3B19-910C-4A1F-9359-A2D6231D0330}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -200,12 +198,12 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -410,91 +408,91 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.33333333333333331</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.27272727272727271</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.14285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1111111111111111</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.0909090909090912E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.3333333333333329E-2</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.6923076923076927E-2</c:v>
+                  <c:v>0.30769230769230771</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.1428571428571425E-2</c:v>
+                  <c:v>0.35714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.8823529411764705E-2</c:v>
+                  <c:v>0.41176470588235292</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.5555555555555552E-2</c:v>
+                  <c:v>0.3888888888888889</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.2631578947368418E-2</c:v>
+                  <c:v>0.36842105263157893</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.05</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.7619047619047616E-2</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.5454545454545456E-2</c:v>
+                  <c:v>0.31818181818181818</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.3478260869565216E-2</c:v>
+                  <c:v>0.30434782608695654</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.1666666666666664E-2</c:v>
+                  <c:v>0.29166666666666669</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.04</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8461538461538464E-2</c:v>
+                  <c:v>0.30769230769230771</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.7037037037037035E-2</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.5714285714285712E-2</c:v>
+                  <c:v>0.32142857142857145</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.4482758620689655E-2</c:v>
+                  <c:v>0.31034482758620691</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.3333333333333333E-2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -646,79 +644,79 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.66666666666666663</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54545454545454541</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.53846153846153844</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="14">
+                  <c:v>0.46666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.41176470588235292</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0.44444444444444442</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="18">
+                  <c:v>0.47368421052631576</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.47619047619047616</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.45454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.43478260869565216</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.36363636363636365</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.30769230769230771</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.2857142857142857</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.26666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.23529411764705882</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.27777777777777779</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.26315789473684209</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.23809523809523808</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.22727272727272727</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.21739130434782608</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.20833333333333334</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.2</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.19230769230769232</c:v>
+                  <c:v>0.38461538461538464</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.18518518518518517</c:v>
+                  <c:v>0.37037037037037035</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.17857142857142858</c:v>
+                  <c:v>0.39285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.17241379310344829</c:v>
+                  <c:v>0.37931034482758619</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.36666666666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1111,42 +1109,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$171:$F$181</c:f>
+              <c:f>Sheet1!$F$201:$F$211</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.37222222222222223</c:v>
+                  <c:v>0.52254901960784317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37222222222222223</c:v>
+                  <c:v>0.52254901960784317</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37222222222222223</c:v>
+                  <c:v>0.52254901960784317</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.37222222222222223</c:v>
+                  <c:v>0.52254901960784317</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37222222222222223</c:v>
+                  <c:v>0.40980392156862749</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.37222222222222223</c:v>
+                  <c:v>0.40980392156862749</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37222222222222223</c:v>
+                  <c:v>0.37647058823529411</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.33888888888888885</c:v>
+                  <c:v>0.37647058823529411</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.33888888888888885</c:v>
+                  <c:v>0.31699346405228757</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.30555555555555558</c:v>
+                  <c:v>0.30417295123177479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.29166666666666669</c:v>
+                  <c:v>0.30417295123177479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1219,7 +1217,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$171:$G$181</c:f>
+              <c:f>Sheet1!$G$201:$G$211</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1227,34 +1225,34 @@
                   <c:v>0.88888888888888884</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.80555555555555547</c:v>
+                  <c:v>0.88888888888888884</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80555555555555547</c:v>
+                  <c:v>0.88888888888888884</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.79365079365079361</c:v>
+                  <c:v>0.84126984126984128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.75</c:v>
+                  <c:v>0.69444444444444453</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.75</c:v>
+                  <c:v>0.63888888888888884</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7055555555555556</c:v>
+                  <c:v>0.58496732026143794</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.67720306513409956</c:v>
+                  <c:v>0.49550224887556221</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.67720306513409956</c:v>
+                  <c:v>0.49550224887556221</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4364623243933588</c:v>
+                  <c:v>0.49550224887556221</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.4364623243933588</c:v>
+                  <c:v>0.45066289606519488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1565,25 +1563,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15384615384615383</c:v>
+                  <c:v>0.17647058823529416</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0.31578947368421056</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31578947368421051</c:v>
+                  <c:v>0.42857142857142849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.36363636363636359</c:v>
+                  <c:v>0.40579710144927533</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4</c:v>
+                  <c:v>0.45161290322580644</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.42857142857142855</c:v>
+                  <c:v>0.48837209302325579</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.45161290322580644</c:v>
+                  <c:v>0.51851851851851849</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.47058823529411764</c:v>
@@ -1674,25 +1672,25 @@
                   <c:v>0.46153846153846151</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.54054054054054057</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.57142857142857151</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.74999999999999989</c:v>
+                  <c:v>0.59154929577464799</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.82352941176470584</c:v>
+                  <c:v>0.58333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88888888888888895</c:v>
+                  <c:v>0.61538461538461542</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.42452830188679241</c:v>
+                  <c:v>0.6428571428571429</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.43478260869565222</c:v>
+                  <c:v>0.5641025641025641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2107,34 +2105,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0909090909090898E-2</c:v>
+                  <c:v>0.1081081081081081</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11764705882352941</c:v>
+                  <c:v>0.14814814814814817</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13043478260869565</c:v>
+                  <c:v>0.16901408450704228</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13793103448275862</c:v>
+                  <c:v>0.1818181818181818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14285714285714285</c:v>
+                  <c:v>0.19047619047619047</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14634146341463414</c:v>
+                  <c:v>0.19672131147540983</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14893617021276595</c:v>
+                  <c:v>0.20143884892086331</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15094339622641509</c:v>
+                  <c:v>0.20512820512820512</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15254237288135591</c:v>
+                  <c:v>0.20809248554913296</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.15384615384615385</c:v>
+                  <c:v>0.21052631578947367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2216,25 +2214,25 @@
                   <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0.47457627118644069</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.57142857142857151</c:v>
+                  <c:v>0.53846153846153844</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.59154929577464799</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.63636363636363646</c:v>
+                  <c:v>0.53639846743295017</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.67469879518072295</c:v>
+                  <c:v>0.56338028169014087</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7078651685393258</c:v>
+                  <c:v>0.58631921824104238</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.73684210526315785</c:v>
+                  <c:v>0.57894736842105254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2667,16 +2665,16 @@
                   <c:v>0.74999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.82352941176470584</c:v>
+                  <c:v>0.8034782608695652</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88888888888888895</c:v>
+                  <c:v>0.8519480519480519</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.94736842105263164</c:v>
+                  <c:v>0.89679715302491092</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0.86792452830188693</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2767,16 +2765,16 @@
                   <c:v>0.74999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.82352941176470584</c:v>
+                  <c:v>0.8034782608695652</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88888888888888895</c:v>
+                  <c:v>0.8519480519480519</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.94736842105263164</c:v>
+                  <c:v>0.89679715302491092</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0.86792452830188693</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3183,7 +3181,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$W$125:$W$135</c:f>
+              <c:f>Sheet1!$W$155:$W$165</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3206,19 +3204,19 @@
                   <c:v>0.58333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.64615384615384619</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.64615384615384619</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.68571428571428572</c:v>
+                  <c:v>0.61538461538461542</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.6428571428571429</c:v>
+                  <c:v>0.61016949152542377</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.62857142857142856</c:v>
+                  <c:v>0.63157894736842102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3283,7 +3281,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$X$125:$X$135</c:f>
+              <c:f>Sheet1!$X$155:$X$165</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3291,34 +3289,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17647058823529416</c:v>
+                  <c:v>0.18181818181818182</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31578947368421056</c:v>
+                  <c:v>0.33333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42253521126760563</c:v>
+                  <c:v>0.44444444444444442</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47457627118644069</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.53846153846153844</c:v>
+                  <c:v>0.57142857142857151</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.56470588235294117</c:v>
+                  <c:v>0.59405940594059414</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.54654654654654644</c:v>
+                  <c:v>0.61707988980716255</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.57458563535911611</c:v>
+                  <c:v>0.65306122448979587</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.59846547314578002</c:v>
+                  <c:v>0.68408551068883605</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.61904761904761907</c:v>
+                  <c:v>0.71111111111111114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3716,28 +3714,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.41176470588235292</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.41176470588235292</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.41176470588235292</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.41176470588235292</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.33333333333333331</c:v>
@@ -3836,25 +3834,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.58333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.27777777777777779</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.27777777777777779</c:v>
+                  <c:v>0.39285714285714285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4262,46 +4260,46 @@
                   <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.8823529411764705E-2</c:v>
+                  <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.5555555555555552E-2</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.2631578947368418E-2</c:v>
+                  <c:v>0.10526315789473684</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.05</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.7619047619047616E-2</c:v>
+                  <c:v>9.5238095238095233E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.5454545454545456E-2</c:v>
+                  <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.3478260869565216E-2</c:v>
+                  <c:v>8.6956521739130432E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.1666666666666664E-2</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.04</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8461538461538464E-2</c:v>
+                  <c:v>7.6923076923076927E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.7037037037037035E-2</c:v>
+                  <c:v>7.407407407407407E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.5714285714285712E-2</c:v>
+                  <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.4482758620689655E-2</c:v>
+                  <c:v>6.8965517241379309E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.3333333333333333E-2</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4492,40 +4490,40 @@
                   <c:v>0.3888888888888889</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.36842105263157893</c:v>
+                  <c:v>0.42105263157894735</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.35</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.38095238095238093</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.31818181818181818</c:v>
+                  <c:v>0.40909090909090912</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.30434782608695654</c:v>
+                  <c:v>0.43478260869565216</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.29166666666666669</c:v>
+                  <c:v>0.41666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.26923076923076922</c:v>
+                  <c:v>0.38461538461538464</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.25925925925925924</c:v>
+                  <c:v>0.40740740740740738</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.25</c:v>
+                  <c:v>0.39285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.2413793103448276</c:v>
+                  <c:v>0.37931034482758619</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.23333333333333334</c:v>
+                  <c:v>0.36666666666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4923,37 +4921,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.11764705882352941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5043,25 +5041,25 @@
                   <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.58333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.58333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.58333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.58333333333333337</c:v>
+                  <c:v>0.43478260869565216</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.58333333333333337</c:v>
+                  <c:v>0.43478260869565216</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.58333333333333337</c:v>
+                  <c:v>0.43478260869565216</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.58333333333333337</c:v>
+                  <c:v>0.40740740740740738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6151,16 +6149,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0.94285714285714284</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0.91111111111111109</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0.8936170212765957</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0.76666666666666672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6259,16 +6257,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0.94285714285714284</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0.91111111111111109</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0.8936170212765957</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0.76666666666666672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6623,7 +6621,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$109:$J$138</c:f>
+              <c:f>Sheet1!$J$139:$J$168</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -6703,19 +6701,19 @@
                   <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.42307692307692307</c:v>
+                  <c:v>0.46153846153846156</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.40740740740740738</c:v>
+                  <c:v>0.44444444444444442</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.39285714285714285</c:v>
+                  <c:v>0.42857142857142855</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.37931034482758619</c:v>
+                  <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.36666666666666664</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6847,7 +6845,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$109:$K$138</c:f>
+              <c:f>Sheet1!$K$139:$K$168</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -6855,91 +6853,91 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63636363636363635</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.61538461538461542</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.58823529411764708</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.55555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.52631578947368418</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7142857142857143</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.55555555555555558</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="20">
+                  <c:v>0.47619047619047616</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.54545454545454541</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.58333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.53846153846153844</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="22">
+                  <c:v>0.52173913043478259</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="24">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.51851851851851849</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.5357142857142857</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.55172413793103448</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>0.53333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.47058823529411764</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.44444444444444442</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.42105263157894735</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.38095238095238093</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.40909090909090912</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.43478260869565216</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.41666666666666669</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.42307692307692307</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.40740740740740738</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.42857142857142855</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.44827586206896552</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.43333333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7332,7 +7330,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$W$109:$W$119</c:f>
+              <c:f>Sheet1!$W$139:$W$149</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -7355,19 +7353,19 @@
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5</c:v>
+                  <c:v>0.46153846153846156</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.45833333333333331</c:v>
+                  <c:v>0.46153846153846156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7440,7 +7438,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$X$109:$X$119</c:f>
+              <c:f>Sheet1!$X$139:$X$149</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -7448,34 +7446,34 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7142857142857143</c:v>
+                  <c:v>0.8571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58333333333333337</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.58333333333333337</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.53333333333333333</c:v>
+                  <c:v>0.58823529411764708</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.44827586206896552</c:v>
+                  <c:v>0.55172413793103448</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.44827586206896552</c:v>
+                  <c:v>0.55172413793103448</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.44827586206896552</c:v>
+                  <c:v>0.55172413793103448</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.44827586206896552</c:v>
+                  <c:v>0.55172413793103448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7764,42 +7762,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$147:$F$157</c:f>
+              <c:f>Sheet1!$F$177:$F$187</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.52916666666666656</c:v>
+                  <c:v>0.64191176470588229</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52916666666666656</c:v>
+                  <c:v>0.64191176470588229</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52916666666666656</c:v>
+                  <c:v>0.64191176470588229</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52916666666666656</c:v>
+                  <c:v>0.64191176470588229</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.52916666666666656</c:v>
+                  <c:v>0.55735294117647061</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.52916666666666656</c:v>
+                  <c:v>0.55735294117647061</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.52916666666666656</c:v>
+                  <c:v>0.53235294117647058</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.50416666666666665</c:v>
+                  <c:v>0.51806722689075635</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.50416666666666665</c:v>
+                  <c:v>0.46552287581699348</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.47916666666666663</c:v>
+                  <c:v>0.45153396874298002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.46874999999999994</c:v>
+                  <c:v>0.4197963800904978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7872,7 +7870,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$147:$G$157</c:f>
+              <c:f>Sheet1!$G$177:$G$187</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -7880,34 +7878,34 @@
                   <c:v>0.91666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85416666666666663</c:v>
+                  <c:v>0.91666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85416666666666663</c:v>
+                  <c:v>0.91666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84523809523809523</c:v>
+                  <c:v>0.88095238095238093</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8125</c:v>
+                  <c:v>0.77083333333333337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8125</c:v>
+                  <c:v>0.72916666666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.77916666666666667</c:v>
+                  <c:v>0.68872549019607854</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.75790229885057481</c:v>
+                  <c:v>0.6073409723709573</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.75790229885057481</c:v>
+                  <c:v>0.59940446443444939</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.57734674329501923</c:v>
+                  <c:v>0.59503094197582063</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.57734674329501923</c:v>
+                  <c:v>0.52966383871556277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8289,7 +8287,7 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>85164</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>40341</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5105400" cy="3152775"/>
@@ -8322,7 +8320,7 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>95808</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>6164</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5105400" cy="3036794"/>
@@ -8355,7 +8353,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5105400" cy="3036794"/>
@@ -8388,7 +8386,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>246530</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5105400" cy="3036794"/>
@@ -8520,7 +8518,7 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>394608</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>136072</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5105400" cy="3152775"/>
@@ -8849,10 +8847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90E2CE5-2754-4DEC-9740-5E5101C42739}">
-  <dimension ref="A1:Y181"/>
+  <dimension ref="A1:Y211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI119" sqref="AI119"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8868,30 +8866,30 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="N2" s="5" t="s">
+      <c r="K2" s="8"/>
+      <c r="N2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="5"/>
+      <c r="O2" s="8"/>
       <c r="P2"/>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="5"/>
+      <c r="S2" s="8"/>
       <c r="T2"/>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="8">
-        <v>1</v>
-      </c>
-      <c r="W2" s="5" t="s">
+      <c r="V2" s="7">
+        <v>1</v>
+      </c>
+      <c r="W2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="5"/>
+      <c r="X2" s="8"/>
       <c r="Y2"/>
     </row>
     <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.25">
@@ -8965,14 +8963,14 @@
       </c>
       <c r="S4" s="1">
         <f>SUMIF(C$4:C4,"=1")/SUMIF(C$4:C$33,"=1")</f>
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="V4" s="4">
         <v>0</v>
       </c>
       <c r="W4" s="1">
         <f>_xlfn.MAXIFS(J$4:J$33,R$4:R$33,"&gt;="&amp;$V4)</f>
-        <v>0.33333333333333331</v>
+        <v>0.75</v>
       </c>
       <c r="X4" s="1">
         <f>_xlfn.MAXIFS(K$4:K$33,S$4:S$33,"&gt;="&amp;$V4)</f>
@@ -8984,14 +8982,14 @@
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="J5" s="1">
         <f>SUM(B$4:B5)/A5</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K5" s="1">
         <f>SUM(C$4:C5)/A5</f>
@@ -8999,7 +8997,7 @@
       </c>
       <c r="N5" s="1">
         <f t="shared" ref="N5:O33" si="0">J5*B5</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O5" s="1">
         <f>K5*C5</f>
@@ -9007,18 +9005,18 @@
       </c>
       <c r="R5" s="1">
         <f>SUMIF(B$4:B5,"=1")/SUMIF(B$4:B$33,"=1")</f>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="S5" s="1">
         <f>SUMIF(C$4:C5,"=1")/SUMIF(C$4:C$33,"=1")</f>
-        <v>0.4</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="V5" s="4">
         <v>0.1</v>
       </c>
       <c r="W5" s="1">
         <f t="shared" ref="W5:X14" si="1">_xlfn.MAXIFS(J$4:J$33,R$4:R$33,"&gt;="&amp;$V5)</f>
-        <v>0.33333333333333331</v>
+        <v>0.75</v>
       </c>
       <c r="X5" s="1">
         <f t="shared" si="1"/>
@@ -9037,7 +9035,7 @@
       </c>
       <c r="J6" s="1">
         <f>SUM(B$4:B6)/A6</f>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K6" s="1">
         <f>SUM(C$4:C6)/A6</f>
@@ -9045,7 +9043,7 @@
       </c>
       <c r="N6" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="0"/>
@@ -9053,18 +9051,18 @@
       </c>
       <c r="R6" s="1">
         <f>SUMIF(B$4:B6,"=1")/SUMIF(B$4:B$33,"=1")</f>
-        <v>1</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="S6" s="1">
         <f>SUMIF(C$4:C6,"=1")/SUMIF(C$4:C$33,"=1")</f>
-        <v>0.6</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="V6" s="4">
         <v>0.2</v>
       </c>
       <c r="W6" s="1">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.75</v>
       </c>
       <c r="X6" s="1">
         <f t="shared" si="1"/>
@@ -9076,14 +9074,14 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="J7" s="1">
         <f>SUM(B$4:B7)/A7</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K7" s="1">
         <f>SUM(C$4:C7)/A7</f>
@@ -9091,7 +9089,7 @@
       </c>
       <c r="N7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="0"/>
@@ -9099,18 +9097,18 @@
       </c>
       <c r="R7" s="1">
         <f>SUMIF(B$4:B7,"=1")/SUMIF(B$4:B$33,"=1")</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S7" s="1">
         <f>SUMIF(C$4:C7,"=1")/SUMIF(C$4:C$33,"=1")</f>
-        <v>0.8</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="V7" s="4">
         <v>0.3</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.75</v>
       </c>
       <c r="X7" s="1">
         <f t="shared" si="1"/>
@@ -9129,7 +9127,7 @@
       </c>
       <c r="J8" s="1">
         <f>SUM(B$4:B8)/A8</f>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="K8" s="1">
         <f>SUM(C$4:C8)/A8</f>
@@ -9145,22 +9143,22 @@
       </c>
       <c r="R8" s="1">
         <f>SUMIF(B$4:B8,"=1")/SUMIF(B$4:B$33,"=1")</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S8" s="1">
         <f>SUMIF(C$4:C8,"=1")/SUMIF(C$4:C$33,"=1")</f>
-        <v>0.8</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="V8" s="4">
         <v>0.4</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.41176470588235292</v>
       </c>
       <c r="X8" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
@@ -9171,15 +9169,15 @@
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
         <f>SUM(B$4:B9)/A9</f>
-        <v>0.16666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="K9" s="1">
         <f>SUM(C$4:C9)/A9</f>
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="0"/>
@@ -9187,26 +9185,26 @@
       </c>
       <c r="O9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R9" s="1">
         <f>SUMIF(B$4:B9,"=1")/SUMIF(B$4:B$33,"=1")</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S9" s="1">
         <f>SUMIF(C$4:C9,"=1")/SUMIF(C$4:C$33,"=1")</f>
-        <v>0.8</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="V9" s="4">
         <v>0.5</v>
       </c>
       <c r="W9" s="1">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.41176470588235292</v>
       </c>
       <c r="X9" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
@@ -9221,11 +9219,11 @@
       </c>
       <c r="J10" s="1">
         <f>SUM(B$4:B10)/A10</f>
-        <v>0.14285714285714285</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="K10" s="1">
         <f>SUM(C$4:C10)/A10</f>
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="0"/>
@@ -9237,22 +9235,22 @@
       </c>
       <c r="R10" s="1">
         <f>SUMIF(B$4:B10,"=1")/SUMIF(B$4:B$33,"=1")</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S10" s="1">
         <f>SUMIF(C$4:C10,"=1")/SUMIF(C$4:C$33,"=1")</f>
-        <v>0.8</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="V10" s="4">
         <v>0.6</v>
       </c>
       <c r="W10" s="1">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.41176470588235292</v>
       </c>
       <c r="X10" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
@@ -9267,11 +9265,11 @@
       </c>
       <c r="J11" s="1">
         <f>SUM(B$4:B11)/A11</f>
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="K11" s="1">
         <f>SUM(C$4:C11)/A11</f>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="0"/>
@@ -9283,22 +9281,22 @@
       </c>
       <c r="R11" s="1">
         <f>SUMIF(B$4:B11,"=1")/SUMIF(B$4:B$33,"=1")</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S11" s="1">
         <f>SUMIF(C$4:C11,"=1")/SUMIF(C$4:C$33,"=1")</f>
-        <v>0.8</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="V11" s="4">
         <v>0.7</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.41176470588235292</v>
       </c>
       <c r="X11" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
@@ -9309,15 +9307,15 @@
         <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1">
         <f>SUM(B$4:B12)/A12</f>
-        <v>0.1111111111111111</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K12" s="1">
         <f>SUM(C$4:C12)/A12</f>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="0"/>
@@ -9325,15 +9323,15 @@
       </c>
       <c r="O12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="R12" s="1">
         <f>SUMIF(B$4:B12,"=1")/SUMIF(B$4:B$33,"=1")</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S12" s="1">
         <f>SUMIF(C$4:C12,"=1")/SUMIF(C$4:C$33,"=1")</f>
-        <v>0.8</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="V12" s="4">
         <v>0.8</v>
@@ -9344,7 +9342,7 @@
       </c>
       <c r="X12" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
@@ -9359,11 +9357,11 @@
       </c>
       <c r="J13" s="1">
         <f>SUM(B$4:B13)/A13</f>
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="K13" s="1">
         <f>SUM(C$4:C13)/A13</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="0"/>
@@ -9375,11 +9373,11 @@
       </c>
       <c r="R13" s="1">
         <f>SUMIF(B$4:B13,"=1")/SUMIF(B$4:B$33,"=1")</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S13" s="1">
         <f>SUMIF(C$4:C13,"=1")/SUMIF(C$4:C$33,"=1")</f>
-        <v>0.8</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="V13" s="4">
         <v>0.9</v>
@@ -9390,7 +9388,7 @@
       </c>
       <c r="X13" s="1">
         <f t="shared" si="1"/>
-        <v>0.27777777777777779</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
@@ -9405,11 +9403,11 @@
       </c>
       <c r="J14" s="1">
         <f>SUM(B$4:B14)/A14</f>
-        <v>9.0909090909090912E-2</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="K14" s="1">
         <f>SUM(C$4:C14)/A14</f>
-        <v>0.36363636363636365</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="0"/>
@@ -9421,11 +9419,11 @@
       </c>
       <c r="R14" s="1">
         <f>SUMIF(B$4:B14,"=1")/SUMIF(B$4:B$33,"=1")</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S14" s="1">
         <f>SUMIF(C$4:C14,"=1")/SUMIF(C$4:C$33,"=1")</f>
-        <v>0.8</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="V14" s="4">
         <v>1</v>
@@ -9436,7 +9434,7 @@
       </c>
       <c r="X14" s="1">
         <f t="shared" si="1"/>
-        <v>0.27777777777777779</v>
+        <v>0.39285714285714285</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
@@ -9447,15 +9445,15 @@
         <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1">
         <f>SUM(B$4:B15)/A15</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.25</v>
       </c>
       <c r="K15" s="1">
         <f>SUM(C$4:C15)/A15</f>
-        <v>0.33333333333333331</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="0"/>
@@ -9463,15 +9461,15 @@
       </c>
       <c r="O15" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="R15" s="1">
         <f>SUMIF(B$4:B15,"=1")/SUMIF(B$4:B$33,"=1")</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S15" s="1">
         <f>SUMIF(C$4:C15,"=1")/SUMIF(C$4:C$33,"=1")</f>
-        <v>0.8</v>
+        <v>0.63636363636363635</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
@@ -9479,22 +9477,22 @@
         <v>13</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="J16" s="1">
         <f>SUM(B$4:B16)/A16</f>
-        <v>7.6923076923076927E-2</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="K16" s="1">
         <f>SUM(C$4:C16)/A16</f>
-        <v>0.30769230769230771</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="O16" s="1">
         <f t="shared" si="0"/>
@@ -9502,11 +9500,11 @@
       </c>
       <c r="R16" s="1">
         <f>SUMIF(B$4:B16,"=1")/SUMIF(B$4:B$33,"=1")</f>
-        <v>1</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="S16" s="1">
         <f>SUMIF(C$4:C16,"=1")/SUMIF(C$4:C$33,"=1")</f>
-        <v>0.8</v>
+        <v>0.63636363636363635</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
@@ -9514,22 +9512,22 @@
         <v>14</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
       </c>
       <c r="J17" s="1">
         <f>SUM(B$4:B17)/A17</f>
-        <v>7.1428571428571425E-2</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="K17" s="1">
         <f>SUM(C$4:C17)/A17</f>
-        <v>0.2857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" si="0"/>
@@ -9537,11 +9535,11 @@
       </c>
       <c r="R17" s="1">
         <f>SUMIF(B$4:B17,"=1")/SUMIF(B$4:B$33,"=1")</f>
-        <v>1</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="S17" s="1">
         <f>SUMIF(C$4:C17,"=1")/SUMIF(C$4:C$33,"=1")</f>
-        <v>0.8</v>
+        <v>0.63636363636363635</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
@@ -9549,22 +9547,22 @@
         <v>15</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
       </c>
       <c r="J18" s="1">
         <f>SUM(B$4:B18)/A18</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.4</v>
       </c>
       <c r="K18" s="1">
         <f>SUM(C$4:C18)/A18</f>
-        <v>0.26666666666666666</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O18" s="1">
         <f t="shared" si="0"/>
@@ -9572,16 +9570,16 @@
       </c>
       <c r="R18" s="1">
         <f>SUMIF(B$4:B18,"=1")/SUMIF(B$4:B$33,"=1")</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S18" s="1">
         <f>SUMIF(C$4:C18,"=1")/SUMIF(C$4:C$33,"=1")</f>
-        <v>0.8</v>
-      </c>
-      <c r="W18" s="5" t="s">
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="W18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="X18" s="5"/>
+      <c r="X18" s="8"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -9595,11 +9593,11 @@
       </c>
       <c r="J19" s="1">
         <f>SUM(B$4:B19)/A19</f>
-        <v>6.25E-2</v>
+        <v>0.375</v>
       </c>
       <c r="K19" s="1">
         <f>SUM(C$4:C19)/A19</f>
-        <v>0.25</v>
+        <v>0.4375</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" si="0"/>
@@ -9611,11 +9609,11 @@
       </c>
       <c r="R19" s="1">
         <f>SUMIF(B$4:B19,"=1")/SUMIF(B$4:B$33,"=1")</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S19" s="1">
         <f>SUMIF(C$4:C19,"=1")/SUMIF(C$4:C$33,"=1")</f>
-        <v>0.8</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="V19" s="3" t="s">
         <v>11</v>
@@ -9632,22 +9630,22 @@
         <v>17</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
       </c>
       <c r="J20" s="1">
         <f>SUM(B$4:B20)/A20</f>
-        <v>5.8823529411764705E-2</v>
+        <v>0.41176470588235292</v>
       </c>
       <c r="K20" s="1">
         <f>SUM(C$4:C20)/A20</f>
-        <v>0.23529411764705882</v>
+        <v>0.41176470588235292</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.41176470588235292</v>
       </c>
       <c r="O20" s="1">
         <f t="shared" si="0"/>
@@ -9655,11 +9653,11 @@
       </c>
       <c r="R20" s="1">
         <f>SUMIF(B$4:B20,"=1")/SUMIF(B$4:B$33,"=1")</f>
-        <v>1</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="S20" s="1">
         <f>SUMIF(C$4:C20,"=1")/SUMIF(C$4:C$33,"=1")</f>
-        <v>0.8</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="V20" s="4">
         <v>0</v>
@@ -9685,11 +9683,11 @@
       </c>
       <c r="J21" s="1">
         <f>SUM(B$4:B21)/A21</f>
-        <v>5.5555555555555552E-2</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="K21" s="1">
         <f>SUM(C$4:C21)/A21</f>
-        <v>0.27777777777777779</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" si="0"/>
@@ -9697,22 +9695,22 @@
       </c>
       <c r="O21" s="1">
         <f t="shared" si="0"/>
-        <v>0.27777777777777779</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="R21" s="1">
         <f>SUMIF(B$4:B21,"=1")/SUMIF(B$4:B$33,"=1")</f>
-        <v>1</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="S21" s="1">
         <f>SUMIF(C$4:C21,"=1")/SUMIF(C$4:C$33,"=1")</f>
-        <v>1</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="V21" s="4">
         <v>0.1</v>
       </c>
       <c r="W21" s="1">
         <f t="shared" ref="W21:X21" si="2">(1 + $V$2^2) * (W5*$V5/($V$2^2 * W5 +$V5))</f>
-        <v>0.15384615384615383</v>
+        <v>0.17647058823529416</v>
       </c>
       <c r="X21" s="1">
         <f t="shared" si="2"/>
@@ -9727,15 +9725,15 @@
         <v>0</v>
       </c>
       <c r="C22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="1">
         <f>SUM(B$4:B22)/A22</f>
-        <v>5.2631578947368418E-2</v>
+        <v>0.36842105263157893</v>
       </c>
       <c r="K22" s="1">
         <f>SUM(C$4:C22)/A22</f>
-        <v>0.26315789473684209</v>
+        <v>0.47368421052631576</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" si="0"/>
@@ -9743,22 +9741,22 @@
       </c>
       <c r="O22" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47368421052631576</v>
       </c>
       <c r="R22" s="1">
         <f>SUMIF(B$4:B22,"=1")/SUMIF(B$4:B$33,"=1")</f>
-        <v>1</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="S22" s="1">
         <f>SUMIF(C$4:C22,"=1")/SUMIF(C$4:C$33,"=1")</f>
-        <v>1</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="V22" s="4">
         <v>0.2</v>
       </c>
       <c r="W22" s="1">
         <f t="shared" ref="W22:X22" si="3">(1 + $V$2^2) * (W6*$V6/($V$2^2 * W6 +$V6))</f>
-        <v>0.25</v>
+        <v>0.31578947368421056</v>
       </c>
       <c r="X22" s="1">
         <f t="shared" si="3"/>
@@ -9773,15 +9771,15 @@
         <v>0</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="1">
         <f>SUM(B$4:B23)/A23</f>
-        <v>0.05</v>
+        <v>0.35</v>
       </c>
       <c r="K23" s="1">
         <f>SUM(C$4:C23)/A23</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" si="0"/>
@@ -9789,22 +9787,22 @@
       </c>
       <c r="O23" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R23" s="1">
         <f>SUMIF(B$4:B23,"=1")/SUMIF(B$4:B$33,"=1")</f>
-        <v>1</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="S23" s="1">
         <f>SUMIF(C$4:C23,"=1")/SUMIF(C$4:C$33,"=1")</f>
-        <v>1</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="V23" s="4">
         <v>0.3</v>
       </c>
       <c r="W23" s="1">
         <f t="shared" ref="W23:X23" si="4">(1 + $V$2^2) * (W7*$V7/($V$2^2 * W7 +$V7))</f>
-        <v>0.31578947368421051</v>
+        <v>0.42857142857142849</v>
       </c>
       <c r="X23" s="1">
         <f t="shared" si="4"/>
@@ -9823,11 +9821,11 @@
       </c>
       <c r="J24" s="1">
         <f>SUM(B$4:B24)/A24</f>
-        <v>4.7619047619047616E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K24" s="1">
         <f>SUM(C$4:C24)/A24</f>
-        <v>0.23809523809523808</v>
+        <v>0.47619047619047616</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" si="0"/>
@@ -9839,22 +9837,22 @@
       </c>
       <c r="R24" s="1">
         <f>SUMIF(B$4:B24,"=1")/SUMIF(B$4:B$33,"=1")</f>
-        <v>1</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="S24" s="1">
         <f>SUMIF(C$4:C24,"=1")/SUMIF(C$4:C$33,"=1")</f>
-        <v>1</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="V24" s="4">
         <v>0.4</v>
       </c>
       <c r="W24" s="1">
         <f t="shared" ref="W24:X24" si="5">(1 + $V$2^2) * (W8*$V8/($V$2^2 * W8 +$V8))</f>
-        <v>0.36363636363636359</v>
+        <v>0.40579710144927533</v>
       </c>
       <c r="X24" s="1">
         <f t="shared" si="5"/>
-        <v>0.57142857142857151</v>
+        <v>0.54054054054054057</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
@@ -9869,11 +9867,11 @@
       </c>
       <c r="J25" s="1">
         <f>SUM(B$4:B25)/A25</f>
-        <v>4.5454545454545456E-2</v>
+        <v>0.31818181818181818</v>
       </c>
       <c r="K25" s="1">
         <f>SUM(C$4:C25)/A25</f>
-        <v>0.22727272727272727</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="N25" s="1">
         <f t="shared" si="0"/>
@@ -9885,22 +9883,22 @@
       </c>
       <c r="R25" s="1">
         <f>SUMIF(B$4:B25,"=1")/SUMIF(B$4:B$33,"=1")</f>
-        <v>1</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="S25" s="1">
         <f>SUMIF(C$4:C25,"=1")/SUMIF(C$4:C$33,"=1")</f>
-        <v>1</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="V25" s="4">
         <v>0.5</v>
       </c>
       <c r="W25" s="1">
         <f t="shared" ref="W25:X25" si="6">(1 + $V$2^2) * (W9*$V9/($V$2^2 * W9 +$V9))</f>
-        <v>0.4</v>
+        <v>0.45161290322580644</v>
       </c>
       <c r="X25" s="1">
         <f t="shared" si="6"/>
-        <v>0.66666666666666663</v>
+        <v>0.57142857142857151</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
@@ -9915,11 +9913,11 @@
       </c>
       <c r="J26" s="1">
         <f>SUM(B$4:B26)/A26</f>
-        <v>4.3478260869565216E-2</v>
+        <v>0.30434782608695654</v>
       </c>
       <c r="K26" s="1">
         <f>SUM(C$4:C26)/A26</f>
-        <v>0.21739130434782608</v>
+        <v>0.43478260869565216</v>
       </c>
       <c r="N26" s="1">
         <f t="shared" si="0"/>
@@ -9931,22 +9929,22 @@
       </c>
       <c r="R26" s="1">
         <f>SUMIF(B$4:B26,"=1")/SUMIF(B$4:B$33,"=1")</f>
-        <v>1</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="S26" s="1">
         <f>SUMIF(C$4:C26,"=1")/SUMIF(C$4:C$33,"=1")</f>
-        <v>1</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="V26" s="4">
         <v>0.6</v>
       </c>
       <c r="W26" s="1">
         <f t="shared" ref="W26:X26" si="7">(1 + $V$2^2) * (W10*$V10/($V$2^2 * W10 +$V10))</f>
-        <v>0.42857142857142855</v>
+        <v>0.48837209302325579</v>
       </c>
       <c r="X26" s="1">
         <f t="shared" si="7"/>
-        <v>0.74999999999999989</v>
+        <v>0.59154929577464799</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
@@ -9961,11 +9959,11 @@
       </c>
       <c r="J27" s="1">
         <f>SUM(B$4:B27)/A27</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="K27" s="1">
         <f>SUM(C$4:C27)/A27</f>
-        <v>0.20833333333333334</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="N27" s="1">
         <f t="shared" si="0"/>
@@ -9977,22 +9975,22 @@
       </c>
       <c r="R27" s="1">
         <f>SUMIF(B$4:B27,"=1")/SUMIF(B$4:B$33,"=1")</f>
-        <v>1</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="S27" s="1">
         <f>SUMIF(C$4:C27,"=1")/SUMIF(C$4:C$33,"=1")</f>
-        <v>1</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="V27" s="4">
         <v>0.7</v>
       </c>
       <c r="W27" s="1">
         <f t="shared" ref="W27:X27" si="8">(1 + $V$2^2) * (W11*$V11/($V$2^2 * W11 +$V11))</f>
-        <v>0.45161290322580644</v>
+        <v>0.51851851851851849</v>
       </c>
       <c r="X27" s="1">
         <f t="shared" si="8"/>
-        <v>0.82352941176470584</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
@@ -10000,22 +9998,22 @@
         <v>25</v>
       </c>
       <c r="B28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
       </c>
       <c r="J28" s="1">
         <f>SUM(B$4:B28)/A28</f>
-        <v>0.04</v>
+        <v>0.32</v>
       </c>
       <c r="K28" s="1">
         <f>SUM(C$4:C28)/A28</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="N28" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="O28" s="1">
         <f t="shared" si="0"/>
@@ -10023,11 +10021,11 @@
       </c>
       <c r="R28" s="1">
         <f>SUMIF(B$4:B28,"=1")/SUMIF(B$4:B$33,"=1")</f>
-        <v>1</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="S28" s="1">
         <f>SUMIF(C$4:C28,"=1")/SUMIF(C$4:C$33,"=1")</f>
-        <v>1</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="V28" s="4">
         <v>0.8</v>
@@ -10038,7 +10036,7 @@
       </c>
       <c r="X28" s="1">
         <f t="shared" si="9"/>
-        <v>0.88888888888888895</v>
+        <v>0.61538461538461542</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
@@ -10053,11 +10051,11 @@
       </c>
       <c r="J29" s="1">
         <f>SUM(B$4:B29)/A29</f>
-        <v>3.8461538461538464E-2</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="K29" s="1">
         <f>SUM(C$4:C29)/A29</f>
-        <v>0.19230769230769232</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="N29" s="1">
         <f t="shared" si="0"/>
@@ -10069,11 +10067,11 @@
       </c>
       <c r="R29" s="1">
         <f>SUMIF(B$4:B29,"=1")/SUMIF(B$4:B$33,"=1")</f>
-        <v>1</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="S29" s="1">
         <f>SUMIF(C$4:C29,"=1")/SUMIF(C$4:C$33,"=1")</f>
-        <v>1</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="V29" s="4">
         <v>0.9</v>
@@ -10084,7 +10082,7 @@
       </c>
       <c r="X29" s="1">
         <f t="shared" si="10"/>
-        <v>0.42452830188679241</v>
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
@@ -10092,22 +10090,22 @@
         <v>27</v>
       </c>
       <c r="B30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
       </c>
       <c r="J30" s="1">
         <f>SUM(B$4:B30)/A30</f>
-        <v>3.7037037037037035E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K30" s="1">
         <f>SUM(C$4:C30)/A30</f>
-        <v>0.18518518518518517</v>
+        <v>0.37037037037037035</v>
       </c>
       <c r="N30" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O30" s="1">
         <f t="shared" si="0"/>
@@ -10119,7 +10117,7 @@
       </c>
       <c r="S30" s="1">
         <f>SUMIF(C$4:C30,"=1")/SUMIF(C$4:C$33,"=1")</f>
-        <v>1</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="V30" s="4">
         <v>1</v>
@@ -10130,7 +10128,7 @@
       </c>
       <c r="X30" s="1">
         <f t="shared" si="11"/>
-        <v>0.43478260869565222</v>
+        <v>0.5641025641025641</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
@@ -10141,15 +10139,15 @@
         <v>0</v>
       </c>
       <c r="C31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="1">
         <f>SUM(B$4:B31)/A31</f>
-        <v>3.5714285714285712E-2</v>
+        <v>0.32142857142857145</v>
       </c>
       <c r="K31" s="1">
         <f>SUM(C$4:C31)/A31</f>
-        <v>0.17857142857142858</v>
+        <v>0.39285714285714285</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" si="0"/>
@@ -10157,7 +10155,7 @@
       </c>
       <c r="O31" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.39285714285714285</v>
       </c>
       <c r="R31" s="1">
         <f>SUMIF(B$4:B31,"=1")/SUMIF(B$4:B$33,"=1")</f>
@@ -10180,11 +10178,11 @@
       </c>
       <c r="J32" s="1">
         <f>SUM(B$4:B32)/A32</f>
-        <v>3.4482758620689655E-2</v>
+        <v>0.31034482758620691</v>
       </c>
       <c r="K32" s="1">
         <f>SUM(C$4:C32)/A32</f>
-        <v>0.17241379310344829</v>
+        <v>0.37931034482758619</v>
       </c>
       <c r="N32" s="1">
         <f t="shared" si="0"/>
@@ -10215,11 +10213,11 @@
       </c>
       <c r="J33" s="1">
         <f>SUM(B$4:B33)/A33</f>
-        <v>3.3333333333333333E-2</v>
+        <v>0.3</v>
       </c>
       <c r="K33" s="1">
         <f>SUM(C$4:C33)/A33</f>
-        <v>0.16666666666666666</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="N33" s="1">
         <f t="shared" si="0"/>
@@ -10239,16 +10237,16 @@
       </c>
     </row>
     <row r="34" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="5">
         <f>AVERAGE(J4:J33)</f>
-        <v>8.3166237697346337E-2</v>
-      </c>
-      <c r="K34" s="6">
+        <v>0.36918457326152943</v>
+      </c>
+      <c r="K34" s="5">
         <f>AVERAGE(K4:K33)</f>
-        <v>0.40673499328759549</v>
+        <v>0.57388667581634378</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
@@ -10257,24 +10255,24 @@
       </c>
     </row>
     <row r="37" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="J37" s="5" t="s">
+      <c r="J37" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K37" s="5"/>
-      <c r="N37" s="5" t="s">
+      <c r="K37" s="8"/>
+      <c r="N37" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O37" s="5"/>
+      <c r="O37" s="8"/>
       <c r="P37"/>
-      <c r="R37" s="5" t="s">
+      <c r="R37" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="S37" s="5"/>
+      <c r="S37" s="8"/>
       <c r="T37"/>
-      <c r="W37" s="5" t="s">
+      <c r="W37" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="X37" s="5"/>
+      <c r="X37" s="8"/>
     </row>
     <row r="38" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -10354,7 +10352,7 @@
       </c>
       <c r="W39" s="1">
         <f>_xlfn.MAXIFS(J$39:J$68,R$39:R$68,"&gt;="&amp;$V39)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="X39" s="1">
         <f>_xlfn.MAXIFS(K$39:K$68,S$39:S$68,"&gt;="&amp;$V39)</f>
@@ -10393,14 +10391,14 @@
       </c>
       <c r="S40" s="1">
         <f>SUMIF(C$39:C40,"=1")/SUMIF(C$39:C$68,"=1")</f>
-        <v>0.14285714285714285</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="V40" s="4">
         <v>0.1</v>
       </c>
       <c r="W40" s="1">
         <f t="shared" ref="W40:X49" si="13">_xlfn.MAXIFS(J$39:J$68,R$39:R$68,"&gt;="&amp;$V40)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="X40" s="1">
         <f t="shared" si="13"/>
@@ -10439,14 +10437,14 @@
       </c>
       <c r="S41" s="1">
         <f>SUMIF(C$39:C41,"=1")/SUMIF(C$39:C$68,"=1")</f>
-        <v>0.14285714285714285</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="V41" s="4">
         <v>0.2</v>
       </c>
       <c r="W41" s="1">
         <f t="shared" si="13"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="X41" s="1">
         <f t="shared" si="13"/>
@@ -10485,14 +10483,14 @@
       </c>
       <c r="S42" s="1">
         <f>SUMIF(C$39:C42,"=1")/SUMIF(C$39:C$68,"=1")</f>
-        <v>0.2857142857142857</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="V42" s="4">
         <v>0.3</v>
       </c>
       <c r="W42" s="1">
         <f t="shared" si="13"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="X42" s="1">
         <f t="shared" si="13"/>
@@ -10531,18 +10529,18 @@
       </c>
       <c r="S43" s="1">
         <f>SUMIF(C$39:C43,"=1")/SUMIF(C$39:C$68,"=1")</f>
-        <v>0.42857142857142855</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="V43" s="4">
         <v>0.4</v>
       </c>
       <c r="W43" s="1">
         <f t="shared" si="13"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="X43" s="1">
         <f t="shared" si="13"/>
-        <v>0.66666666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
@@ -10577,18 +10575,18 @@
       </c>
       <c r="S44" s="1">
         <f>SUMIF(C$39:C44,"=1")/SUMIF(C$39:C$68,"=1")</f>
-        <v>0.5714285714285714</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="V44" s="4">
         <v>0.5</v>
       </c>
       <c r="W44" s="1">
         <f t="shared" si="13"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="X44" s="1">
         <f t="shared" si="13"/>
-        <v>0.66666666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
@@ -10623,14 +10621,14 @@
       </c>
       <c r="S45" s="1">
         <f>SUMIF(C$39:C45,"=1")/SUMIF(C$39:C$68,"=1")</f>
-        <v>0.5714285714285714</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="V45" s="4">
         <v>0.6</v>
       </c>
       <c r="W45" s="1">
         <f t="shared" si="13"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="X45" s="1">
         <f t="shared" si="13"/>
@@ -10669,18 +10667,18 @@
       </c>
       <c r="S46" s="1">
         <f>SUMIF(C$39:C46,"=1")/SUMIF(C$39:C$68,"=1")</f>
-        <v>0.5714285714285714</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="V46" s="4">
         <v>0.7</v>
       </c>
       <c r="W46" s="1">
         <f t="shared" si="13"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="X46" s="1">
         <f t="shared" si="13"/>
-        <v>0.58333333333333337</v>
+        <v>0.43478260869565216</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
@@ -10715,18 +10713,18 @@
       </c>
       <c r="S47" s="1">
         <f>SUMIF(C$39:C47,"=1")/SUMIF(C$39:C$68,"=1")</f>
-        <v>0.5714285714285714</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="V47" s="4">
         <v>0.8</v>
       </c>
       <c r="W47" s="1">
         <f t="shared" si="13"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="X47" s="1">
         <f t="shared" si="13"/>
-        <v>0.58333333333333337</v>
+        <v>0.43478260869565216</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
@@ -10761,18 +10759,18 @@
       </c>
       <c r="S48" s="1">
         <f>SUMIF(C$39:C48,"=1")/SUMIF(C$39:C$68,"=1")</f>
-        <v>0.7142857142857143</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="V48" s="4">
         <v>0.9</v>
       </c>
       <c r="W48" s="1">
         <f t="shared" si="13"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="X48" s="1">
         <f t="shared" si="13"/>
-        <v>0.58333333333333337</v>
+        <v>0.43478260869565216</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
@@ -10807,18 +10805,18 @@
       </c>
       <c r="S49" s="1">
         <f>SUMIF(C$39:C49,"=1")/SUMIF(C$39:C$68,"=1")</f>
-        <v>0.8571428571428571</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="V49" s="4">
         <v>1</v>
       </c>
       <c r="W49" s="1">
         <f t="shared" si="13"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="X49" s="1">
         <f t="shared" si="13"/>
-        <v>0.58333333333333337</v>
+        <v>0.40740740740740738</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
@@ -10849,11 +10847,11 @@
       </c>
       <c r="R50" s="1">
         <f>SUMIF(B$39:B50,"=1")/SUMIF(B$39:B$68,"=1")</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S50" s="1">
         <f>SUMIF(C$39:C50,"=1")/SUMIF(C$39:C$68,"=1")</f>
-        <v>1</v>
+        <v>0.63636363636363635</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
@@ -10884,11 +10882,11 @@
       </c>
       <c r="R51" s="1">
         <f>SUMIF(B$39:B51,"=1")/SUMIF(B$39:B$68,"=1")</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S51" s="1">
         <f>SUMIF(C$39:C51,"=1")/SUMIF(C$39:C$68,"=1")</f>
-        <v>1</v>
+        <v>0.63636363636363635</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
@@ -10919,11 +10917,11 @@
       </c>
       <c r="R52" s="1">
         <f>SUMIF(B$39:B52,"=1")/SUMIF(B$39:B$68,"=1")</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S52" s="1">
         <f>SUMIF(C$39:C52,"=1")/SUMIF(C$39:C$68,"=1")</f>
-        <v>1</v>
+        <v>0.63636363636363635</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
@@ -10954,16 +10952,16 @@
       </c>
       <c r="R53" s="1">
         <f>SUMIF(B$39:B53,"=1")/SUMIF(B$39:B$68,"=1")</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S53" s="1">
         <f>SUMIF(C$39:C53,"=1")/SUMIF(C$39:C$68,"=1")</f>
-        <v>1</v>
-      </c>
-      <c r="W53" s="5" t="s">
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="W53" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="X53" s="5"/>
+      <c r="X53" s="8"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
@@ -10993,11 +10991,11 @@
       </c>
       <c r="R54" s="1">
         <f>SUMIF(B$39:B54,"=1")/SUMIF(B$39:B$68,"=1")</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S54" s="1">
         <f>SUMIF(C$39:C54,"=1")/SUMIF(C$39:C$68,"=1")</f>
-        <v>1</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="V54" s="3" t="s">
         <v>11</v>
@@ -11014,14 +11012,14 @@
         <v>17</v>
       </c>
       <c r="B55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
       </c>
       <c r="J55" s="1">
         <f>SUM(B$39:B55)/A55</f>
-        <v>5.8823529411764705E-2</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="K55" s="1">
         <f>SUM(C$39:C55)/A55</f>
@@ -11029,7 +11027,7 @@
       </c>
       <c r="N55" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="O55" s="1">
         <f t="shared" si="14"/>
@@ -11041,7 +11039,7 @@
       </c>
       <c r="S55" s="1">
         <f>SUMIF(C$39:C55,"=1")/SUMIF(C$39:C$68,"=1")</f>
-        <v>1</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="V55" s="4">
         <v>0</v>
@@ -11067,7 +11065,7 @@
       </c>
       <c r="J56" s="1">
         <f>SUM(B$39:B56)/A56</f>
-        <v>5.5555555555555552E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K56" s="1">
         <f>SUM(C$39:C56)/A56</f>
@@ -11087,14 +11085,14 @@
       </c>
       <c r="S56" s="1">
         <f>SUMIF(C$39:C56,"=1")/SUMIF(C$39:C$68,"=1")</f>
-        <v>1</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="V56" s="4">
         <v>0.1</v>
       </c>
       <c r="W56" s="1">
         <f t="shared" ref="W56:X56" si="15">(1 + $V$2^2) * (W40*$V40/($V$2^2 * W40 +$V40))</f>
-        <v>9.0909090909090898E-2</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="X56" s="1">
         <f t="shared" si="15"/>
@@ -11109,15 +11107,15 @@
         <v>0</v>
       </c>
       <c r="C57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" s="1">
         <f>SUM(B$39:B57)/A57</f>
-        <v>5.2631578947368418E-2</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="K57" s="1">
         <f>SUM(C$39:C57)/A57</f>
-        <v>0.36842105263157893</v>
+        <v>0.42105263157894735</v>
       </c>
       <c r="N57" s="1">
         <f t="shared" si="12"/>
@@ -11125,7 +11123,7 @@
       </c>
       <c r="O57" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.42105263157894735</v>
       </c>
       <c r="R57" s="1">
         <f>SUMIF(B$39:B57,"=1")/SUMIF(B$39:B$68,"=1")</f>
@@ -11133,14 +11131,14 @@
       </c>
       <c r="S57" s="1">
         <f>SUMIF(C$39:C57,"=1")/SUMIF(C$39:C$68,"=1")</f>
-        <v>1</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="V57" s="4">
         <v>0.2</v>
       </c>
       <c r="W57" s="1">
         <f t="shared" ref="W57:X57" si="16">(1 + $V$2^2) * (W41*$V41/($V$2^2 * W41 +$V41))</f>
-        <v>0.11764705882352941</v>
+        <v>0.14814814814814817</v>
       </c>
       <c r="X57" s="1">
         <f t="shared" si="16"/>
@@ -11159,11 +11157,11 @@
       </c>
       <c r="J58" s="1">
         <f>SUM(B$39:B58)/A58</f>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="K58" s="1">
         <f>SUM(C$39:C58)/A58</f>
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="N58" s="1">
         <f t="shared" si="12"/>
@@ -11179,14 +11177,14 @@
       </c>
       <c r="S58" s="1">
         <f>SUMIF(C$39:C58,"=1")/SUMIF(C$39:C$68,"=1")</f>
-        <v>1</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="V58" s="4">
         <v>0.3</v>
       </c>
       <c r="W58" s="1">
         <f t="shared" ref="W58:X58" si="17">(1 + $V$2^2) * (W42*$V42/($V$2^2 * W42 +$V42))</f>
-        <v>0.13043478260869565</v>
+        <v>0.16901408450704228</v>
       </c>
       <c r="X58" s="1">
         <f t="shared" si="17"/>
@@ -11205,11 +11203,11 @@
       </c>
       <c r="J59" s="1">
         <f>SUM(B$39:B59)/A59</f>
-        <v>4.7619047619047616E-2</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="K59" s="1">
         <f>SUM(C$39:C59)/A59</f>
-        <v>0.33333333333333331</v>
+        <v>0.38095238095238093</v>
       </c>
       <c r="N59" s="1">
         <f t="shared" si="12"/>
@@ -11225,18 +11223,18 @@
       </c>
       <c r="S59" s="1">
         <f>SUMIF(C$39:C59,"=1")/SUMIF(C$39:C$68,"=1")</f>
-        <v>1</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="V59" s="4">
         <v>0.4</v>
       </c>
       <c r="W59" s="1">
         <f t="shared" ref="W59:X59" si="18">(1 + $V$2^2) * (W43*$V43/($V$2^2 * W43 +$V43))</f>
-        <v>0.13793103448275862</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="X59" s="1">
         <f t="shared" si="18"/>
-        <v>0.5</v>
+        <v>0.47457627118644069</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
@@ -11247,15 +11245,15 @@
         <v>0</v>
       </c>
       <c r="C60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" s="1">
         <f>SUM(B$39:B60)/A60</f>
-        <v>4.5454545454545456E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="K60" s="1">
         <f>SUM(C$39:C60)/A60</f>
-        <v>0.31818181818181818</v>
+        <v>0.40909090909090912</v>
       </c>
       <c r="N60" s="1">
         <f t="shared" si="12"/>
@@ -11263,7 +11261,7 @@
       </c>
       <c r="O60" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.40909090909090912</v>
       </c>
       <c r="R60" s="1">
         <f>SUMIF(B$39:B60,"=1")/SUMIF(B$39:B$68,"=1")</f>
@@ -11271,18 +11269,18 @@
       </c>
       <c r="S60" s="1">
         <f>SUMIF(C$39:C60,"=1")/SUMIF(C$39:C$68,"=1")</f>
-        <v>1</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="V60" s="4">
         <v>0.5</v>
       </c>
       <c r="W60" s="1">
         <f t="shared" ref="W60:X60" si="19">(1 + $V$2^2) * (W44*$V44/($V$2^2 * W44 +$V44))</f>
-        <v>0.14285714285714285</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="X60" s="1">
         <f t="shared" si="19"/>
-        <v>0.57142857142857151</v>
+        <v>0.53846153846153844</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
@@ -11293,15 +11291,15 @@
         <v>0</v>
       </c>
       <c r="C61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" s="1">
         <f>SUM(B$39:B61)/A61</f>
-        <v>4.3478260869565216E-2</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="K61" s="1">
         <f>SUM(C$39:C61)/A61</f>
-        <v>0.30434782608695654</v>
+        <v>0.43478260869565216</v>
       </c>
       <c r="N61" s="1">
         <f t="shared" si="12"/>
@@ -11309,7 +11307,7 @@
       </c>
       <c r="O61" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.43478260869565216</v>
       </c>
       <c r="R61" s="1">
         <f>SUMIF(B$39:B61,"=1")/SUMIF(B$39:B$68,"=1")</f>
@@ -11317,14 +11315,14 @@
       </c>
       <c r="S61" s="1">
         <f>SUMIF(C$39:C61,"=1")/SUMIF(C$39:C$68,"=1")</f>
-        <v>1</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="V61" s="4">
         <v>0.6</v>
       </c>
       <c r="W61" s="1">
         <f t="shared" ref="W61:X61" si="20">(1 + $V$2^2) * (W45*$V45/($V$2^2 * W45 +$V45))</f>
-        <v>0.14634146341463414</v>
+        <v>0.19672131147540983</v>
       </c>
       <c r="X61" s="1">
         <f t="shared" si="20"/>
@@ -11343,11 +11341,11 @@
       </c>
       <c r="J62" s="1">
         <f>SUM(B$39:B62)/A62</f>
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="K62" s="1">
         <f>SUM(C$39:C62)/A62</f>
-        <v>0.29166666666666669</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="N62" s="1">
         <f t="shared" si="12"/>
@@ -11363,18 +11361,18 @@
       </c>
       <c r="S62" s="1">
         <f>SUMIF(C$39:C62,"=1")/SUMIF(C$39:C$68,"=1")</f>
-        <v>1</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="V62" s="4">
         <v>0.7</v>
       </c>
       <c r="W62" s="1">
         <f t="shared" ref="W62:X62" si="21">(1 + $V$2^2) * (W46*$V46/($V$2^2 * W46 +$V46))</f>
-        <v>0.14893617021276595</v>
+        <v>0.20143884892086331</v>
       </c>
       <c r="X62" s="1">
         <f t="shared" si="21"/>
-        <v>0.63636363636363646</v>
+        <v>0.53639846743295017</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
@@ -11389,11 +11387,11 @@
       </c>
       <c r="J63" s="1">
         <f>SUM(B$39:B63)/A63</f>
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K63" s="1">
         <f>SUM(C$39:C63)/A63</f>
-        <v>0.28000000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="N63" s="1">
         <f t="shared" si="12"/>
@@ -11409,18 +11407,18 @@
       </c>
       <c r="S63" s="1">
         <f>SUMIF(C$39:C63,"=1")/SUMIF(C$39:C$68,"=1")</f>
-        <v>1</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="V63" s="4">
         <v>0.8</v>
       </c>
       <c r="W63" s="1">
         <f t="shared" ref="W63:X63" si="22">(1 + $V$2^2) * (W47*$V47/($V$2^2 * W47 +$V47))</f>
-        <v>0.15094339622641509</v>
+        <v>0.20512820512820512</v>
       </c>
       <c r="X63" s="1">
         <f t="shared" si="22"/>
-        <v>0.67469879518072295</v>
+        <v>0.56338028169014087</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
@@ -11435,11 +11433,11 @@
       </c>
       <c r="J64" s="1">
         <f>SUM(B$39:B64)/A64</f>
-        <v>3.8461538461538464E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="K64" s="1">
         <f>SUM(C$39:C64)/A64</f>
-        <v>0.26923076923076922</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="N64" s="1">
         <f t="shared" si="12"/>
@@ -11455,18 +11453,18 @@
       </c>
       <c r="S64" s="1">
         <f>SUMIF(C$39:C64,"=1")/SUMIF(C$39:C$68,"=1")</f>
-        <v>1</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="V64" s="4">
         <v>0.9</v>
       </c>
       <c r="W64" s="1">
         <f t="shared" ref="W64:X64" si="23">(1 + $V$2^2) * (W48*$V48/($V$2^2 * W48 +$V48))</f>
-        <v>0.15254237288135591</v>
+        <v>0.20809248554913296</v>
       </c>
       <c r="X64" s="1">
         <f t="shared" si="23"/>
-        <v>0.7078651685393258</v>
+        <v>0.58631921824104238</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
@@ -11477,15 +11475,15 @@
         <v>0</v>
       </c>
       <c r="C65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" s="1">
         <f>SUM(B$39:B65)/A65</f>
-        <v>3.7037037037037035E-2</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="K65" s="1">
         <f>SUM(C$39:C65)/A65</f>
-        <v>0.25925925925925924</v>
+        <v>0.40740740740740738</v>
       </c>
       <c r="N65" s="1">
         <f t="shared" si="12"/>
@@ -11493,7 +11491,7 @@
       </c>
       <c r="O65" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.40740740740740738</v>
       </c>
       <c r="R65" s="1">
         <f>SUMIF(B$39:B65,"=1")/SUMIF(B$39:B$68,"=1")</f>
@@ -11508,11 +11506,11 @@
       </c>
       <c r="W65" s="1">
         <f t="shared" ref="W65:X65" si="24">(1 + $V$2^2) * (W49*$V49/($V$2^2 * W49 +$V49))</f>
-        <v>0.15384615384615385</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="X65" s="1">
         <f t="shared" si="24"/>
-        <v>0.73684210526315785</v>
+        <v>0.57894736842105254</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
@@ -11527,11 +11525,11 @@
       </c>
       <c r="J66" s="1">
         <f>SUM(B$39:B66)/A66</f>
-        <v>3.5714285714285712E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="K66" s="1">
         <f>SUM(C$39:C66)/A66</f>
-        <v>0.25</v>
+        <v>0.39285714285714285</v>
       </c>
       <c r="N66" s="1">
         <f t="shared" si="12"/>
@@ -11562,11 +11560,11 @@
       </c>
       <c r="J67" s="1">
         <f>SUM(B$39:B67)/A67</f>
-        <v>3.4482758620689655E-2</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="K67" s="1">
         <f>SUM(C$39:C67)/A67</f>
-        <v>0.2413793103448276</v>
+        <v>0.37931034482758619</v>
       </c>
       <c r="N67" s="1">
         <f t="shared" si="12"/>
@@ -11597,11 +11595,11 @@
       </c>
       <c r="J68" s="1">
         <f>SUM(B$39:B68)/A68</f>
-        <v>3.3333333333333333E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="K68" s="1">
         <f>SUM(C$39:C68)/A68</f>
-        <v>0.23333333333333334</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="N68" s="1">
         <f t="shared" si="12"/>
@@ -11621,16 +11619,16 @@
       </c>
     </row>
     <row r="69" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="I69" s="6" t="s">
+      <c r="I69" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J69" s="6">
+      <c r="J69" s="5">
         <f>AVERAGE(J39:J68)</f>
-        <v>3.2503659534768206E-2</v>
-      </c>
-      <c r="K69" s="6">
+        <v>5.297893079114812E-2</v>
+      </c>
+      <c r="K69" s="5">
         <f>AVERAGE(K39:K68)</f>
-        <v>0.3995698687876294</v>
+        <v>0.44271149459730275</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.2">
@@ -11639,24 +11637,24 @@
       </c>
     </row>
     <row r="72" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="J72" s="5" t="s">
+      <c r="J72" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K72" s="5"/>
-      <c r="N72" s="5" t="s">
+      <c r="K72" s="8"/>
+      <c r="N72" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O72" s="5"/>
+      <c r="O72" s="8"/>
       <c r="P72"/>
-      <c r="R72" s="5" t="s">
+      <c r="R72" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="S72" s="5"/>
+      <c r="S72" s="8"/>
       <c r="T72"/>
-      <c r="W72" s="5" t="s">
+      <c r="W72" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="X72" s="5"/>
+      <c r="X72" s="8"/>
     </row>
     <row r="73" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
@@ -11724,22 +11722,22 @@
         <v>1</v>
       </c>
       <c r="R74" s="1">
-        <f>SUMIF(B$74:B74,"=1")/SUMIF(B$74:B$103,"=1")</f>
-        <v>3.3333333333333333E-2</v>
+        <f>SUMIF(B$74:B74,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>2.1739130434782608E-2</v>
       </c>
       <c r="S74" s="1">
-        <f>SUMIF(C$74:C74,"=1")/SUMIF(C$74:C$103,"=1")</f>
-        <v>3.3333333333333333E-2</v>
+        <f>SUMIF(C$74:C74,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>2.1739130434782608E-2</v>
       </c>
       <c r="V74" s="4">
         <v>0</v>
       </c>
       <c r="W74" s="1">
-        <f>_xlfn.MAXIFS(J$74:J$103,R$74:R$103,"&gt;="&amp;$V74)</f>
+        <f t="shared" ref="W74:W81" si="25">_xlfn.MAXIFS(J$74:J$133,R$74:R$133,"&gt;="&amp;$V74)</f>
         <v>1</v>
       </c>
       <c r="X74" s="1">
-        <f>_xlfn.MAXIFS(K$74:K$103,S$74:S$103,"&gt;="&amp;$V74)</f>
+        <f t="shared" ref="X74:X81" si="26">_xlfn.MAXIFS(K$74:K$133,S$74:S$133,"&gt;="&amp;$V74)</f>
         <v>1</v>
       </c>
     </row>
@@ -11762,7 +11760,7 @@
         <v>1</v>
       </c>
       <c r="N75" s="1">
-        <f t="shared" ref="N75:N103" si="25">J75*B75</f>
+        <f t="shared" ref="N75:O133" si="27">J75*B75</f>
         <v>1</v>
       </c>
       <c r="O75" s="1">
@@ -11770,18 +11768,18 @@
         <v>1</v>
       </c>
       <c r="R75" s="1">
-        <f>SUMIF(B$74:B75,"=1")/SUMIF(B$74:B$103,"=1")</f>
-        <v>6.6666666666666666E-2</v>
+        <f>SUMIF(B$74:B75,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="S75" s="1">
-        <f>SUMIF(C$74:C75,"=1")/SUMIF(C$74:C$103,"=1")</f>
-        <v>6.6666666666666666E-2</v>
+        <f>SUMIF(C$74:C75,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="V75" s="4">
         <v>0.1</v>
       </c>
       <c r="W75" s="1">
-        <f t="shared" ref="W75:X84" si="26">_xlfn.MAXIFS(J$74:J$103,R$74:R$103,"&gt;="&amp;$V75)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="X75" s="1">
@@ -11808,26 +11806,26 @@
         <v>1</v>
       </c>
       <c r="N76" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O76" s="1">
-        <f t="shared" ref="O76:O103" si="27">K76*C76</f>
+        <f t="shared" ref="O76:O103" si="28">K76*C76</f>
         <v>1</v>
       </c>
       <c r="R76" s="1">
-        <f>SUMIF(B$74:B76,"=1")/SUMIF(B$74:B$103,"=1")</f>
-        <v>0.1</v>
+        <f>SUMIF(B$74:B76,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>6.5217391304347824E-2</v>
       </c>
       <c r="S76" s="1">
-        <f>SUMIF(C$74:C76,"=1")/SUMIF(C$74:C$103,"=1")</f>
-        <v>0.1</v>
+        <f>SUMIF(C$74:C76,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>6.5217391304347824E-2</v>
       </c>
       <c r="V76" s="4">
         <v>0.2</v>
       </c>
       <c r="W76" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="X76" s="1">
@@ -11854,26 +11852,26 @@
         <v>1</v>
       </c>
       <c r="N77" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O77" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="R77" s="1">
-        <f>SUMIF(B$74:B77,"=1")/SUMIF(B$74:B$103,"=1")</f>
-        <v>0.13333333333333333</v>
+        <f>SUMIF(B$74:B77,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="S77" s="1">
-        <f>SUMIF(C$74:C77,"=1")/SUMIF(C$74:C$103,"=1")</f>
-        <v>0.13333333333333333</v>
+        <f>SUMIF(C$74:C77,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="V77" s="4">
         <v>0.3</v>
       </c>
       <c r="W77" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="X77" s="1">
@@ -11900,26 +11898,26 @@
         <v>1</v>
       </c>
       <c r="N78" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O78" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="R78" s="1">
-        <f>SUMIF(B$74:B78,"=1")/SUMIF(B$74:B$103,"=1")</f>
-        <v>0.16666666666666666</v>
+        <f>SUMIF(B$74:B78,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.10869565217391304</v>
       </c>
       <c r="S78" s="1">
-        <f>SUMIF(C$74:C78,"=1")/SUMIF(C$74:C$103,"=1")</f>
-        <v>0.16666666666666666</v>
+        <f>SUMIF(C$74:C78,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.10869565217391304</v>
       </c>
       <c r="V78" s="4">
         <v>0.4</v>
       </c>
       <c r="W78" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="X78" s="1">
@@ -11946,26 +11944,26 @@
         <v>1</v>
       </c>
       <c r="N79" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O79" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="R79" s="1">
-        <f>SUMIF(B$74:B79,"=1")/SUMIF(B$74:B$103,"=1")</f>
-        <v>0.2</v>
+        <f>SUMIF(B$74:B79,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.13043478260869565</v>
       </c>
       <c r="S79" s="1">
-        <f>SUMIF(C$74:C79,"=1")/SUMIF(C$74:C$103,"=1")</f>
-        <v>0.2</v>
+        <f>SUMIF(C$74:C79,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.13043478260869565</v>
       </c>
       <c r="V79" s="4">
         <v>0.5</v>
       </c>
       <c r="W79" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="X79" s="1">
@@ -11992,26 +11990,26 @@
         <v>1</v>
       </c>
       <c r="N80" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O80" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="R80" s="1">
-        <f>SUMIF(B$74:B80,"=1")/SUMIF(B$74:B$103,"=1")</f>
-        <v>0.23333333333333334</v>
+        <f>SUMIF(B$74:B80,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.15217391304347827</v>
       </c>
       <c r="S80" s="1">
-        <f>SUMIF(C$74:C80,"=1")/SUMIF(C$74:C$103,"=1")</f>
-        <v>0.23333333333333334</v>
+        <f>SUMIF(C$74:C80,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.15217391304347827</v>
       </c>
       <c r="V80" s="4">
         <v>0.6</v>
       </c>
       <c r="W80" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="X80" s="1">
@@ -12038,31 +12036,31 @@
         <v>1</v>
       </c>
       <c r="N81" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O81" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="R81" s="1">
-        <f>SUMIF(B$74:B81,"=1")/SUMIF(B$74:B$103,"=1")</f>
-        <v>0.26666666666666666</v>
+        <f>SUMIF(B$74:B81,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.17391304347826086</v>
       </c>
       <c r="S81" s="1">
-        <f>SUMIF(C$74:C81,"=1")/SUMIF(C$74:C$103,"=1")</f>
-        <v>0.26666666666666666</v>
+        <f>SUMIF(C$74:C81,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.17391304347826086</v>
       </c>
       <c r="V81" s="4">
         <v>0.7</v>
       </c>
       <c r="W81" s="1">
-        <f t="shared" si="26"/>
-        <v>1</v>
+        <f t="shared" si="25"/>
+        <v>0.94285714285714284</v>
       </c>
       <c r="X81" s="1">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0.94285714285714284</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.2">
@@ -12084,31 +12082,31 @@
         <v>1</v>
       </c>
       <c r="N82" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O82" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="R82" s="1">
-        <f>SUMIF(B$74:B82,"=1")/SUMIF(B$74:B$103,"=1")</f>
-        <v>0.3</v>
+        <f>SUMIF(B$74:B82,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.19565217391304349</v>
       </c>
       <c r="S82" s="1">
-        <f>SUMIF(C$74:C82,"=1")/SUMIF(C$74:C$103,"=1")</f>
-        <v>0.3</v>
+        <f>SUMIF(C$74:C82,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.19565217391304349</v>
       </c>
       <c r="V82" s="4">
         <v>0.8</v>
       </c>
       <c r="W82" s="1">
-        <f t="shared" si="26"/>
-        <v>1</v>
+        <f>_xlfn.MAXIFS(J$74:J$133,R$74:R$133,"&gt;="&amp;$V82)</f>
+        <v>0.91111111111111109</v>
       </c>
       <c r="X82" s="1">
-        <f t="shared" si="26"/>
-        <v>1</v>
+        <f>_xlfn.MAXIFS(K$74:K$133,S$74:S$133,"&gt;="&amp;$V82)</f>
+        <v>0.91111111111111109</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
@@ -12130,31 +12128,31 @@
         <v>1</v>
       </c>
       <c r="N83" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O83" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="R83" s="1">
-        <f>SUMIF(B$74:B83,"=1")/SUMIF(B$74:B$103,"=1")</f>
-        <v>0.33333333333333331</v>
+        <f>SUMIF(B$74:B83,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.21739130434782608</v>
       </c>
       <c r="S83" s="1">
-        <f>SUMIF(C$74:C83,"=1")/SUMIF(C$74:C$103,"=1")</f>
-        <v>0.33333333333333331</v>
+        <f>SUMIF(C$74:C83,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.21739130434782608</v>
       </c>
       <c r="V83" s="4">
         <v>0.9</v>
       </c>
       <c r="W83" s="1">
-        <f t="shared" si="26"/>
-        <v>1</v>
+        <f t="shared" ref="W83:X84" si="29">_xlfn.MAXIFS(J$74:J$133,R$74:R$133,"&gt;="&amp;$V83)</f>
+        <v>0.8936170212765957</v>
       </c>
       <c r="X83" s="1">
-        <f t="shared" si="26"/>
-        <v>1</v>
+        <f t="shared" si="29"/>
+        <v>0.8936170212765957</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.2">
@@ -12176,31 +12174,31 @@
         <v>1</v>
       </c>
       <c r="N84" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O84" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="R84" s="1">
-        <f>SUMIF(B$74:B84,"=1")/SUMIF(B$74:B$103,"=1")</f>
-        <v>0.36666666666666664</v>
+        <f>SUMIF(B$74:B84,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.2391304347826087</v>
       </c>
       <c r="S84" s="1">
-        <f>SUMIF(C$74:C84,"=1")/SUMIF(C$74:C$103,"=1")</f>
-        <v>0.36666666666666664</v>
+        <f>SUMIF(C$74:C84,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.2391304347826087</v>
       </c>
       <c r="V84" s="4">
         <v>1</v>
       </c>
       <c r="W84" s="1">
-        <f t="shared" si="26"/>
-        <v>1</v>
+        <f t="shared" si="29"/>
+        <v>0.76666666666666672</v>
       </c>
       <c r="X84" s="1">
-        <f t="shared" si="26"/>
-        <v>1</v>
+        <f t="shared" si="29"/>
+        <v>0.76666666666666672</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.2">
@@ -12222,20 +12220,20 @@
         <v>1</v>
       </c>
       <c r="N85" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O85" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="R85" s="1">
-        <f>SUMIF(B$74:B85,"=1")/SUMIF(B$74:B$103,"=1")</f>
-        <v>0.4</v>
+        <f>SUMIF(B$74:B85,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.2608695652173913</v>
       </c>
       <c r="S85" s="1">
-        <f>SUMIF(C$74:C85,"=1")/SUMIF(C$74:C$103,"=1")</f>
-        <v>0.4</v>
+        <f>SUMIF(C$74:C85,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.2608695652173913</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.2">
@@ -12257,20 +12255,20 @@
         <v>1</v>
       </c>
       <c r="N86" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O86" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="R86" s="1">
-        <f>SUMIF(B$74:B86,"=1")/SUMIF(B$74:B$103,"=1")</f>
-        <v>0.43333333333333335</v>
+        <f>SUMIF(B$74:B86,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.28260869565217389</v>
       </c>
       <c r="S86" s="1">
-        <f>SUMIF(C$74:C86,"=1")/SUMIF(C$74:C$103,"=1")</f>
-        <v>0.43333333333333335</v>
+        <f>SUMIF(C$74:C86,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.28260869565217389</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.2">
@@ -12292,20 +12290,20 @@
         <v>1</v>
       </c>
       <c r="N87" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O87" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="R87" s="1">
-        <f>SUMIF(B$74:B87,"=1")/SUMIF(B$74:B$103,"=1")</f>
-        <v>0.46666666666666667</v>
+        <f>SUMIF(B$74:B87,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.30434782608695654</v>
       </c>
       <c r="S87" s="1">
-        <f>SUMIF(C$74:C87,"=1")/SUMIF(C$74:C$103,"=1")</f>
-        <v>0.46666666666666667</v>
+        <f>SUMIF(C$74:C87,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.30434782608695654</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.2">
@@ -12327,25 +12325,25 @@
         <v>1</v>
       </c>
       <c r="N88" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O88" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="R88" s="1">
-        <f>SUMIF(B$74:B88,"=1")/SUMIF(B$74:B$103,"=1")</f>
-        <v>0.5</v>
+        <f>SUMIF(B$74:B88,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.32608695652173914</v>
       </c>
       <c r="S88" s="1">
-        <f>SUMIF(C$74:C88,"=1")/SUMIF(C$74:C$103,"=1")</f>
-        <v>0.5</v>
-      </c>
-      <c r="W88" s="5" t="s">
+        <f>SUMIF(C$74:C88,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.32608695652173914</v>
+      </c>
+      <c r="W88" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="X88" s="5"/>
+      <c r="X88" s="8"/>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
@@ -12366,20 +12364,20 @@
         <v>1</v>
       </c>
       <c r="N89" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O89" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="R89" s="1">
-        <f>SUMIF(B$74:B89,"=1")/SUMIF(B$74:B$103,"=1")</f>
-        <v>0.53333333333333333</v>
+        <f>SUMIF(B$74:B89,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.34782608695652173</v>
       </c>
       <c r="S89" s="1">
-        <f>SUMIF(C$74:C89,"=1")/SUMIF(C$74:C$103,"=1")</f>
-        <v>0.53333333333333333</v>
+        <f>SUMIF(C$74:C89,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.34782608695652173</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>11</v>
@@ -12410,20 +12408,20 @@
         <v>1</v>
       </c>
       <c r="N90" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O90" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="R90" s="1">
-        <f>SUMIF(B$74:B90,"=1")/SUMIF(B$74:B$103,"=1")</f>
-        <v>0.56666666666666665</v>
+        <f>SUMIF(B$74:B90,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.36956521739130432</v>
       </c>
       <c r="S90" s="1">
-        <f>SUMIF(C$74:C90,"=1")/SUMIF(C$74:C$103,"=1")</f>
-        <v>0.56666666666666665</v>
+        <f>SUMIF(C$74:C90,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.36956521739130432</v>
       </c>
       <c r="V90" s="4">
         <v>0</v>
@@ -12456,30 +12454,30 @@
         <v>1</v>
       </c>
       <c r="N91" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O91" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="R91" s="1">
-        <f>SUMIF(B$74:B91,"=1")/SUMIF(B$74:B$103,"=1")</f>
-        <v>0.6</v>
+        <f>SUMIF(B$74:B91,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.39130434782608697</v>
       </c>
       <c r="S91" s="1">
-        <f>SUMIF(C$74:C91,"=1")/SUMIF(C$74:C$103,"=1")</f>
-        <v>0.6</v>
+        <f>SUMIF(C$74:C91,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.39130434782608697</v>
       </c>
       <c r="V91" s="4">
         <v>0.1</v>
       </c>
       <c r="W91" s="1">
-        <f t="shared" ref="W91:X91" si="28">(1 + $V$2^2) * (W75*$V75/($V$2^2 * W75 +$V75))</f>
+        <f t="shared" ref="W91:X91" si="30">(1 + $V$2^2) * (W75*$V75/($V$2^2 * W75 +$V75))</f>
         <v>0.18181818181818182</v>
       </c>
       <c r="X91" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.18181818181818182</v>
       </c>
     </row>
@@ -12502,30 +12500,30 @@
         <v>1</v>
       </c>
       <c r="N92" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O92" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="R92" s="1">
-        <f>SUMIF(B$74:B92,"=1")/SUMIF(B$74:B$103,"=1")</f>
-        <v>0.6333333333333333</v>
+        <f>SUMIF(B$74:B92,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.41304347826086957</v>
       </c>
       <c r="S92" s="1">
-        <f>SUMIF(C$74:C92,"=1")/SUMIF(C$74:C$103,"=1")</f>
-        <v>0.6333333333333333</v>
+        <f>SUMIF(C$74:C92,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.41304347826086957</v>
       </c>
       <c r="V92" s="4">
         <v>0.2</v>
       </c>
       <c r="W92" s="1">
-        <f t="shared" ref="W92:X92" si="29">(1 + $V$2^2) * (W76*$V76/($V$2^2 * W76 +$V76))</f>
+        <f t="shared" ref="W92:X92" si="31">(1 + $V$2^2) * (W76*$V76/($V$2^2 * W76 +$V76))</f>
         <v>0.33333333333333337</v>
       </c>
       <c r="X92" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.33333333333333337</v>
       </c>
     </row>
@@ -12548,30 +12546,30 @@
         <v>1</v>
       </c>
       <c r="N93" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O93" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="R93" s="1">
-        <f>SUMIF(B$74:B93,"=1")/SUMIF(B$74:B$103,"=1")</f>
-        <v>0.66666666666666663</v>
+        <f>SUMIF(B$74:B93,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.43478260869565216</v>
       </c>
       <c r="S93" s="1">
-        <f>SUMIF(C$74:C93,"=1")/SUMIF(C$74:C$103,"=1")</f>
-        <v>0.66666666666666663</v>
+        <f>SUMIF(C$74:C93,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.43478260869565216</v>
       </c>
       <c r="V93" s="4">
         <v>0.3</v>
       </c>
       <c r="W93" s="1">
-        <f t="shared" ref="W93:X93" si="30">(1 + $V$2^2) * (W77*$V77/($V$2^2 * W77 +$V77))</f>
+        <f t="shared" ref="W93:X93" si="32">(1 + $V$2^2) * (W77*$V77/($V$2^2 * W77 +$V77))</f>
         <v>0.46153846153846151</v>
       </c>
       <c r="X93" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.46153846153846151</v>
       </c>
     </row>
@@ -12594,30 +12592,30 @@
         <v>1</v>
       </c>
       <c r="N94" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O94" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="R94" s="1">
-        <f>SUMIF(B$74:B94,"=1")/SUMIF(B$74:B$103,"=1")</f>
-        <v>0.7</v>
+        <f>SUMIF(B$74:B94,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.45652173913043476</v>
       </c>
       <c r="S94" s="1">
-        <f>SUMIF(C$74:C94,"=1")/SUMIF(C$74:C$103,"=1")</f>
-        <v>0.7</v>
+        <f>SUMIF(C$74:C94,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.45652173913043476</v>
       </c>
       <c r="V94" s="4">
         <v>0.4</v>
       </c>
       <c r="W94" s="1">
-        <f t="shared" ref="W94:X94" si="31">(1 + $V$2^2) * (W78*$V78/($V$2^2 * W78 +$V78))</f>
+        <f t="shared" ref="W94:X94" si="33">(1 + $V$2^2) * (W78*$V78/($V$2^2 * W78 +$V78))</f>
         <v>0.57142857142857151</v>
       </c>
       <c r="X94" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.57142857142857151</v>
       </c>
     </row>
@@ -12640,30 +12638,30 @@
         <v>1</v>
       </c>
       <c r="N95" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O95" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="R95" s="1">
-        <f>SUMIF(B$74:B95,"=1")/SUMIF(B$74:B$103,"=1")</f>
-        <v>0.73333333333333328</v>
+        <f>SUMIF(B$74:B95,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.47826086956521741</v>
       </c>
       <c r="S95" s="1">
-        <f>SUMIF(C$74:C95,"=1")/SUMIF(C$74:C$103,"=1")</f>
-        <v>0.73333333333333328</v>
+        <f>SUMIF(C$74:C95,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.47826086956521741</v>
       </c>
       <c r="V95" s="4">
         <v>0.5</v>
       </c>
       <c r="W95" s="1">
-        <f t="shared" ref="W95:X95" si="32">(1 + $V$2^2) * (W79*$V79/($V$2^2 * W79 +$V79))</f>
+        <f t="shared" ref="W95:X95" si="34">(1 + $V$2^2) * (W79*$V79/($V$2^2 * W79 +$V79))</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="X95" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -12686,30 +12684,30 @@
         <v>1</v>
       </c>
       <c r="N96" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O96" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="R96" s="1">
-        <f>SUMIF(B$74:B96,"=1")/SUMIF(B$74:B$103,"=1")</f>
-        <v>0.76666666666666672</v>
+        <f>SUMIF(B$74:B96,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.5</v>
       </c>
       <c r="S96" s="1">
-        <f>SUMIF(C$74:C96,"=1")/SUMIF(C$74:C$103,"=1")</f>
-        <v>0.76666666666666672</v>
+        <f>SUMIF(C$74:C96,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.5</v>
       </c>
       <c r="V96" s="4">
         <v>0.6</v>
       </c>
       <c r="W96" s="1">
-        <f t="shared" ref="W96:X96" si="33">(1 + $V$2^2) * (W80*$V80/($V$2^2 * W80 +$V80))</f>
+        <f t="shared" ref="W96:X96" si="35">(1 + $V$2^2) * (W80*$V80/($V$2^2 * W80 +$V80))</f>
         <v>0.74999999999999989</v>
       </c>
       <c r="X96" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.74999999999999989</v>
       </c>
     </row>
@@ -12732,31 +12730,31 @@
         <v>1</v>
       </c>
       <c r="N97" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O97" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="R97" s="1">
-        <f>SUMIF(B$74:B97,"=1")/SUMIF(B$74:B$103,"=1")</f>
-        <v>0.8</v>
+        <f>SUMIF(B$74:B97,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.52173913043478259</v>
       </c>
       <c r="S97" s="1">
-        <f>SUMIF(C$74:C97,"=1")/SUMIF(C$74:C$103,"=1")</f>
-        <v>0.8</v>
+        <f>SUMIF(C$74:C97,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.52173913043478259</v>
       </c>
       <c r="V97" s="4">
         <v>0.7</v>
       </c>
       <c r="W97" s="1">
-        <f t="shared" ref="W97:X97" si="34">(1 + $V$2^2) * (W81*$V81/($V$2^2 * W81 +$V81))</f>
-        <v>0.82352941176470584</v>
+        <f t="shared" ref="W97:X97" si="36">(1 + $V$2^2) * (W81*$V81/($V$2^2 * W81 +$V81))</f>
+        <v>0.8034782608695652</v>
       </c>
       <c r="X97" s="1">
-        <f t="shared" si="34"/>
-        <v>0.82352941176470584</v>
+        <f t="shared" si="36"/>
+        <v>0.8034782608695652</v>
       </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.2">
@@ -12778,31 +12776,31 @@
         <v>1</v>
       </c>
       <c r="N98" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O98" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="R98" s="1">
-        <f>SUMIF(B$74:B98,"=1")/SUMIF(B$74:B$103,"=1")</f>
-        <v>0.83333333333333337</v>
+        <f>SUMIF(B$74:B98,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.54347826086956519</v>
       </c>
       <c r="S98" s="1">
-        <f>SUMIF(C$74:C98,"=1")/SUMIF(C$74:C$103,"=1")</f>
-        <v>0.83333333333333337</v>
+        <f>SUMIF(C$74:C98,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.54347826086956519</v>
       </c>
       <c r="V98" s="4">
         <v>0.8</v>
       </c>
       <c r="W98" s="1">
-        <f t="shared" ref="W98:X98" si="35">(1 + $V$2^2) * (W82*$V82/($V$2^2 * W82 +$V82))</f>
-        <v>0.88888888888888895</v>
+        <f t="shared" ref="W98:X98" si="37">(1 + $V$2^2) * (W82*$V82/($V$2^2 * W82 +$V82))</f>
+        <v>0.8519480519480519</v>
       </c>
       <c r="X98" s="1">
-        <f t="shared" si="35"/>
-        <v>0.88888888888888895</v>
+        <f t="shared" si="37"/>
+        <v>0.8519480519480519</v>
       </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.2">
@@ -12824,31 +12822,31 @@
         <v>1</v>
       </c>
       <c r="N99" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O99" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="R99" s="1">
-        <f>SUMIF(B$74:B99,"=1")/SUMIF(B$74:B$103,"=1")</f>
-        <v>0.8666666666666667</v>
+        <f>SUMIF(B$74:B99,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.56521739130434778</v>
       </c>
       <c r="S99" s="1">
-        <f>SUMIF(C$74:C99,"=1")/SUMIF(C$74:C$103,"=1")</f>
-        <v>0.8666666666666667</v>
+        <f>SUMIF(C$74:C99,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.56521739130434778</v>
       </c>
       <c r="V99" s="4">
         <v>0.9</v>
       </c>
       <c r="W99" s="1">
-        <f t="shared" ref="W99:X99" si="36">(1 + $V$2^2) * (W83*$V83/($V$2^2 * W83 +$V83))</f>
-        <v>0.94736842105263164</v>
+        <f t="shared" ref="W99:X99" si="38">(1 + $V$2^2) * (W83*$V83/($V$2^2 * W83 +$V83))</f>
+        <v>0.89679715302491092</v>
       </c>
       <c r="X99" s="1">
-        <f t="shared" si="36"/>
-        <v>0.94736842105263164</v>
+        <f t="shared" si="38"/>
+        <v>0.89679715302491092</v>
       </c>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.2">
@@ -12870,31 +12868,31 @@
         <v>1</v>
       </c>
       <c r="N100" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O100" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="R100" s="1">
-        <f>SUMIF(B$74:B100,"=1")/SUMIF(B$74:B$103,"=1")</f>
-        <v>0.9</v>
+        <f>SUMIF(B$74:B100,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.58695652173913049</v>
       </c>
       <c r="S100" s="1">
-        <f>SUMIF(C$74:C100,"=1")/SUMIF(C$74:C$103,"=1")</f>
-        <v>0.9</v>
+        <f>SUMIF(C$74:C100,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.58695652173913049</v>
       </c>
       <c r="V100" s="4">
         <v>1</v>
       </c>
       <c r="W100" s="1">
-        <f t="shared" ref="W100:X100" si="37">(1 + $V$2^2) * (W84*$V84/($V$2^2 * W84 +$V84))</f>
-        <v>1</v>
+        <f t="shared" ref="W100:X100" si="39">(1 + $V$2^2) * (W84*$V84/($V$2^2 * W84 +$V84))</f>
+        <v>0.86792452830188693</v>
       </c>
       <c r="X100" s="1">
-        <f t="shared" si="37"/>
-        <v>1</v>
+        <f t="shared" si="39"/>
+        <v>0.86792452830188693</v>
       </c>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.2">
@@ -12916,20 +12914,20 @@
         <v>1</v>
       </c>
       <c r="N101" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O101" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="R101" s="1">
-        <f>SUMIF(B$74:B101,"=1")/SUMIF(B$74:B$103,"=1")</f>
-        <v>0.93333333333333335</v>
+        <f>SUMIF(B$74:B101,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.60869565217391308</v>
       </c>
       <c r="S101" s="1">
-        <f>SUMIF(C$74:C101,"=1")/SUMIF(C$74:C$103,"=1")</f>
-        <v>0.93333333333333335</v>
+        <f>SUMIF(C$74:C101,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.60869565217391308</v>
       </c>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.2">
@@ -12951,20 +12949,20 @@
         <v>1</v>
       </c>
       <c r="N102" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O102" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="R102" s="1">
-        <f>SUMIF(B$74:B102,"=1")/SUMIF(B$74:B$103,"=1")</f>
-        <v>0.96666666666666667</v>
+        <f>SUMIF(B$74:B102,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.63043478260869568</v>
       </c>
       <c r="S102" s="1">
-        <f>SUMIF(C$74:C102,"=1")/SUMIF(C$74:C$103,"=1")</f>
-        <v>0.96666666666666667</v>
+        <f>SUMIF(C$74:C102,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.63043478260869568</v>
       </c>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.2">
@@ -12986,7 +12984,7 @@
         <v>1</v>
       </c>
       <c r="N103" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O103" s="1">
@@ -12994,1775 +12992,2818 @@
         <v>1</v>
       </c>
       <c r="R103" s="1">
-        <f>SUMIF(B$74:B103,"=1")/SUMIF(B$74:B$103,"=1")</f>
-        <v>1</v>
+        <f>SUMIF(B$74:B103,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.65217391304347827</v>
       </c>
       <c r="S103" s="1">
-        <f>SUMIF(C$74:C103,"=1")/SUMIF(C$74:C$103,"=1")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="I104" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J104" s="6">
-        <f>AVERAGE(J74:J103)</f>
-        <v>1</v>
-      </c>
-      <c r="K104" s="6">
-        <f>AVERAGE(K74:K103)</f>
-        <v>1</v>
+        <f>SUMIF(C$74:C103,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.65217391304347827</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>31</v>
+      </c>
+      <c r="B104" s="1">
+        <v>0</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0</v>
+      </c>
+      <c r="J104" s="1">
+        <f>SUM(B$74:B104)/A104</f>
+        <v>0.967741935483871</v>
+      </c>
+      <c r="K104" s="1">
+        <f>SUM(C$74:C104)/A104</f>
+        <v>0.967741935483871</v>
+      </c>
+      <c r="N104" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O104" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="R104" s="1">
+        <f>SUMIF(B$74:B104,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.65217391304347827</v>
+      </c>
+      <c r="S104" s="1">
+        <f>SUMIF(C$74:C104,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.65217391304347827</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>32</v>
+      </c>
+      <c r="B105" s="1">
+        <v>0</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0</v>
+      </c>
+      <c r="J105" s="1">
+        <f>SUM(B$74:B105)/A105</f>
+        <v>0.9375</v>
+      </c>
+      <c r="K105" s="1">
+        <f>SUM(C$74:C105)/A105</f>
+        <v>0.9375</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="R105" s="1">
+        <f>SUMIF(B$74:B105,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.65217391304347827</v>
+      </c>
+      <c r="S105" s="1">
+        <f>SUMIF(C$74:C105,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.65217391304347827</v>
       </c>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="J107" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K107" s="5"/>
-      <c r="N107" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O107" s="5"/>
-      <c r="P107"/>
-      <c r="R107" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="S107" s="5"/>
-      <c r="T107"/>
-      <c r="W107" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="X107" s="5"/>
-    </row>
-    <row r="108" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K108" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L108"/>
-      <c r="N108" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O108" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R108" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S108" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="V108" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W108" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="X108" s="2" t="s">
-        <v>2</v>
+      <c r="A106" s="1">
+        <v>33</v>
+      </c>
+      <c r="B106" s="1">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1</v>
+      </c>
+      <c r="J106" s="1">
+        <f>SUM(B$74:B106)/A106</f>
+        <v>0.93939393939393945</v>
+      </c>
+      <c r="K106" s="1">
+        <f>SUM(C$74:C106)/A106</f>
+        <v>0.93939393939393945</v>
+      </c>
+      <c r="N106" s="1">
+        <f t="shared" si="27"/>
+        <v>0.93939393939393945</v>
+      </c>
+      <c r="O106" s="1">
+        <f t="shared" si="27"/>
+        <v>0.93939393939393945</v>
+      </c>
+      <c r="R106" s="1">
+        <f>SUMIF(B$74:B106,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.67391304347826086</v>
+      </c>
+      <c r="S106" s="1">
+        <f>SUMIF(C$74:C106,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.67391304347826086</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>34</v>
+      </c>
+      <c r="B107" s="1">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1</v>
+      </c>
+      <c r="J107" s="1">
+        <f>SUM(B$74:B107)/A107</f>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="K107" s="1">
+        <f>SUM(C$74:C107)/A107</f>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="N107" s="1">
+        <f t="shared" si="27"/>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="O107" s="1">
+        <f t="shared" si="27"/>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="R107" s="1">
+        <f>SUMIF(B$74:B107,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.69565217391304346</v>
+      </c>
+      <c r="S107" s="1">
+        <f>SUMIF(C$74:C107,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.69565217391304346</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>35</v>
+      </c>
+      <c r="B108" s="1">
+        <v>1</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1</v>
+      </c>
+      <c r="J108" s="1">
+        <f>SUM(B$74:B108)/A108</f>
+        <v>0.94285714285714284</v>
+      </c>
+      <c r="K108" s="1">
+        <f>SUM(C$74:C108)/A108</f>
+        <v>0.94285714285714284</v>
+      </c>
+      <c r="N108" s="1">
+        <f t="shared" si="27"/>
+        <v>0.94285714285714284</v>
+      </c>
+      <c r="O108" s="1">
+        <f t="shared" si="27"/>
+        <v>0.94285714285714284</v>
+      </c>
+      <c r="R108" s="1">
+        <f>SUMIF(B$74:B108,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.71739130434782605</v>
+      </c>
+      <c r="S108" s="1">
+        <f>SUMIF(C$74:C108,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.71739130434782605</v>
       </c>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B109" s="1">
         <v>0</v>
       </c>
       <c r="C109" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" s="1">
-        <f>SUM(B109)/A109</f>
-        <v>0</v>
+        <f>SUM(B$74:B109)/A109</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="K109" s="1">
-        <f>SUM(C109)/A109</f>
-        <v>1</v>
+        <f>SUM(C$74:C109)/A109</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="N109" s="1">
-        <f>J109*B109</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O109" s="1">
-        <f>K109*C109</f>
-        <v>1</v>
+        <f t="shared" si="27"/>
+        <v>0</v>
       </c>
       <c r="R109" s="1">
-        <f>SUMIF(B$109:B109,"=1")/SUMIF(B$109:B$138,"=1")</f>
-        <v>0</v>
+        <f>SUMIF(B$74:B109,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.71739130434782605</v>
       </c>
       <c r="S109" s="1">
-        <f>SUMIF(C$109:C109,"=1")/SUMIF(C$109:C$138,"=1")</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="V109" s="4">
-        <v>0</v>
-      </c>
-      <c r="W109" s="1">
-        <f>_xlfn.MAXIFS(J$109:J$138,R$109:R$138,"&gt;="&amp;$V109)</f>
-        <v>0.7</v>
-      </c>
-      <c r="X109" s="1">
-        <f>_xlfn.MAXIFS(K$109:K$138,S$109:S$138,"&gt;="&amp;$V109)</f>
-        <v>1</v>
+        <f>SUMIF(C$74:C109,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.71739130434782605</v>
       </c>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" s="1">
         <v>0</v>
       </c>
       <c r="J110" s="1">
-        <f>SUM(B$109:B110)/A110</f>
-        <v>0.5</v>
+        <f>SUM(B$74:B110)/A110</f>
+        <v>0.89189189189189189</v>
       </c>
       <c r="K110" s="1">
-        <f>SUM(C$109:C110)/A110</f>
-        <v>0.5</v>
+        <f>SUM(C$74:C110)/A110</f>
+        <v>0.89189189189189189</v>
       </c>
       <c r="N110" s="1">
-        <f t="shared" ref="N110:N138" si="38">J110*B110</f>
-        <v>0.5</v>
+        <f t="shared" si="27"/>
+        <v>0</v>
       </c>
       <c r="O110" s="1">
-        <f>K110*C110</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R110" s="1">
-        <f>SUMIF(B$109:B110,"=1")/SUMIF(B$109:B$138,"=1")</f>
-        <v>9.0909090909090912E-2</v>
+        <f>SUMIF(B$74:B110,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.71739130434782605</v>
       </c>
       <c r="S110" s="1">
-        <f>SUMIF(C$109:C110,"=1")/SUMIF(C$109:C$138,"=1")</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="V110" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="W110" s="1">
-        <f t="shared" ref="W110:X119" si="39">_xlfn.MAXIFS(J$109:J$138,R$109:R$138,"&gt;="&amp;$V110)</f>
-        <v>0.7</v>
-      </c>
-      <c r="X110" s="1">
-        <f t="shared" si="39"/>
-        <v>0.75</v>
+        <f>SUMIF(C$74:C110,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.71739130434782605</v>
       </c>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" s="1">
         <v>1</v>
       </c>
       <c r="J111" s="1">
-        <f>SUM(B$109:B111)/A111</f>
-        <v>0.33333333333333331</v>
+        <f>SUM(B$74:B111)/A111</f>
+        <v>0.89473684210526316</v>
       </c>
       <c r="K111" s="1">
-        <f>SUM(C$109:C111)/A111</f>
-        <v>0.66666666666666663</v>
+        <f>SUM(C$74:C111)/A111</f>
+        <v>0.89473684210526316</v>
       </c>
       <c r="N111" s="1">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>0.89473684210526316</v>
       </c>
       <c r="O111" s="1">
-        <f t="shared" ref="O111:O138" si="40">K111*C111</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="27"/>
+        <v>0.89473684210526316</v>
       </c>
       <c r="R111" s="1">
-        <f>SUMIF(B$109:B111,"=1")/SUMIF(B$109:B$138,"=1")</f>
-        <v>9.0909090909090912E-2</v>
+        <f>SUMIF(B$74:B111,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.73913043478260865</v>
       </c>
       <c r="S111" s="1">
-        <f>SUMIF(C$109:C111,"=1")/SUMIF(C$109:C$138,"=1")</f>
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="V111" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="W111" s="1">
-        <f t="shared" si="39"/>
-        <v>0.7</v>
-      </c>
-      <c r="X111" s="1">
-        <f t="shared" si="39"/>
-        <v>0.75</v>
+        <f>SUMIF(C$74:C111,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.73913043478260865</v>
       </c>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
+        <v>39</v>
+      </c>
+      <c r="B112" s="1">
+        <v>1</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1</v>
+      </c>
+      <c r="J112" s="1">
+        <f>SUM(B$74:B112)/A112</f>
+        <v>0.89743589743589747</v>
+      </c>
+      <c r="K112" s="1">
+        <f>SUM(C$74:C112)/A112</f>
+        <v>0.89743589743589747</v>
+      </c>
+      <c r="N112" s="1">
+        <f t="shared" si="27"/>
+        <v>0.89743589743589747</v>
+      </c>
+      <c r="O112" s="1">
+        <f t="shared" si="27"/>
+        <v>0.89743589743589747</v>
+      </c>
+      <c r="R112" s="1">
+        <f>SUMIF(B$74:B112,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.76086956521739135</v>
+      </c>
+      <c r="S112" s="1">
+        <f>SUMIF(C$74:C112,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.76086956521739135</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>40</v>
+      </c>
+      <c r="B113" s="1">
+        <v>1</v>
+      </c>
+      <c r="C113" s="1">
+        <v>1</v>
+      </c>
+      <c r="J113" s="1">
+        <f>SUM(B$74:B113)/A113</f>
+        <v>0.9</v>
+      </c>
+      <c r="K113" s="1">
+        <f>SUM(C$74:C113)/A113</f>
+        <v>0.9</v>
+      </c>
+      <c r="N113" s="1">
+        <f t="shared" si="27"/>
+        <v>0.9</v>
+      </c>
+      <c r="O113" s="1">
+        <f t="shared" si="27"/>
+        <v>0.9</v>
+      </c>
+      <c r="R113" s="1">
+        <f>SUMIF(B$74:B113,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="S113" s="1">
+        <f>SUMIF(C$74:C113,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.78260869565217395</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>41</v>
+      </c>
+      <c r="B114" s="1">
+        <v>1</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1</v>
+      </c>
+      <c r="J114" s="1">
+        <f>SUM(B$74:B114)/A114</f>
+        <v>0.90243902439024393</v>
+      </c>
+      <c r="K114" s="1">
+        <f>SUM(C$74:C114)/A114</f>
+        <v>0.90243902439024393</v>
+      </c>
+      <c r="N114" s="1">
+        <f t="shared" si="27"/>
+        <v>0.90243902439024393</v>
+      </c>
+      <c r="O114" s="1">
+        <f t="shared" si="27"/>
+        <v>0.90243902439024393</v>
+      </c>
+      <c r="R114" s="1">
+        <f>SUMIF(B$74:B114,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.80434782608695654</v>
+      </c>
+      <c r="S114" s="1">
+        <f>SUMIF(C$74:C114,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.80434782608695654</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>42</v>
+      </c>
+      <c r="B115" s="1">
+        <v>1</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1</v>
+      </c>
+      <c r="J115" s="1">
+        <f>SUM(B$74:B115)/A115</f>
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="K115" s="1">
+        <f>SUM(C$74:C115)/A115</f>
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="N115" s="1">
+        <f t="shared" si="27"/>
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="O115" s="1">
+        <f t="shared" si="27"/>
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="R115" s="1">
+        <f>SUMIF(B$74:B115,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.82608695652173914</v>
+      </c>
+      <c r="S115" s="1">
+        <f>SUMIF(C$74:C115,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.82608695652173914</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>43</v>
+      </c>
+      <c r="B116" s="1">
+        <v>1</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1</v>
+      </c>
+      <c r="J116" s="1">
+        <f>SUM(B$74:B116)/A116</f>
+        <v>0.90697674418604646</v>
+      </c>
+      <c r="K116" s="1">
+        <f>SUM(C$74:C116)/A116</f>
+        <v>0.90697674418604646</v>
+      </c>
+      <c r="N116" s="1">
+        <f t="shared" si="27"/>
+        <v>0.90697674418604646</v>
+      </c>
+      <c r="O116" s="1">
+        <f t="shared" si="27"/>
+        <v>0.90697674418604646</v>
+      </c>
+      <c r="R116" s="1">
+        <f>SUMIF(B$74:B116,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.84782608695652173</v>
+      </c>
+      <c r="S116" s="1">
+        <f>SUMIF(C$74:C116,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.84782608695652173</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>44</v>
+      </c>
+      <c r="B117" s="1">
+        <v>1</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1</v>
+      </c>
+      <c r="J117" s="1">
+        <f>SUM(B$74:B117)/A117</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="K117" s="1">
+        <f>SUM(C$74:C117)/A117</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="N117" s="1">
+        <f t="shared" si="27"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="O117" s="1">
+        <f t="shared" si="27"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="R117" s="1">
+        <f>SUMIF(B$74:B117,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="S117" s="1">
+        <f>SUMIF(C$74:C117,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.86956521739130432</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>45</v>
+      </c>
+      <c r="B118" s="1">
+        <v>1</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1</v>
+      </c>
+      <c r="J118" s="1">
+        <f>SUM(B$74:B118)/A118</f>
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="K118" s="1">
+        <f>SUM(C$74:C118)/A118</f>
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="N118" s="1">
+        <f t="shared" si="27"/>
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="O118" s="1">
+        <f t="shared" si="27"/>
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="R118" s="1">
+        <f>SUMIF(B$74:B118,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.89130434782608692</v>
+      </c>
+      <c r="S118" s="1">
+        <f>SUMIF(C$74:C118,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.89130434782608692</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>46</v>
+      </c>
+      <c r="B119" s="1">
+        <v>0</v>
+      </c>
+      <c r="C119" s="1">
+        <v>0</v>
+      </c>
+      <c r="J119" s="1">
+        <f>SUM(B$74:B119)/A119</f>
+        <v>0.89130434782608692</v>
+      </c>
+      <c r="K119" s="1">
+        <f>SUM(C$74:C119)/A119</f>
+        <v>0.89130434782608692</v>
+      </c>
+      <c r="N119" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O119" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="R119" s="1">
+        <f>SUMIF(B$74:B119,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.89130434782608692</v>
+      </c>
+      <c r="S119" s="1">
+        <f>SUMIF(C$74:C119,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.89130434782608692</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>47</v>
+      </c>
+      <c r="B120" s="1">
+        <v>1</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1</v>
+      </c>
+      <c r="J120" s="1">
+        <f>SUM(B$74:B120)/A120</f>
+        <v>0.8936170212765957</v>
+      </c>
+      <c r="K120" s="1">
+        <f>SUM(C$74:C120)/A120</f>
+        <v>0.8936170212765957</v>
+      </c>
+      <c r="N120" s="1">
+        <f t="shared" si="27"/>
+        <v>0.8936170212765957</v>
+      </c>
+      <c r="O120" s="1">
+        <f t="shared" si="27"/>
+        <v>0.8936170212765957</v>
+      </c>
+      <c r="R120" s="1">
+        <f>SUMIF(B$74:B120,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="S120" s="1">
+        <f>SUMIF(C$74:C120,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.91304347826086951</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>48</v>
+      </c>
+      <c r="B121" s="1">
+        <v>0</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0</v>
+      </c>
+      <c r="J121" s="1">
+        <f>SUM(B$74:B121)/A121</f>
+        <v>0.875</v>
+      </c>
+      <c r="K121" s="1">
+        <f>SUM(C$74:C121)/A121</f>
+        <v>0.875</v>
+      </c>
+      <c r="N121" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O121" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="R121" s="1">
+        <f>SUMIF(B$74:B121,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="S121" s="1">
+        <f>SUMIF(C$74:C121,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.91304347826086951</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>49</v>
+      </c>
+      <c r="B122" s="1">
+        <v>0</v>
+      </c>
+      <c r="C122" s="1">
+        <v>0</v>
+      </c>
+      <c r="J122" s="1">
+        <f>SUM(B$74:B122)/A122</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K122" s="1">
+        <f>SUM(C$74:C122)/A122</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="N122" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O122" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="R122" s="1">
+        <f>SUMIF(B$74:B122,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="S122" s="1">
+        <f>SUMIF(C$74:C122,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.91304347826086951</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>50</v>
+      </c>
+      <c r="B123" s="1">
+        <v>0</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0</v>
+      </c>
+      <c r="J123" s="1">
+        <f>SUM(B$74:B123)/A123</f>
+        <v>0.84</v>
+      </c>
+      <c r="K123" s="1">
+        <f>SUM(C$74:C123)/A123</f>
+        <v>0.84</v>
+      </c>
+      <c r="N123" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O123" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="R123" s="1">
+        <f>SUMIF(B$74:B123,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="S123" s="1">
+        <f>SUMIF(C$74:C123,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.91304347826086951</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>51</v>
+      </c>
+      <c r="B124" s="1">
+        <v>0</v>
+      </c>
+      <c r="C124" s="1">
+        <v>0</v>
+      </c>
+      <c r="J124" s="1">
+        <f>SUM(B$74:B124)/A124</f>
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="K124" s="1">
+        <f>SUM(C$74:C124)/A124</f>
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="N124" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O124" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="R124" s="1">
+        <f>SUMIF(B$74:B124,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="S124" s="1">
+        <f>SUMIF(C$74:C124,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.91304347826086951</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>52</v>
+      </c>
+      <c r="B125" s="1">
+        <v>0</v>
+      </c>
+      <c r="C125" s="1">
+        <v>0</v>
+      </c>
+      <c r="J125" s="1">
+        <f>SUM(B$74:B125)/A125</f>
+        <v>0.80769230769230771</v>
+      </c>
+      <c r="K125" s="1">
+        <f>SUM(C$74:C125)/A125</f>
+        <v>0.80769230769230771</v>
+      </c>
+      <c r="N125" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O125" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="R125" s="1">
+        <f>SUMIF(B$74:B125,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="S125" s="1">
+        <f>SUMIF(C$74:C125,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.91304347826086951</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>53</v>
+      </c>
+      <c r="B126" s="1">
+        <v>0</v>
+      </c>
+      <c r="C126" s="1">
+        <v>0</v>
+      </c>
+      <c r="J126" s="1">
+        <f>SUM(B$74:B126)/A126</f>
+        <v>0.79245283018867929</v>
+      </c>
+      <c r="K126" s="1">
+        <f>SUM(C$74:C126)/A126</f>
+        <v>0.79245283018867929</v>
+      </c>
+      <c r="N126" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O126" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="R126" s="1">
+        <f>SUMIF(B$74:B126,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="S126" s="1">
+        <f>SUMIF(C$74:C126,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.91304347826086951</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>54</v>
+      </c>
+      <c r="B127" s="1">
+        <v>1</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1</v>
+      </c>
+      <c r="J127" s="1">
+        <f>SUM(B$74:B127)/A127</f>
+        <v>0.79629629629629628</v>
+      </c>
+      <c r="K127" s="1">
+        <f>SUM(C$74:C127)/A127</f>
+        <v>0.79629629629629628</v>
+      </c>
+      <c r="N127" s="1">
+        <f t="shared" si="27"/>
+        <v>0.79629629629629628</v>
+      </c>
+      <c r="O127" s="1">
+        <f t="shared" si="27"/>
+        <v>0.79629629629629628</v>
+      </c>
+      <c r="R127" s="1">
+        <f>SUMIF(B$74:B127,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.93478260869565222</v>
+      </c>
+      <c r="S127" s="1">
+        <f>SUMIF(C$74:C127,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.93478260869565222</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>55</v>
+      </c>
+      <c r="B128" s="1">
+        <v>0</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0</v>
+      </c>
+      <c r="J128" s="1">
+        <f>SUM(B$74:B128)/A128</f>
+        <v>0.78181818181818186</v>
+      </c>
+      <c r="K128" s="1">
+        <f>SUM(C$74:C128)/A128</f>
+        <v>0.78181818181818186</v>
+      </c>
+      <c r="N128" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O128" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="R128" s="1">
+        <f>SUMIF(B$74:B128,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.93478260869565222</v>
+      </c>
+      <c r="S128" s="1">
+        <f>SUMIF(C$74:C128,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.93478260869565222</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>56</v>
+      </c>
+      <c r="B129" s="1">
+        <v>1</v>
+      </c>
+      <c r="C129" s="1">
+        <v>1</v>
+      </c>
+      <c r="J129" s="1">
+        <f>SUM(B$74:B129)/A129</f>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="K129" s="1">
+        <f>SUM(C$74:C129)/A129</f>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="N129" s="1">
+        <f t="shared" si="27"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="O129" s="1">
+        <f t="shared" si="27"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="R129" s="1">
+        <f>SUMIF(B$74:B129,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="S129" s="1">
+        <f>SUMIF(C$74:C129,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.95652173913043481</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>57</v>
+      </c>
+      <c r="B130" s="1">
+        <v>0</v>
+      </c>
+      <c r="C130" s="1">
+        <v>0</v>
+      </c>
+      <c r="J130" s="1">
+        <f>SUM(B$74:B130)/A130</f>
+        <v>0.77192982456140347</v>
+      </c>
+      <c r="K130" s="1">
+        <f>SUM(C$74:C130)/A130</f>
+        <v>0.77192982456140347</v>
+      </c>
+      <c r="N130" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O130" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="R130" s="1">
+        <f>SUMIF(B$74:B130,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="S130" s="1">
+        <f>SUMIF(C$74:C130,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.95652173913043481</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>58</v>
+      </c>
+      <c r="B131" s="1">
+        <v>0</v>
+      </c>
+      <c r="C131" s="1">
+        <v>0</v>
+      </c>
+      <c r="J131" s="1">
+        <f>SUM(B$74:B131)/A131</f>
+        <v>0.75862068965517238</v>
+      </c>
+      <c r="K131" s="1">
+        <f>SUM(C$74:C131)/A131</f>
+        <v>0.75862068965517238</v>
+      </c>
+      <c r="N131" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O131" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="R131" s="1">
+        <f>SUMIF(B$74:B131,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="S131" s="1">
+        <f>SUMIF(C$74:C131,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.95652173913043481</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>59</v>
+      </c>
+      <c r="B132" s="1">
+        <v>1</v>
+      </c>
+      <c r="C132" s="1">
+        <v>1</v>
+      </c>
+      <c r="J132" s="1">
+        <f>SUM(B$74:B132)/A132</f>
+        <v>0.76271186440677963</v>
+      </c>
+      <c r="K132" s="1">
+        <f>SUM(C$74:C132)/A132</f>
+        <v>0.76271186440677963</v>
+      </c>
+      <c r="N132" s="1">
+        <f t="shared" si="27"/>
+        <v>0.76271186440677963</v>
+      </c>
+      <c r="O132" s="1">
+        <f t="shared" si="27"/>
+        <v>0.76271186440677963</v>
+      </c>
+      <c r="R132" s="1">
+        <f>SUMIF(B$74:B132,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>0.97826086956521741</v>
+      </c>
+      <c r="S132" s="1">
+        <f>SUMIF(C$74:C132,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>0.97826086956521741</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>60</v>
+      </c>
+      <c r="B133" s="1">
+        <v>1</v>
+      </c>
+      <c r="C133" s="1">
+        <v>1</v>
+      </c>
+      <c r="J133" s="1">
+        <f>SUM(B$74:B133)/A133</f>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="K133" s="1">
+        <f>SUM(C$74:C133)/A133</f>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="N133" s="1">
+        <f t="shared" si="27"/>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="O133" s="1">
+        <f t="shared" si="27"/>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="R133" s="1">
+        <f>SUMIF(B$74:B133,"=1")/SUMIF(B$74:B$133,"=1")</f>
+        <v>1</v>
+      </c>
+      <c r="S133" s="1">
+        <f>SUMIF(C$74:C133,"=1")/SUMIF(C$74:C$133,"=1")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="I134" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J134" s="5">
+        <f>AVERAGE(J74:J133)</f>
+        <v>0.93280461774955226</v>
+      </c>
+      <c r="K134" s="5">
+        <f>AVERAGE(K74:K133)</f>
+        <v>0.93280461774955226</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="J137" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K137" s="8"/>
+      <c r="N137" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c r="P137"/>
+      <c r="R137" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S137" s="8"/>
+      <c r="T137"/>
+      <c r="W137" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="X137" s="8"/>
+    </row>
+    <row r="138" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L138"/>
+      <c r="N138" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O138" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R138" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S138" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V138" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W138" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X138" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>1</v>
+      </c>
+      <c r="B139" s="1">
+        <v>0</v>
+      </c>
+      <c r="C139" s="1">
+        <v>1</v>
+      </c>
+      <c r="J139" s="1">
+        <f>SUM(B139)/A139</f>
+        <v>0</v>
+      </c>
+      <c r="K139" s="1">
+        <f>SUM(C139)/A139</f>
+        <v>1</v>
+      </c>
+      <c r="N139" s="1">
+        <f>J139*B139</f>
+        <v>0</v>
+      </c>
+      <c r="O139" s="1">
+        <f>K139*C139</f>
+        <v>1</v>
+      </c>
+      <c r="R139" s="1">
+        <f>SUMIF(B$139:B139,"=1")/SUMIF(B$139:B$168,"=1")</f>
+        <v>0</v>
+      </c>
+      <c r="S139" s="1">
+        <f>SUMIF(C$139:C139,"=1")/SUMIF(C$139:C$168,"=1")</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="V139" s="4">
+        <v>0</v>
+      </c>
+      <c r="W139" s="1">
+        <f>_xlfn.MAXIFS(J$139:J$168,R$139:R$168,"&gt;="&amp;$V139)</f>
+        <v>0.7</v>
+      </c>
+      <c r="X139" s="1">
+        <f>_xlfn.MAXIFS(K$139:K$168,S$139:S$168,"&gt;="&amp;$V139)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>2</v>
+      </c>
+      <c r="B140" s="1">
+        <v>1</v>
+      </c>
+      <c r="C140" s="1">
+        <v>1</v>
+      </c>
+      <c r="J140" s="1">
+        <f>SUM(B$139:B140)/A140</f>
+        <v>0.5</v>
+      </c>
+      <c r="K140" s="1">
+        <f>SUM(C$139:C140)/A140</f>
+        <v>1</v>
+      </c>
+      <c r="N140" s="1">
+        <f t="shared" ref="N140:N168" si="40">J140*B140</f>
+        <v>0.5</v>
+      </c>
+      <c r="O140" s="1">
+        <f>K140*C140</f>
+        <v>1</v>
+      </c>
+      <c r="R140" s="1">
+        <f>SUMIF(B$139:B140,"=1")/SUMIF(B$139:B$168,"=1")</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="S140" s="1">
+        <f>SUMIF(C$139:C140,"=1")/SUMIF(C$139:C$168,"=1")</f>
+        <v>0.125</v>
+      </c>
+      <c r="V140" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="W140" s="1">
+        <f>_xlfn.MAXIFS(J$139:J$168,R$139:R$168,"&gt;="&amp;$V140)</f>
+        <v>0.7</v>
+      </c>
+      <c r="X140" s="1">
+        <f>_xlfn.MAXIFS(K$139:K$168,S$139:S$168,"&gt;="&amp;$V140)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>3</v>
+      </c>
+      <c r="B141" s="1">
+        <v>0</v>
+      </c>
+      <c r="C141" s="1">
+        <v>1</v>
+      </c>
+      <c r="J141" s="1">
+        <f>SUM(B$139:B141)/A141</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K141" s="1">
+        <f>SUM(C$139:C141)/A141</f>
+        <v>1</v>
+      </c>
+      <c r="N141" s="1">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O141" s="1">
+        <f t="shared" ref="O141:O168" si="41">K141*C141</f>
+        <v>1</v>
+      </c>
+      <c r="R141" s="1">
+        <f>SUMIF(B$139:B141,"=1")/SUMIF(B$139:B$168,"=1")</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="S141" s="1">
+        <f>SUMIF(C$139:C141,"=1")/SUMIF(C$139:C$168,"=1")</f>
+        <v>0.1875</v>
+      </c>
+      <c r="V141" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W141" s="1">
+        <f>_xlfn.MAXIFS(J$139:J$168,R$139:R$168,"&gt;="&amp;$V141)</f>
+        <v>0.7</v>
+      </c>
+      <c r="X141" s="1">
+        <f>_xlfn.MAXIFS(K$139:K$168,S$139:S$168,"&gt;="&amp;$V141)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
         <v>4</v>
       </c>
-      <c r="B112" s="1">
-        <v>0</v>
-      </c>
-      <c r="C112" s="1">
-        <v>1</v>
-      </c>
-      <c r="J112" s="1">
-        <f>SUM(B$109:B112)/A112</f>
+      <c r="B142" s="1">
+        <v>0</v>
+      </c>
+      <c r="C142" s="1">
+        <v>1</v>
+      </c>
+      <c r="J142" s="1">
+        <f>SUM(B$139:B142)/A142</f>
         <v>0.25</v>
       </c>
-      <c r="K112" s="1">
-        <f>SUM(C$109:C112)/A112</f>
+      <c r="K142" s="1">
+        <f>SUM(C$139:C142)/A142</f>
+        <v>1</v>
+      </c>
+      <c r="N142" s="1">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O142" s="1">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="R142" s="1">
+        <f>SUMIF(B$139:B142,"=1")/SUMIF(B$139:B$168,"=1")</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="S142" s="1">
+        <f>SUMIF(C$139:C142,"=1")/SUMIF(C$139:C$168,"=1")</f>
+        <v>0.25</v>
+      </c>
+      <c r="V142" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="W142" s="1">
+        <f>_xlfn.MAXIFS(J$139:J$168,R$139:R$168,"&gt;="&amp;$V142)</f>
+        <v>0.7</v>
+      </c>
+      <c r="X142" s="1">
+        <f>_xlfn.MAXIFS(K$139:K$168,S$139:S$168,"&gt;="&amp;$V142)</f>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>5</v>
+      </c>
+      <c r="B143" s="1">
+        <v>1</v>
+      </c>
+      <c r="C143" s="1">
+        <v>0</v>
+      </c>
+      <c r="J143" s="1">
+        <f>SUM(B$139:B143)/A143</f>
+        <v>0.4</v>
+      </c>
+      <c r="K143" s="1">
+        <f>SUM(C$139:C143)/A143</f>
+        <v>0.8</v>
+      </c>
+      <c r="N143" s="1">
+        <f t="shared" si="40"/>
+        <v>0.4</v>
+      </c>
+      <c r="O143" s="1">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="R143" s="1">
+        <f>SUMIF(B$139:B143,"=1")/SUMIF(B$139:B$168,"=1")</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="S143" s="1">
+        <f>SUMIF(C$139:C143,"=1")/SUMIF(C$139:C$168,"=1")</f>
+        <v>0.25</v>
+      </c>
+      <c r="V143" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="W143" s="1">
+        <f>_xlfn.MAXIFS(J$139:J$168,R$139:R$168,"&gt;="&amp;$V143)</f>
+        <v>0.7</v>
+      </c>
+      <c r="X143" s="1">
+        <f>_xlfn.MAXIFS(K$139:K$168,S$139:S$168,"&gt;="&amp;$V143)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>6</v>
+      </c>
+      <c r="B144" s="1">
+        <v>1</v>
+      </c>
+      <c r="C144" s="1">
+        <v>1</v>
+      </c>
+      <c r="J144" s="1">
+        <f>SUM(B$139:B144)/A144</f>
+        <v>0.5</v>
+      </c>
+      <c r="K144" s="1">
+        <f>SUM(C$139:C144)/A144</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="N144" s="1">
+        <f t="shared" si="40"/>
+        <v>0.5</v>
+      </c>
+      <c r="O144" s="1">
+        <f t="shared" si="41"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="R144" s="1">
+        <f>SUMIF(B$139:B144,"=1")/SUMIF(B$139:B$168,"=1")</f>
+        <v>0.25</v>
+      </c>
+      <c r="S144" s="1">
+        <f>SUMIF(C$139:C144,"=1")/SUMIF(C$139:C$168,"=1")</f>
+        <v>0.3125</v>
+      </c>
+      <c r="V144" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="W144" s="1">
+        <f>_xlfn.MAXIFS(J$139:J$168,R$139:R$168,"&gt;="&amp;$V144)</f>
+        <v>0.7</v>
+      </c>
+      <c r="X144" s="1">
+        <f>_xlfn.MAXIFS(K$139:K$168,S$139:S$168,"&gt;="&amp;$V144)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>7</v>
+      </c>
+      <c r="B145" s="1">
+        <v>1</v>
+      </c>
+      <c r="C145" s="1">
+        <v>1</v>
+      </c>
+      <c r="J145" s="1">
+        <f>SUM(B$139:B145)/A145</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="K145" s="1">
+        <f>SUM(C$139:C145)/A145</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="N145" s="1">
+        <f t="shared" si="40"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="O145" s="1">
+        <f t="shared" si="41"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="R145" s="1">
+        <f>SUMIF(B$139:B145,"=1")/SUMIF(B$139:B$168,"=1")</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S145" s="1">
+        <f>SUMIF(C$139:C145,"=1")/SUMIF(C$139:C$168,"=1")</f>
+        <v>0.375</v>
+      </c>
+      <c r="V145" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="W145" s="1">
+        <f>_xlfn.MAXIFS(J$139:J$168,R$139:R$168,"&gt;="&amp;$V145)</f>
+        <v>0.6</v>
+      </c>
+      <c r="X145" s="1">
+        <f>_xlfn.MAXIFS(K$139:K$168,S$139:S$168,"&gt;="&amp;$V145)</f>
+        <v>0.58823529411764708</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>8</v>
+      </c>
+      <c r="B146" s="1">
+        <v>1</v>
+      </c>
+      <c r="C146" s="1">
+        <v>0</v>
+      </c>
+      <c r="J146" s="1">
+        <f>SUM(B$139:B146)/A146</f>
+        <v>0.625</v>
+      </c>
+      <c r="K146" s="1">
+        <f>SUM(C$139:C146)/A146</f>
         <v>0.75</v>
       </c>
-      <c r="N112" s="1">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="O112" s="1">
+      <c r="N146" s="1">
         <f t="shared" si="40"/>
-        <v>0.75</v>
-      </c>
-      <c r="R112" s="1">
-        <f>SUMIF(B$109:B112,"=1")/SUMIF(B$109:B$138,"=1")</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="S112" s="1">
-        <f>SUMIF(C$109:C112,"=1")/SUMIF(C$109:C$138,"=1")</f>
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="V112" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="W112" s="1">
-        <f t="shared" si="39"/>
+        <v>0.625</v>
+      </c>
+      <c r="O146" s="1">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="R146" s="1">
+        <f>SUMIF(B$139:B146,"=1")/SUMIF(B$139:B$168,"=1")</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="S146" s="1">
+        <f>SUMIF(C$139:C146,"=1")/SUMIF(C$139:C$168,"=1")</f>
+        <v>0.375</v>
+      </c>
+      <c r="V146" s="4">
         <v>0.7</v>
       </c>
-      <c r="X112" s="1">
-        <f t="shared" si="39"/>
-        <v>0.7142857142857143</v>
-      </c>
-    </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
-        <v>5</v>
-      </c>
-      <c r="B113" s="1">
-        <v>1</v>
-      </c>
-      <c r="C113" s="1">
-        <v>0</v>
-      </c>
-      <c r="J113" s="1">
-        <f>SUM(B$109:B113)/A113</f>
-        <v>0.4</v>
-      </c>
-      <c r="K113" s="1">
-        <f>SUM(C$109:C113)/A113</f>
+      <c r="W146" s="1">
+        <f>_xlfn.MAXIFS(J$139:J$168,R$139:R$168,"&gt;="&amp;$V146)</f>
         <v>0.6</v>
       </c>
-      <c r="N113" s="1">
-        <f t="shared" si="38"/>
-        <v>0.4</v>
-      </c>
-      <c r="O113" s="1">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="R113" s="1">
-        <f>SUMIF(B$109:B113,"=1")/SUMIF(B$109:B$138,"=1")</f>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="S113" s="1">
-        <f>SUMIF(C$109:C113,"=1")/SUMIF(C$109:C$138,"=1")</f>
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="V113" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="W113" s="1">
-        <f t="shared" si="39"/>
-        <v>0.7</v>
-      </c>
-      <c r="X113" s="1">
-        <f t="shared" si="39"/>
-        <v>0.58333333333333337</v>
-      </c>
-    </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
-        <v>6</v>
-      </c>
-      <c r="B114" s="1">
-        <v>1</v>
-      </c>
-      <c r="C114" s="1">
-        <v>1</v>
-      </c>
-      <c r="J114" s="1">
-        <f>SUM(B$109:B114)/A114</f>
-        <v>0.5</v>
-      </c>
-      <c r="K114" s="1">
-        <f>SUM(C$109:C114)/A114</f>
+      <c r="X146" s="1">
+        <f>_xlfn.MAXIFS(K$139:K$168,S$139:S$168,"&gt;="&amp;$V146)</f>
+        <v>0.55172413793103448</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>9</v>
+      </c>
+      <c r="B147" s="1">
+        <v>1</v>
+      </c>
+      <c r="C147" s="1">
+        <v>0</v>
+      </c>
+      <c r="J147" s="1">
+        <f>SUM(B$139:B147)/A147</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="N114" s="1">
-        <f t="shared" si="38"/>
-        <v>0.5</v>
-      </c>
-      <c r="O114" s="1">
+      <c r="K147" s="1">
+        <f>SUM(C$139:C147)/A147</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N147" s="1">
         <f t="shared" si="40"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="R114" s="1">
-        <f>SUMIF(B$109:B114,"=1")/SUMIF(B$109:B$138,"=1")</f>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="S114" s="1">
-        <f>SUMIF(C$109:C114,"=1")/SUMIF(C$109:C$138,"=1")</f>
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="V114" s="4">
+      <c r="O147" s="1">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="R147" s="1">
+        <f>SUMIF(B$139:B147,"=1")/SUMIF(B$139:B$168,"=1")</f>
         <v>0.5</v>
       </c>
-      <c r="W114" s="1">
-        <f t="shared" si="39"/>
+      <c r="S147" s="1">
+        <f>SUMIF(C$139:C147,"=1")/SUMIF(C$139:C$168,"=1")</f>
+        <v>0.375</v>
+      </c>
+      <c r="V147" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="W147" s="1">
+        <f>_xlfn.MAXIFS(J$139:J$168,R$139:R$168,"&gt;="&amp;$V147)</f>
+        <v>0.5</v>
+      </c>
+      <c r="X147" s="1">
+        <f>_xlfn.MAXIFS(K$139:K$168,S$139:S$168,"&gt;="&amp;$V147)</f>
+        <v>0.55172413793103448</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>10</v>
+      </c>
+      <c r="B148" s="1">
+        <v>1</v>
+      </c>
+      <c r="C148" s="1">
+        <v>0</v>
+      </c>
+      <c r="J148" s="1">
+        <f>SUM(B$139:B148)/A148</f>
         <v>0.7</v>
       </c>
-      <c r="X114" s="1">
-        <f t="shared" si="39"/>
+      <c r="K148" s="1">
+        <f>SUM(C$139:C148)/A148</f>
+        <v>0.6</v>
+      </c>
+      <c r="N148" s="1">
+        <f t="shared" si="40"/>
+        <v>0.7</v>
+      </c>
+      <c r="O148" s="1">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="R148" s="1">
+        <f>SUMIF(B$139:B148,"=1")/SUMIF(B$139:B$168,"=1")</f>
         <v>0.58333333333333337</v>
       </c>
-    </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
-        <v>7</v>
-      </c>
-      <c r="B115" s="1">
-        <v>1</v>
-      </c>
-      <c r="C115" s="1">
-        <v>1</v>
-      </c>
-      <c r="J115" s="1">
-        <f>SUM(B$109:B115)/A115</f>
+      <c r="S148" s="1">
+        <f>SUMIF(C$139:C148,"=1")/SUMIF(C$139:C$168,"=1")</f>
+        <v>0.375</v>
+      </c>
+      <c r="V148" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="W148" s="1">
+        <f>_xlfn.MAXIFS(J$139:J$168,R$139:R$168,"&gt;="&amp;$V148)</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="X148" s="1">
+        <f>_xlfn.MAXIFS(K$139:K$168,S$139:S$168,"&gt;="&amp;$V148)</f>
+        <v>0.55172413793103448</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>11</v>
+      </c>
+      <c r="B149" s="1">
+        <v>0</v>
+      </c>
+      <c r="C149" s="1">
+        <v>1</v>
+      </c>
+      <c r="J149" s="1">
+        <f>SUM(B$139:B149)/A149</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="K149" s="1">
+        <f>SUM(C$139:C149)/A149</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="N149" s="1">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O149" s="1">
+        <f t="shared" si="41"/>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="R149" s="1">
+        <f>SUMIF(B$139:B149,"=1")/SUMIF(B$139:B$168,"=1")</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="S149" s="1">
+        <f>SUMIF(C$139:C149,"=1")/SUMIF(C$139:C$168,"=1")</f>
+        <v>0.4375</v>
+      </c>
+      <c r="V149" s="4">
+        <v>1</v>
+      </c>
+      <c r="W149" s="1">
+        <f>_xlfn.MAXIFS(J$139:J$168,R$139:R$168,"&gt;="&amp;$V149)</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="X149" s="1">
+        <f>_xlfn.MAXIFS(K$139:K$168,S$139:S$168,"&gt;="&amp;$V149)</f>
+        <v>0.55172413793103448</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>12</v>
+      </c>
+      <c r="B150" s="1">
+        <v>0</v>
+      </c>
+      <c r="C150" s="1">
+        <v>1</v>
+      </c>
+      <c r="J150" s="1">
+        <f>SUM(B$139:B150)/A150</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K150" s="1">
+        <f>SUM(C$139:C150)/A150</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N150" s="1">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O150" s="1">
+        <f t="shared" si="41"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R150" s="1">
+        <f>SUMIF(B$139:B150,"=1")/SUMIF(B$139:B$168,"=1")</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="S150" s="1">
+        <f>SUMIF(C$139:C150,"=1")/SUMIF(C$139:C$168,"=1")</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>13</v>
+      </c>
+      <c r="B151" s="1">
+        <v>0</v>
+      </c>
+      <c r="C151" s="1">
+        <v>0</v>
+      </c>
+      <c r="J151" s="1">
+        <f>SUM(B$139:B151)/A151</f>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="K151" s="1">
+        <f>SUM(C$139:C151)/A151</f>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="N151" s="1">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O151" s="1">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="R151" s="1">
+        <f>SUMIF(B$139:B151,"=1")/SUMIF(B$139:B$168,"=1")</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="S151" s="1">
+        <f>SUMIF(C$139:C151,"=1")/SUMIF(C$139:C$168,"=1")</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>14</v>
+      </c>
+      <c r="B152" s="1">
+        <v>1</v>
+      </c>
+      <c r="C152" s="1">
+        <v>0</v>
+      </c>
+      <c r="J152" s="1">
+        <f>SUM(B$139:B152)/A152</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="K115" s="1">
-        <f>SUM(C$109:C115)/A115</f>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="N115" s="1">
-        <f t="shared" si="38"/>
+      <c r="K152" s="1">
+        <f>SUM(C$139:C152)/A152</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="O115" s="1">
+      <c r="N152" s="1">
         <f t="shared" si="40"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="R115" s="1">
-        <f>SUMIF(B$109:B115,"=1")/SUMIF(B$109:B$138,"=1")</f>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="S115" s="1">
-        <f>SUMIF(C$109:C115,"=1")/SUMIF(C$109:C$138,"=1")</f>
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="V115" s="4">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="O152" s="1">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="R152" s="1">
+        <f>SUMIF(B$139:B152,"=1")/SUMIF(B$139:B$168,"=1")</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="S152" s="1">
+        <f>SUMIF(C$139:C152,"=1")/SUMIF(C$139:C$168,"=1")</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>15</v>
+      </c>
+      <c r="B153" s="1">
+        <v>1</v>
+      </c>
+      <c r="C153" s="1">
+        <v>1</v>
+      </c>
+      <c r="J153" s="1">
+        <f>SUM(B$139:B153)/A153</f>
         <v>0.6</v>
       </c>
-      <c r="W115" s="1">
-        <f t="shared" si="39"/>
+      <c r="K153" s="1">
+        <f>SUM(C$139:C153)/A153</f>
+        <v>0.6</v>
+      </c>
+      <c r="N153" s="1">
+        <f t="shared" si="40"/>
+        <v>0.6</v>
+      </c>
+      <c r="O153" s="1">
+        <f t="shared" si="41"/>
+        <v>0.6</v>
+      </c>
+      <c r="R153" s="1">
+        <f>SUMIF(B$139:B153,"=1")/SUMIF(B$139:B$168,"=1")</f>
+        <v>0.75</v>
+      </c>
+      <c r="S153" s="1">
+        <f>SUMIF(C$139:C153,"=1")/SUMIF(C$139:C$168,"=1")</f>
+        <v>0.5625</v>
+      </c>
+      <c r="W153" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="X153" s="8"/>
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>16</v>
+      </c>
+      <c r="B154" s="1">
+        <v>0</v>
+      </c>
+      <c r="C154" s="1">
+        <v>0</v>
+      </c>
+      <c r="J154" s="1">
+        <f>SUM(B$139:B154)/A154</f>
+        <v>0.5625</v>
+      </c>
+      <c r="K154" s="1">
+        <f>SUM(C$139:C154)/A154</f>
+        <v>0.5625</v>
+      </c>
+      <c r="N154" s="1">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O154" s="1">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="R154" s="1">
+        <f>SUMIF(B$139:B154,"=1")/SUMIF(B$139:B$168,"=1")</f>
+        <v>0.75</v>
+      </c>
+      <c r="S154" s="1">
+        <f>SUMIF(C$139:C154,"=1")/SUMIF(C$139:C$168,"=1")</f>
+        <v>0.5625</v>
+      </c>
+      <c r="V154" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W154" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X154" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>17</v>
+      </c>
+      <c r="B155" s="1">
+        <v>0</v>
+      </c>
+      <c r="C155" s="1">
+        <v>1</v>
+      </c>
+      <c r="J155" s="1">
+        <f>SUM(B$139:B155)/A155</f>
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="K155" s="1">
+        <f>SUM(C$139:C155)/A155</f>
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="N155" s="1">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O155" s="1">
+        <f t="shared" si="41"/>
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="R155" s="1">
+        <f>SUMIF(B$139:B155,"=1")/SUMIF(B$139:B$168,"=1")</f>
+        <v>0.75</v>
+      </c>
+      <c r="S155" s="1">
+        <f>SUMIF(C$139:C155,"=1")/SUMIF(C$139:C$168,"=1")</f>
+        <v>0.625</v>
+      </c>
+      <c r="V155" s="4">
+        <v>0</v>
+      </c>
+      <c r="W155" s="1">
+        <f>(1 + $V$2^2) * (W139*$V139/($V$2^2 * W139 +$V139))</f>
+        <v>0</v>
+      </c>
+      <c r="X155" s="1">
+        <f>(1 + $V$2^2) * (X139*$V139/($V$2^2 * X139 +$V139))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>18</v>
+      </c>
+      <c r="B156" s="1">
+        <v>0</v>
+      </c>
+      <c r="C156" s="1">
+        <v>0</v>
+      </c>
+      <c r="J156" s="1">
+        <f>SUM(B$139:B156)/A156</f>
+        <v>0.5</v>
+      </c>
+      <c r="K156" s="1">
+        <f>SUM(C$139:C156)/A156</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="N156" s="1">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O156" s="1">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="R156" s="1">
+        <f>SUMIF(B$139:B156,"=1")/SUMIF(B$139:B$168,"=1")</f>
+        <v>0.75</v>
+      </c>
+      <c r="S156" s="1">
+        <f>SUMIF(C$139:C156,"=1")/SUMIF(C$139:C$168,"=1")</f>
+        <v>0.625</v>
+      </c>
+      <c r="V156" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="W156" s="1">
+        <f t="shared" ref="W156:X156" si="42">(1 + $V$2^2) * (W140*$V140/($V$2^2 * W140 +$V140))</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="X156" s="1">
+        <f t="shared" si="42"/>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>19</v>
+      </c>
+      <c r="B157" s="1">
+        <v>0</v>
+      </c>
+      <c r="C157" s="1">
+        <v>0</v>
+      </c>
+      <c r="J157" s="1">
+        <f>SUM(B$139:B157)/A157</f>
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="K157" s="1">
+        <f>SUM(C$139:C157)/A157</f>
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="N157" s="1">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O157" s="1">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="R157" s="1">
+        <f>SUMIF(B$139:B157,"=1")/SUMIF(B$139:B$168,"=1")</f>
+        <v>0.75</v>
+      </c>
+      <c r="S157" s="1">
+        <f>SUMIF(C$139:C157,"=1")/SUMIF(C$139:C$168,"=1")</f>
+        <v>0.625</v>
+      </c>
+      <c r="V157" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W157" s="1">
+        <f t="shared" ref="W157:X157" si="43">(1 + $V$2^2) * (W141*$V141/($V$2^2 * W141 +$V141))</f>
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="X157" s="1">
+        <f t="shared" si="43"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>20</v>
+      </c>
+      <c r="B158" s="1">
+        <v>1</v>
+      </c>
+      <c r="C158" s="1">
+        <v>0</v>
+      </c>
+      <c r="J158" s="1">
+        <f>SUM(B$139:B158)/A158</f>
+        <v>0.5</v>
+      </c>
+      <c r="K158" s="1">
+        <f>SUM(C$139:C158)/A158</f>
+        <v>0.5</v>
+      </c>
+      <c r="N158" s="1">
+        <f t="shared" si="40"/>
+        <v>0.5</v>
+      </c>
+      <c r="O158" s="1">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="R158" s="1">
+        <f>SUMIF(B$139:B158,"=1")/SUMIF(B$139:B$168,"=1")</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="S158" s="1">
+        <f>SUMIF(C$139:C158,"=1")/SUMIF(C$139:C$168,"=1")</f>
+        <v>0.625</v>
+      </c>
+      <c r="V158" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="W158" s="1">
+        <f t="shared" ref="W158:X158" si="44">(1 + $V$2^2) * (W142*$V142/($V$2^2 * W142 +$V142))</f>
+        <v>0.42</v>
+      </c>
+      <c r="X158" s="1">
+        <f t="shared" si="44"/>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>21</v>
+      </c>
+      <c r="B159" s="1">
+        <v>0</v>
+      </c>
+      <c r="C159" s="1">
+        <v>0</v>
+      </c>
+      <c r="J159" s="1">
+        <f>SUM(B$139:B159)/A159</f>
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="K159" s="1">
+        <f>SUM(C$139:C159)/A159</f>
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="N159" s="1">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O159" s="1">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="R159" s="1">
+        <f>SUMIF(B$139:B159,"=1")/SUMIF(B$139:B$168,"=1")</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="S159" s="1">
+        <f>SUMIF(C$139:C159,"=1")/SUMIF(C$139:C$168,"=1")</f>
+        <v>0.625</v>
+      </c>
+      <c r="V159" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="W159" s="1">
+        <f t="shared" ref="W159:X159" si="45">(1 + $V$2^2) * (W143*$V143/($V$2^2 * W143 +$V143))</f>
+        <v>0.50909090909090904</v>
+      </c>
+      <c r="X159" s="1">
+        <f t="shared" si="45"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>22</v>
+      </c>
+      <c r="B160" s="1">
+        <v>0</v>
+      </c>
+      <c r="C160" s="1">
+        <v>1</v>
+      </c>
+      <c r="J160" s="1">
+        <f>SUM(B$139:B160)/A160</f>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="K160" s="1">
+        <f>SUM(C$139:C160)/A160</f>
+        <v>0.5</v>
+      </c>
+      <c r="N160" s="1">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O160" s="1">
+        <f t="shared" si="41"/>
+        <v>0.5</v>
+      </c>
+      <c r="R160" s="1">
+        <f>SUMIF(B$139:B160,"=1")/SUMIF(B$139:B$168,"=1")</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="S160" s="1">
+        <f>SUMIF(C$139:C160,"=1")/SUMIF(C$139:C$168,"=1")</f>
+        <v>0.6875</v>
+      </c>
+      <c r="V160" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="W160" s="1">
+        <f t="shared" ref="W160:X160" si="46">(1 + $V$2^2) * (W144*$V144/($V$2^2 * W144 +$V144))</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="X160" s="1">
+        <f t="shared" si="46"/>
+        <v>0.57142857142857151</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>23</v>
+      </c>
+      <c r="B161" s="1">
+        <v>0</v>
+      </c>
+      <c r="C161" s="1">
+        <v>1</v>
+      </c>
+      <c r="J161" s="1">
+        <f>SUM(B$139:B161)/A161</f>
+        <v>0.43478260869565216</v>
+      </c>
+      <c r="K161" s="1">
+        <f>SUM(C$139:C161)/A161</f>
+        <v>0.52173913043478259</v>
+      </c>
+      <c r="N161" s="1">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O161" s="1">
+        <f t="shared" si="41"/>
+        <v>0.52173913043478259</v>
+      </c>
+      <c r="R161" s="1">
+        <f>SUMIF(B$139:B161,"=1")/SUMIF(B$139:B$168,"=1")</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="S161" s="1">
+        <f>SUMIF(C$139:C161,"=1")/SUMIF(C$139:C$168,"=1")</f>
+        <v>0.75</v>
+      </c>
+      <c r="V161" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="W161" s="1">
+        <f t="shared" ref="W161:X161" si="47">(1 + $V$2^2) * (W145*$V145/($V$2^2 * W145 +$V145))</f>
+        <v>0.6</v>
+      </c>
+      <c r="X161" s="1">
+        <f t="shared" si="47"/>
+        <v>0.59405940594059414</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>24</v>
+      </c>
+      <c r="B162" s="1">
+        <v>1</v>
+      </c>
+      <c r="C162" s="1">
+        <v>0</v>
+      </c>
+      <c r="J162" s="1">
+        <f>SUM(B$139:B162)/A162</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K162" s="1">
+        <f>SUM(C$139:C162)/A162</f>
+        <v>0.5</v>
+      </c>
+      <c r="N162" s="1">
+        <f t="shared" si="40"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="O162" s="1">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="R162" s="1">
+        <f>SUMIF(B$139:B162,"=1")/SUMIF(B$139:B$168,"=1")</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="S162" s="1">
+        <f>SUMIF(C$139:C162,"=1")/SUMIF(C$139:C$168,"=1")</f>
+        <v>0.75</v>
+      </c>
+      <c r="V162" s="4">
         <v>0.7</v>
       </c>
-      <c r="X115" s="1">
-        <f t="shared" si="39"/>
+      <c r="W162" s="1">
+        <f t="shared" ref="W162:X162" si="48">(1 + $V$2^2) * (W146*$V146/($V$2^2 * W146 +$V146))</f>
+        <v>0.64615384615384619</v>
+      </c>
+      <c r="X162" s="1">
+        <f t="shared" si="48"/>
+        <v>0.61707988980716255</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>25</v>
+      </c>
+      <c r="B163" s="1">
+        <v>0</v>
+      </c>
+      <c r="C163" s="1">
+        <v>0</v>
+      </c>
+      <c r="J163" s="1">
+        <f>SUM(B$139:B163)/A163</f>
+        <v>0.44</v>
+      </c>
+      <c r="K163" s="1">
+        <f>SUM(C$139:C163)/A163</f>
+        <v>0.48</v>
+      </c>
+      <c r="N163" s="1">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O163" s="1">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="R163" s="1">
+        <f>SUMIF(B$139:B163,"=1")/SUMIF(B$139:B$168,"=1")</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="S163" s="1">
+        <f>SUMIF(C$139:C163,"=1")/SUMIF(C$139:C$168,"=1")</f>
+        <v>0.75</v>
+      </c>
+      <c r="V163" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="W163" s="1">
+        <f t="shared" ref="W163:X163" si="49">(1 + $V$2^2) * (W147*$V147/($V$2^2 * W147 +$V147))</f>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="X163" s="1">
+        <f t="shared" si="49"/>
+        <v>0.65306122448979587</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>26</v>
+      </c>
+      <c r="B164" s="1">
+        <v>1</v>
+      </c>
+      <c r="C164" s="1">
+        <v>1</v>
+      </c>
+      <c r="J164" s="1">
+        <f>SUM(B$139:B164)/A164</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="K164" s="1">
+        <f>SUM(C$139:C164)/A164</f>
+        <v>0.5</v>
+      </c>
+      <c r="N164" s="1">
+        <f t="shared" si="40"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="O164" s="1">
+        <f t="shared" si="41"/>
+        <v>0.5</v>
+      </c>
+      <c r="R164" s="1">
+        <f>SUMIF(B$139:B164,"=1")/SUMIF(B$139:B$168,"=1")</f>
+        <v>1</v>
+      </c>
+      <c r="S164" s="1">
+        <f>SUMIF(C$139:C164,"=1")/SUMIF(C$139:C$168,"=1")</f>
+        <v>0.8125</v>
+      </c>
+      <c r="V164" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="W164" s="1">
+        <f t="shared" ref="W164:X164" si="50">(1 + $V$2^2) * (W148*$V148/($V$2^2 * W148 +$V148))</f>
+        <v>0.61016949152542377</v>
+      </c>
+      <c r="X164" s="1">
+        <f t="shared" si="50"/>
+        <v>0.68408551068883605</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>27</v>
+      </c>
+      <c r="B165" s="1">
+        <v>0</v>
+      </c>
+      <c r="C165" s="1">
+        <v>1</v>
+      </c>
+      <c r="J165" s="1">
+        <f>SUM(B$139:B165)/A165</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="K165" s="1">
+        <f>SUM(C$139:C165)/A165</f>
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="N165" s="1">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O165" s="1">
+        <f t="shared" si="41"/>
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="R165" s="1">
+        <f>SUMIF(B$139:B165,"=1")/SUMIF(B$139:B$168,"=1")</f>
+        <v>1</v>
+      </c>
+      <c r="S165" s="1">
+        <f>SUMIF(C$139:C165,"=1")/SUMIF(C$139:C$168,"=1")</f>
+        <v>0.875</v>
+      </c>
+      <c r="V165" s="4">
+        <v>1</v>
+      </c>
+      <c r="W165" s="1">
+        <f t="shared" ref="W165:X165" si="51">(1 + $V$2^2) * (W149*$V149/($V$2^2 * W149 +$V149))</f>
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="X165" s="1">
+        <f t="shared" si="51"/>
+        <v>0.71111111111111114</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>28</v>
+      </c>
+      <c r="B166" s="1">
+        <v>0</v>
+      </c>
+      <c r="C166" s="1">
+        <v>1</v>
+      </c>
+      <c r="J166" s="1">
+        <f>SUM(B$139:B166)/A166</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="K166" s="1">
+        <f>SUM(C$139:C166)/A166</f>
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="N166" s="1">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O166" s="1">
+        <f t="shared" si="41"/>
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="R166" s="1">
+        <f>SUMIF(B$139:B166,"=1")/SUMIF(B$139:B$168,"=1")</f>
+        <v>1</v>
+      </c>
+      <c r="S166" s="1">
+        <f>SUMIF(C$139:C166,"=1")/SUMIF(C$139:C$168,"=1")</f>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>29</v>
+      </c>
+      <c r="B167" s="1">
+        <v>0</v>
+      </c>
+      <c r="C167" s="1">
+        <v>1</v>
+      </c>
+      <c r="J167" s="1">
+        <f>SUM(B$139:B167)/A167</f>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="K167" s="1">
+        <f>SUM(C$139:C167)/A167</f>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="N167" s="1">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O167" s="1">
+        <f t="shared" si="41"/>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="R167" s="1">
+        <f>SUMIF(B$139:B167,"=1")/SUMIF(B$139:B$168,"=1")</f>
+        <v>1</v>
+      </c>
+      <c r="S167" s="1">
+        <f>SUMIF(C$139:C167,"=1")/SUMIF(C$139:C$168,"=1")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>30</v>
+      </c>
+      <c r="B168" s="1">
+        <v>0</v>
+      </c>
+      <c r="C168" s="1">
+        <v>0</v>
+      </c>
+      <c r="J168" s="1">
+        <f>SUM(B$139:B168)/A168</f>
+        <v>0.4</v>
+      </c>
+      <c r="K168" s="1">
+        <f>SUM(C$139:C168)/A168</f>
         <v>0.53333333333333333</v>
       </c>
-    </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
+      <c r="N168" s="1">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O168" s="1">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="R168" s="1">
+        <f>SUMIF(B$139:B168,"=1")/SUMIF(B$139:B$168,"=1")</f>
+        <v>1</v>
+      </c>
+      <c r="S168" s="1">
+        <f>SUMIF(C$139:C168,"=1")/SUMIF(C$139:C$168,"=1")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="I169" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B116" s="1">
-        <v>1</v>
-      </c>
-      <c r="C116" s="1">
-        <v>0</v>
-      </c>
-      <c r="J116" s="1">
-        <f>SUM(B$109:B116)/A116</f>
-        <v>0.625</v>
-      </c>
-      <c r="K116" s="1">
-        <f>SUM(C$109:C116)/A116</f>
-        <v>0.625</v>
-      </c>
-      <c r="N116" s="1">
-        <f t="shared" si="38"/>
-        <v>0.625</v>
-      </c>
-      <c r="O116" s="1">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="R116" s="1">
-        <f>SUMIF(B$109:B116,"=1")/SUMIF(B$109:B$138,"=1")</f>
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="S116" s="1">
-        <f>SUMIF(C$109:C116,"=1")/SUMIF(C$109:C$138,"=1")</f>
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="V116" s="4">
+      <c r="J169" s="5">
+        <f>AVERAGE(J139:J168)</f>
+        <v>0.48179369790051252</v>
+      </c>
+      <c r="K169" s="5">
+        <f>AVERAGE(K139:K168)</f>
+        <v>0.64822709560852221</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="I172" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J172" s="5">
+        <f>AVERAGE(J134,J169,J69,J34)</f>
+        <v>0.45919045492568555</v>
+      </c>
+      <c r="K172" s="5">
+        <f>AVERAGE(K169,K134,K69,K34)</f>
+        <v>0.64940747094293017</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="E173" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="F175" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="8"/>
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="E176" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E177" s="4">
+        <v>0</v>
+      </c>
+      <c r="F177" s="1">
+        <f>AVERAGE(W4,W39,W74,W139)</f>
+        <v>0.64191176470588229</v>
+      </c>
+      <c r="G177" s="1">
+        <f>AVERAGE(X4,X39,X74,X139)</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="J177" s="8"/>
+      <c r="K177" s="8"/>
+    </row>
+    <row r="178" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E178" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F178" s="1">
+        <f>AVERAGE(W5,W40,W75,W140)</f>
+        <v>0.64191176470588229</v>
+      </c>
+      <c r="G178" s="1">
+        <f>AVERAGE(X5,X40,X75,X140)</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="I178" s="2"/>
+      <c r="J178" s="2"/>
+      <c r="K178" s="2"/>
+    </row>
+    <row r="179" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E179" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F179" s="1">
+        <f>AVERAGE(W6,W41,W76,W141)</f>
+        <v>0.64191176470588229</v>
+      </c>
+      <c r="G179" s="1">
+        <f>AVERAGE(X6,X41,X76,X141)</f>
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="180" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E180" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F180" s="1">
+        <f>AVERAGE(W7,W42,W77,W142)</f>
+        <v>0.64191176470588229</v>
+      </c>
+      <c r="G180" s="1">
+        <f>AVERAGE(X7,X42,X77,X142)</f>
+        <v>0.88095238095238093</v>
+      </c>
+    </row>
+    <row r="181" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E181" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F181" s="1">
+        <f>AVERAGE(W8,W43,W78,W143)</f>
+        <v>0.55735294117647061</v>
+      </c>
+      <c r="G181" s="1">
+        <f>AVERAGE(X8,X43,X78,X143)</f>
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="182" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E182" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F182" s="1">
+        <f>AVERAGE(W9,W44,W79,W144)</f>
+        <v>0.55735294117647061</v>
+      </c>
+      <c r="G182" s="1">
+        <f>AVERAGE(X9,X44,X79,X144)</f>
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="183" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E183" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F183" s="1">
+        <f>AVERAGE(W10,W45,W80,W145)</f>
+        <v>0.53235294117647058</v>
+      </c>
+      <c r="G183" s="1">
+        <f>AVERAGE(X10,X45,X80,X145)</f>
+        <v>0.68872549019607854</v>
+      </c>
+    </row>
+    <row r="184" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E184" s="4">
         <v>0.7</v>
       </c>
-      <c r="W116" s="1">
-        <f t="shared" si="39"/>
+      <c r="F184" s="1">
+        <f>AVERAGE(W11,W46,W81,W146)</f>
+        <v>0.51806722689075635</v>
+      </c>
+      <c r="G184" s="1">
+        <f>AVERAGE(X11,X46,X81,X146)</f>
+        <v>0.6073409723709573</v>
+      </c>
+    </row>
+    <row r="185" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E185" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F185" s="1">
+        <f>AVERAGE(W12,W47,W82,W147)</f>
+        <v>0.46552287581699348</v>
+      </c>
+      <c r="G185" s="1">
+        <f>AVERAGE(X12,X47,X82,X147)</f>
+        <v>0.59940446443444939</v>
+      </c>
+    </row>
+    <row r="186" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E186" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F186" s="1">
+        <f>AVERAGE(W13,W48,W83,W148)</f>
+        <v>0.45153396874298002</v>
+      </c>
+      <c r="G186" s="1">
+        <f>AVERAGE(X13,X48,X83,X148)</f>
+        <v>0.59503094197582063</v>
+      </c>
+    </row>
+    <row r="187" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E187" s="4">
+        <v>1</v>
+      </c>
+      <c r="F187" s="1">
+        <f>AVERAGE(W14,W49,W84,W149)</f>
+        <v>0.4197963800904978</v>
+      </c>
+      <c r="G187" s="1">
+        <f>AVERAGE(X14,X49,X84,X149)</f>
+        <v>0.52966383871556277</v>
+      </c>
+    </row>
+    <row r="197" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E197" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="199" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F199" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="8"/>
+    </row>
+    <row r="200" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E200" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E201" s="4">
+        <v>0</v>
+      </c>
+      <c r="F201" s="1">
+        <f>AVERAGE(W139,W39,W4)</f>
+        <v>0.52254901960784317</v>
+      </c>
+      <c r="G201" s="1">
+        <f>AVERAGE(X139,X39,X4)</f>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="202" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E202" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F202" s="1">
+        <f>AVERAGE(W140,W40,W5)</f>
+        <v>0.52254901960784317</v>
+      </c>
+      <c r="G202" s="1">
+        <f>AVERAGE(X140,X40,X5)</f>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="203" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E203" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F203" s="1">
+        <f>AVERAGE(W141,W41,W6)</f>
+        <v>0.52254901960784317</v>
+      </c>
+      <c r="G203" s="1">
+        <f>AVERAGE(X141,X41,X6)</f>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="204" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E204" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F204" s="1">
+        <f>AVERAGE(W142,W42,W7)</f>
+        <v>0.52254901960784317</v>
+      </c>
+      <c r="G204" s="1">
+        <f>AVERAGE(X142,X42,X7)</f>
+        <v>0.84126984126984128</v>
+      </c>
+    </row>
+    <row r="205" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E205" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F205" s="1">
+        <f>AVERAGE(W143,W43,W8)</f>
+        <v>0.40980392156862749</v>
+      </c>
+      <c r="G205" s="1">
+        <f>AVERAGE(X143,X43,X8)</f>
+        <v>0.69444444444444453</v>
+      </c>
+    </row>
+    <row r="206" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E206" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F206" s="1">
+        <f>AVERAGE(W144,W44,W9)</f>
+        <v>0.40980392156862749</v>
+      </c>
+      <c r="G206" s="1">
+        <f>AVERAGE(X144,X44,X9)</f>
+        <v>0.63888888888888884</v>
+      </c>
+    </row>
+    <row r="207" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E207" s="4">
         <v>0.6</v>
       </c>
-      <c r="X116" s="1">
-        <f t="shared" si="39"/>
-        <v>0.44827586206896552</v>
-      </c>
-    </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
-        <v>9</v>
-      </c>
-      <c r="B117" s="1">
-        <v>1</v>
-      </c>
-      <c r="C117" s="1">
-        <v>0</v>
-      </c>
-      <c r="J117" s="1">
-        <f>SUM(B$109:B117)/A117</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="K117" s="1">
-        <f>SUM(C$109:C117)/A117</f>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="N117" s="1">
-        <f t="shared" si="38"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O117" s="1">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="R117" s="1">
-        <f>SUMIF(B$109:B117,"=1")/SUMIF(B$109:B$138,"=1")</f>
-        <v>0.54545454545454541</v>
-      </c>
-      <c r="S117" s="1">
-        <f>SUMIF(C$109:C117,"=1")/SUMIF(C$109:C$138,"=1")</f>
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="V117" s="4">
+      <c r="F207" s="1">
+        <f>AVERAGE(W145,W45,W10)</f>
+        <v>0.37647058823529411</v>
+      </c>
+      <c r="G207" s="1">
+        <f>AVERAGE(X145,X45,X10)</f>
+        <v>0.58496732026143794</v>
+      </c>
+    </row>
+    <row r="208" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E208" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F208" s="1">
+        <f>AVERAGE(W146,W46,W11)</f>
+        <v>0.37647058823529411</v>
+      </c>
+      <c r="G208" s="1">
+        <f>AVERAGE(X146,X46,X11)</f>
+        <v>0.49550224887556221</v>
+      </c>
+    </row>
+    <row r="209" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E209" s="4">
         <v>0.8</v>
       </c>
-      <c r="W117" s="1">
-        <f t="shared" si="39"/>
-        <v>0.6</v>
-      </c>
-      <c r="X117" s="1">
-        <f t="shared" si="39"/>
-        <v>0.44827586206896552</v>
-      </c>
-    </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
-        <v>10</v>
-      </c>
-      <c r="B118" s="1">
-        <v>1</v>
-      </c>
-      <c r="C118" s="1">
-        <v>0</v>
-      </c>
-      <c r="J118" s="1">
-        <f>SUM(B$109:B118)/A118</f>
-        <v>0.7</v>
-      </c>
-      <c r="K118" s="1">
-        <f>SUM(C$109:C118)/A118</f>
-        <v>0.5</v>
-      </c>
-      <c r="N118" s="1">
-        <f t="shared" si="38"/>
-        <v>0.7</v>
-      </c>
-      <c r="O118" s="1">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="R118" s="1">
-        <f>SUMIF(B$109:B118,"=1")/SUMIF(B$109:B$138,"=1")</f>
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="S118" s="1">
-        <f>SUMIF(C$109:C118,"=1")/SUMIF(C$109:C$138,"=1")</f>
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="V118" s="4">
+      <c r="F209" s="1">
+        <f>AVERAGE(W147,W47,W12)</f>
+        <v>0.31699346405228757</v>
+      </c>
+      <c r="G209" s="1">
+        <f>AVERAGE(X147,X47,X12)</f>
+        <v>0.49550224887556221</v>
+      </c>
+    </row>
+    <row r="210" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E210" s="4">
         <v>0.9</v>
       </c>
-      <c r="W118" s="1">
-        <f t="shared" si="39"/>
-        <v>0.5</v>
-      </c>
-      <c r="X118" s="1">
-        <f t="shared" si="39"/>
-        <v>0.44827586206896552</v>
-      </c>
-    </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
-        <v>11</v>
-      </c>
-      <c r="B119" s="1">
-        <v>0</v>
-      </c>
-      <c r="C119" s="1">
-        <v>1</v>
-      </c>
-      <c r="J119" s="1">
-        <f>SUM(B$109:B119)/A119</f>
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="K119" s="1">
-        <f>SUM(C$109:C119)/A119</f>
-        <v>0.54545454545454541</v>
-      </c>
-      <c r="N119" s="1">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="O119" s="1">
-        <f t="shared" si="40"/>
-        <v>0.54545454545454541</v>
-      </c>
-      <c r="R119" s="1">
-        <f>SUMIF(B$109:B119,"=1")/SUMIF(B$109:B$138,"=1")</f>
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="S119" s="1">
-        <f>SUMIF(C$109:C119,"=1")/SUMIF(C$109:C$138,"=1")</f>
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="V119" s="4">
-        <v>1</v>
-      </c>
-      <c r="W119" s="1">
-        <f t="shared" si="39"/>
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="X119" s="1">
-        <f t="shared" si="39"/>
-        <v>0.44827586206896552</v>
-      </c>
-    </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
-        <v>12</v>
-      </c>
-      <c r="B120" s="1">
-        <v>0</v>
-      </c>
-      <c r="C120" s="1">
-        <v>1</v>
-      </c>
-      <c r="J120" s="1">
-        <f>SUM(B$109:B120)/A120</f>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="K120" s="1">
-        <f>SUM(C$109:C120)/A120</f>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="N120" s="1">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="O120" s="1">
-        <f t="shared" si="40"/>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="R120" s="1">
-        <f>SUMIF(B$109:B120,"=1")/SUMIF(B$109:B$138,"=1")</f>
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="S120" s="1">
-        <f>SUMIF(C$109:C120,"=1")/SUMIF(C$109:C$138,"=1")</f>
-        <v>0.53846153846153844</v>
-      </c>
-    </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
-        <v>13</v>
-      </c>
-      <c r="B121" s="1">
-        <v>0</v>
-      </c>
-      <c r="C121" s="1">
-        <v>0</v>
-      </c>
-      <c r="J121" s="1">
-        <f>SUM(B$109:B121)/A121</f>
-        <v>0.53846153846153844</v>
-      </c>
-      <c r="K121" s="1">
-        <f>SUM(C$109:C121)/A121</f>
-        <v>0.53846153846153844</v>
-      </c>
-      <c r="N121" s="1">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="O121" s="1">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="R121" s="1">
-        <f>SUMIF(B$109:B121,"=1")/SUMIF(B$109:B$138,"=1")</f>
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="S121" s="1">
-        <f>SUMIF(C$109:C121,"=1")/SUMIF(C$109:C$138,"=1")</f>
-        <v>0.53846153846153844</v>
-      </c>
-    </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
-        <v>14</v>
-      </c>
-      <c r="B122" s="1">
-        <v>1</v>
-      </c>
-      <c r="C122" s="1">
-        <v>0</v>
-      </c>
-      <c r="J122" s="1">
-        <f>SUM(B$109:B122)/A122</f>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="K122" s="1">
-        <f>SUM(C$109:C122)/A122</f>
-        <v>0.5</v>
-      </c>
-      <c r="N122" s="1">
-        <f t="shared" si="38"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="O122" s="1">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="R122" s="1">
-        <f>SUMIF(B$109:B122,"=1")/SUMIF(B$109:B$138,"=1")</f>
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="S122" s="1">
-        <f>SUMIF(C$109:C122,"=1")/SUMIF(C$109:C$138,"=1")</f>
-        <v>0.53846153846153844</v>
-      </c>
-    </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
-        <v>15</v>
-      </c>
-      <c r="B123" s="1">
-        <v>1</v>
-      </c>
-      <c r="C123" s="1">
-        <v>1</v>
-      </c>
-      <c r="J123" s="1">
-        <f>SUM(B$109:B123)/A123</f>
-        <v>0.6</v>
-      </c>
-      <c r="K123" s="1">
-        <f>SUM(C$109:C123)/A123</f>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="N123" s="1">
-        <f t="shared" si="38"/>
-        <v>0.6</v>
-      </c>
-      <c r="O123" s="1">
-        <f t="shared" si="40"/>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="R123" s="1">
-        <f>SUMIF(B$109:B123,"=1")/SUMIF(B$109:B$138,"=1")</f>
-        <v>0.81818181818181823</v>
-      </c>
-      <c r="S123" s="1">
-        <f>SUMIF(C$109:C123,"=1")/SUMIF(C$109:C$138,"=1")</f>
-        <v>0.61538461538461542</v>
-      </c>
-      <c r="W123" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X123" s="5"/>
-    </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
-        <v>16</v>
-      </c>
-      <c r="B124" s="1">
-        <v>0</v>
-      </c>
-      <c r="C124" s="1">
-        <v>0</v>
-      </c>
-      <c r="J124" s="1">
-        <f>SUM(B$109:B124)/A124</f>
-        <v>0.5625</v>
-      </c>
-      <c r="K124" s="1">
-        <f>SUM(C$109:C124)/A124</f>
-        <v>0.5</v>
-      </c>
-      <c r="N124" s="1">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="O124" s="1">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="R124" s="1">
-        <f>SUMIF(B$109:B124,"=1")/SUMIF(B$109:B$138,"=1")</f>
-        <v>0.81818181818181823</v>
-      </c>
-      <c r="S124" s="1">
-        <f>SUMIF(C$109:C124,"=1")/SUMIF(C$109:C$138,"=1")</f>
-        <v>0.61538461538461542</v>
-      </c>
-      <c r="V124" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W124" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="X124" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
-        <v>17</v>
-      </c>
-      <c r="B125" s="1">
-        <v>0</v>
-      </c>
-      <c r="C125" s="1">
-        <v>0</v>
-      </c>
-      <c r="J125" s="1">
-        <f>SUM(B$109:B125)/A125</f>
-        <v>0.52941176470588236</v>
-      </c>
-      <c r="K125" s="1">
-        <f>SUM(C$109:C125)/A125</f>
-        <v>0.47058823529411764</v>
-      </c>
-      <c r="N125" s="1">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="O125" s="1">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="R125" s="1">
-        <f>SUMIF(B$109:B125,"=1")/SUMIF(B$109:B$138,"=1")</f>
-        <v>0.81818181818181823</v>
-      </c>
-      <c r="S125" s="1">
-        <f>SUMIF(C$109:C125,"=1")/SUMIF(C$109:C$138,"=1")</f>
-        <v>0.61538461538461542</v>
-      </c>
-      <c r="V125" s="4">
-        <v>0</v>
-      </c>
-      <c r="W125" s="1">
-        <f>(1 + $V$2^2) * (W109*$V109/($V$2^2 * W109 +$V109))</f>
-        <v>0</v>
-      </c>
-      <c r="X125" s="1">
-        <f>(1 + $V$2^2) * (X109*$V109/($V$2^2 * X109 +$V109))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
-        <v>18</v>
-      </c>
-      <c r="B126" s="1">
-        <v>0</v>
-      </c>
-      <c r="C126" s="1">
-        <v>0</v>
-      </c>
-      <c r="J126" s="1">
-        <f>SUM(B$109:B126)/A126</f>
-        <v>0.5</v>
-      </c>
-      <c r="K126" s="1">
-        <f>SUM(C$109:C126)/A126</f>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="N126" s="1">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="O126" s="1">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="R126" s="1">
-        <f>SUMIF(B$109:B126,"=1")/SUMIF(B$109:B$138,"=1")</f>
-        <v>0.81818181818181823</v>
-      </c>
-      <c r="S126" s="1">
-        <f>SUMIF(C$109:C126,"=1")/SUMIF(C$109:C$138,"=1")</f>
-        <v>0.61538461538461542</v>
-      </c>
-      <c r="V126" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="W126" s="1">
-        <f t="shared" ref="W126:X126" si="41">(1 + $V$2^2) * (W110*$V110/($V$2^2 * W110 +$V110))</f>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="X126" s="1">
-        <f t="shared" si="41"/>
-        <v>0.17647058823529416</v>
-      </c>
-    </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
-        <v>19</v>
-      </c>
-      <c r="B127" s="1">
-        <v>0</v>
-      </c>
-      <c r="C127" s="1">
-        <v>0</v>
-      </c>
-      <c r="J127" s="1">
-        <f>SUM(B$109:B127)/A127</f>
-        <v>0.47368421052631576</v>
-      </c>
-      <c r="K127" s="1">
-        <f>SUM(C$109:C127)/A127</f>
-        <v>0.42105263157894735</v>
-      </c>
-      <c r="N127" s="1">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="O127" s="1">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="R127" s="1">
-        <f>SUMIF(B$109:B127,"=1")/SUMIF(B$109:B$138,"=1")</f>
-        <v>0.81818181818181823</v>
-      </c>
-      <c r="S127" s="1">
-        <f>SUMIF(C$109:C127,"=1")/SUMIF(C$109:C$138,"=1")</f>
-        <v>0.61538461538461542</v>
-      </c>
-      <c r="V127" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="W127" s="1">
-        <f t="shared" ref="W127:X127" si="42">(1 + $V$2^2) * (W111*$V111/($V$2^2 * W111 +$V111))</f>
-        <v>0.31111111111111112</v>
-      </c>
-      <c r="X127" s="1">
-        <f t="shared" si="42"/>
-        <v>0.31578947368421056</v>
-      </c>
-    </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
-        <v>20</v>
-      </c>
-      <c r="B128" s="1">
-        <v>1</v>
-      </c>
-      <c r="C128" s="1">
-        <v>0</v>
-      </c>
-      <c r="J128" s="1">
-        <f>SUM(B$109:B128)/A128</f>
-        <v>0.5</v>
-      </c>
-      <c r="K128" s="1">
-        <f>SUM(C$109:C128)/A128</f>
-        <v>0.4</v>
-      </c>
-      <c r="N128" s="1">
-        <f t="shared" si="38"/>
-        <v>0.5</v>
-      </c>
-      <c r="O128" s="1">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="R128" s="1">
-        <f>SUMIF(B$109:B128,"=1")/SUMIF(B$109:B$138,"=1")</f>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="S128" s="1">
-        <f>SUMIF(C$109:C128,"=1")/SUMIF(C$109:C$138,"=1")</f>
-        <v>0.61538461538461542</v>
-      </c>
-      <c r="V128" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="W128" s="1">
-        <f t="shared" ref="W128:X128" si="43">(1 + $V$2^2) * (W112*$V112/($V$2^2 * W112 +$V112))</f>
-        <v>0.42</v>
-      </c>
-      <c r="X128" s="1">
-        <f t="shared" si="43"/>
-        <v>0.42253521126760563</v>
-      </c>
-    </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
-        <v>21</v>
-      </c>
-      <c r="B129" s="1">
-        <v>0</v>
-      </c>
-      <c r="C129" s="1">
-        <v>0</v>
-      </c>
-      <c r="J129" s="1">
-        <f>SUM(B$109:B129)/A129</f>
-        <v>0.47619047619047616</v>
-      </c>
-      <c r="K129" s="1">
-        <f>SUM(C$109:C129)/A129</f>
-        <v>0.38095238095238093</v>
-      </c>
-      <c r="N129" s="1">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="O129" s="1">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="R129" s="1">
-        <f>SUMIF(B$109:B129,"=1")/SUMIF(B$109:B$138,"=1")</f>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="S129" s="1">
-        <f>SUMIF(C$109:C129,"=1")/SUMIF(C$109:C$138,"=1")</f>
-        <v>0.61538461538461542</v>
-      </c>
-      <c r="V129" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="W129" s="1">
-        <f t="shared" ref="W129:X129" si="44">(1 + $V$2^2) * (W113*$V113/($V$2^2 * W113 +$V113))</f>
-        <v>0.50909090909090904</v>
-      </c>
-      <c r="X129" s="1">
-        <f t="shared" si="44"/>
-        <v>0.47457627118644069</v>
-      </c>
-    </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
-        <v>22</v>
-      </c>
-      <c r="B130" s="1">
-        <v>0</v>
-      </c>
-      <c r="C130" s="1">
-        <v>1</v>
-      </c>
-      <c r="J130" s="1">
-        <f>SUM(B$109:B130)/A130</f>
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="K130" s="1">
-        <f>SUM(C$109:C130)/A130</f>
-        <v>0.40909090909090912</v>
-      </c>
-      <c r="N130" s="1">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="O130" s="1">
-        <f t="shared" si="40"/>
-        <v>0.40909090909090912</v>
-      </c>
-      <c r="R130" s="1">
-        <f>SUMIF(B$109:B130,"=1")/SUMIF(B$109:B$138,"=1")</f>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="S130" s="1">
-        <f>SUMIF(C$109:C130,"=1")/SUMIF(C$109:C$138,"=1")</f>
-        <v>0.69230769230769229</v>
-      </c>
-      <c r="V130" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="W130" s="1">
-        <f t="shared" ref="W130:X130" si="45">(1 + $V$2^2) * (W114*$V114/($V$2^2 * W114 +$V114))</f>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="X130" s="1">
-        <f t="shared" si="45"/>
-        <v>0.53846153846153844</v>
-      </c>
-    </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
-        <v>23</v>
-      </c>
-      <c r="B131" s="1">
-        <v>0</v>
-      </c>
-      <c r="C131" s="1">
-        <v>1</v>
-      </c>
-      <c r="J131" s="1">
-        <f>SUM(B$109:B131)/A131</f>
-        <v>0.43478260869565216</v>
-      </c>
-      <c r="K131" s="1">
-        <f>SUM(C$109:C131)/A131</f>
-        <v>0.43478260869565216</v>
-      </c>
-      <c r="N131" s="1">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="O131" s="1">
-        <f t="shared" si="40"/>
-        <v>0.43478260869565216</v>
-      </c>
-      <c r="R131" s="1">
-        <f>SUMIF(B$109:B131,"=1")/SUMIF(B$109:B$138,"=1")</f>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="S131" s="1">
-        <f>SUMIF(C$109:C131,"=1")/SUMIF(C$109:C$138,"=1")</f>
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="V131" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="W131" s="1">
-        <f t="shared" ref="W131:X131" si="46">(1 + $V$2^2) * (W115*$V115/($V$2^2 * W115 +$V115))</f>
-        <v>0.64615384615384619</v>
-      </c>
-      <c r="X131" s="1">
-        <f t="shared" si="46"/>
-        <v>0.56470588235294117</v>
-      </c>
-    </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
-        <v>24</v>
-      </c>
-      <c r="B132" s="1">
-        <v>1</v>
-      </c>
-      <c r="C132" s="1">
-        <v>0</v>
-      </c>
-      <c r="J132" s="1">
-        <f>SUM(B$109:B132)/A132</f>
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="K132" s="1">
-        <f>SUM(C$109:C132)/A132</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="N132" s="1">
-        <f t="shared" si="38"/>
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="O132" s="1">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="R132" s="1">
-        <f>SUMIF(B$109:B132,"=1")/SUMIF(B$109:B$138,"=1")</f>
-        <v>1</v>
-      </c>
-      <c r="S132" s="1">
-        <f>SUMIF(C$109:C132,"=1")/SUMIF(C$109:C$138,"=1")</f>
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="V132" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="W132" s="1">
-        <f t="shared" ref="W132:X132" si="47">(1 + $V$2^2) * (W116*$V116/($V$2^2 * W116 +$V116))</f>
-        <v>0.64615384615384619</v>
-      </c>
-      <c r="X132" s="1">
-        <f t="shared" si="47"/>
-        <v>0.54654654654654644</v>
-      </c>
-    </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
-        <v>25</v>
-      </c>
-      <c r="B133" s="1">
-        <v>0</v>
-      </c>
-      <c r="C133" s="1">
-        <v>0</v>
-      </c>
-      <c r="J133" s="1">
-        <f>SUM(B$109:B133)/A133</f>
-        <v>0.44</v>
-      </c>
-      <c r="K133" s="1">
-        <f>SUM(C$109:C133)/A133</f>
-        <v>0.4</v>
-      </c>
-      <c r="N133" s="1">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="O133" s="1">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="R133" s="1">
-        <f>SUMIF(B$109:B133,"=1")/SUMIF(B$109:B$138,"=1")</f>
-        <v>1</v>
-      </c>
-      <c r="S133" s="1">
-        <f>SUMIF(C$109:C133,"=1")/SUMIF(C$109:C$138,"=1")</f>
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="V133" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="W133" s="1">
-        <f t="shared" ref="W133:X133" si="48">(1 + $V$2^2) * (W117*$V117/($V$2^2 * W117 +$V117))</f>
-        <v>0.68571428571428572</v>
-      </c>
-      <c r="X133" s="1">
-        <f t="shared" si="48"/>
-        <v>0.57458563535911611</v>
-      </c>
-    </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
-        <v>26</v>
-      </c>
-      <c r="B134" s="1">
-        <v>0</v>
-      </c>
-      <c r="C134" s="1">
-        <v>1</v>
-      </c>
-      <c r="J134" s="1">
-        <f>SUM(B$109:B134)/A134</f>
-        <v>0.42307692307692307</v>
-      </c>
-      <c r="K134" s="1">
-        <f>SUM(C$109:C134)/A134</f>
-        <v>0.42307692307692307</v>
-      </c>
-      <c r="N134" s="1">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="O134" s="1">
-        <f t="shared" si="40"/>
-        <v>0.42307692307692307</v>
-      </c>
-      <c r="R134" s="1">
-        <f>SUMIF(B$109:B134,"=1")/SUMIF(B$109:B$138,"=1")</f>
-        <v>1</v>
-      </c>
-      <c r="S134" s="1">
-        <f>SUMIF(C$109:C134,"=1")/SUMIF(C$109:C$138,"=1")</f>
-        <v>0.84615384615384615</v>
-      </c>
-      <c r="V134" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="W134" s="1">
-        <f t="shared" ref="W134:X134" si="49">(1 + $V$2^2) * (W118*$V118/($V$2^2 * W118 +$V118))</f>
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="X134" s="1">
-        <f t="shared" si="49"/>
-        <v>0.59846547314578002</v>
-      </c>
-    </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A135" s="1">
-        <v>27</v>
-      </c>
-      <c r="B135" s="1">
-        <v>0</v>
-      </c>
-      <c r="C135" s="1">
-        <v>0</v>
-      </c>
-      <c r="J135" s="1">
-        <f>SUM(B$109:B135)/A135</f>
-        <v>0.40740740740740738</v>
-      </c>
-      <c r="K135" s="1">
-        <f>SUM(C$109:C135)/A135</f>
-        <v>0.40740740740740738</v>
-      </c>
-      <c r="N135" s="1">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="O135" s="1">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="R135" s="1">
-        <f>SUMIF(B$109:B135,"=1")/SUMIF(B$109:B$138,"=1")</f>
-        <v>1</v>
-      </c>
-      <c r="S135" s="1">
-        <f>SUMIF(C$109:C135,"=1")/SUMIF(C$109:C$138,"=1")</f>
-        <v>0.84615384615384615</v>
-      </c>
-      <c r="V135" s="4">
-        <v>1</v>
-      </c>
-      <c r="W135" s="1">
-        <f t="shared" ref="W135:X135" si="50">(1 + $V$2^2) * (W119*$V119/($V$2^2 * W119 +$V119))</f>
-        <v>0.62857142857142856</v>
-      </c>
-      <c r="X135" s="1">
-        <f t="shared" si="50"/>
-        <v>0.61904761904761907</v>
-      </c>
-    </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A136" s="1">
-        <v>28</v>
-      </c>
-      <c r="B136" s="1">
-        <v>0</v>
-      </c>
-      <c r="C136" s="1">
-        <v>1</v>
-      </c>
-      <c r="J136" s="1">
-        <f>SUM(B$109:B136)/A136</f>
-        <v>0.39285714285714285</v>
-      </c>
-      <c r="K136" s="1">
-        <f>SUM(C$109:C136)/A136</f>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="N136" s="1">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="O136" s="1">
-        <f t="shared" si="40"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="R136" s="1">
-        <f>SUMIF(B$109:B136,"=1")/SUMIF(B$109:B$138,"=1")</f>
-        <v>1</v>
-      </c>
-      <c r="S136" s="1">
-        <f>SUMIF(C$109:C136,"=1")/SUMIF(C$109:C$138,"=1")</f>
-        <v>0.92307692307692313</v>
-      </c>
-    </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A137" s="1">
-        <v>29</v>
-      </c>
-      <c r="B137" s="1">
-        <v>0</v>
-      </c>
-      <c r="C137" s="1">
-        <v>1</v>
-      </c>
-      <c r="J137" s="1">
-        <f>SUM(B$109:B137)/A137</f>
-        <v>0.37931034482758619</v>
-      </c>
-      <c r="K137" s="1">
-        <f>SUM(C$109:C137)/A137</f>
-        <v>0.44827586206896552</v>
-      </c>
-      <c r="N137" s="1">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="O137" s="1">
-        <f t="shared" si="40"/>
-        <v>0.44827586206896552</v>
-      </c>
-      <c r="R137" s="1">
-        <f>SUMIF(B$109:B137,"=1")/SUMIF(B$109:B$138,"=1")</f>
-        <v>1</v>
-      </c>
-      <c r="S137" s="1">
-        <f>SUMIF(C$109:C137,"=1")/SUMIF(C$109:C$138,"=1")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
-        <v>30</v>
-      </c>
-      <c r="B138" s="1">
-        <v>0</v>
-      </c>
-      <c r="C138" s="1">
-        <v>0</v>
-      </c>
-      <c r="J138" s="1">
-        <f>SUM(B$109:B138)/A138</f>
-        <v>0.36666666666666664</v>
-      </c>
-      <c r="K138" s="1">
-        <f>SUM(C$109:C138)/A138</f>
-        <v>0.43333333333333335</v>
-      </c>
-      <c r="N138" s="1">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="O138" s="1">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="R138" s="1">
-        <f>SUMIF(B$109:B138,"=1")/SUMIF(B$109:B$138,"=1")</f>
-        <v>1</v>
-      </c>
-      <c r="S138" s="1">
-        <f>SUMIF(C$109:C138,"=1")/SUMIF(C$109:C$138,"=1")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="I139" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J139" s="6">
-        <f>AVERAGE(J109:J138)</f>
-        <v>0.47582606612828299</v>
-      </c>
-      <c r="K139" s="6">
-        <f>AVERAGE(K109:K138)</f>
-        <v>0.52323333949795103</v>
-      </c>
-    </row>
-    <row r="142" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="I142" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J142" s="6">
-        <f>AVERAGE(J104,J139,J69,J34)</f>
-        <v>0.39787399084009939</v>
-      </c>
-      <c r="K142" s="6">
-        <f>AVERAGE(K139,K104,K69,K34)</f>
-        <v>0.58238455039329395</v>
-      </c>
-    </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="E143" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="145" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="F145" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="5"/>
-    </row>
-    <row r="146" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E146" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E147" s="4">
-        <v>0</v>
-      </c>
-      <c r="F147" s="1">
-        <f>AVERAGE(W4,W39,W74,W109)</f>
-        <v>0.52916666666666656</v>
-      </c>
-      <c r="G147" s="1">
-        <f>AVERAGE(X4,X39,X74,X109)</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="J147" s="5"/>
-      <c r="K147" s="5"/>
-    </row>
-    <row r="148" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E148" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="F148" s="1">
-        <f t="shared" ref="F148:G148" si="51">AVERAGE(W5,W40,W75,W110)</f>
-        <v>0.52916666666666656</v>
-      </c>
-      <c r="G148" s="1">
-        <f t="shared" si="51"/>
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="I148" s="2"/>
-      <c r="J148" s="2"/>
-      <c r="K148" s="2"/>
-    </row>
-    <row r="149" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E149" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="F149" s="1">
-        <f t="shared" ref="F149:G149" si="52">AVERAGE(W6,W41,W76,W111)</f>
-        <v>0.52916666666666656</v>
-      </c>
-      <c r="G149" s="1">
-        <f t="shared" si="52"/>
-        <v>0.85416666666666663</v>
-      </c>
-    </row>
-    <row r="150" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E150" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="F150" s="1">
-        <f t="shared" ref="F150:G150" si="53">AVERAGE(W7,W42,W77,W112)</f>
-        <v>0.52916666666666656</v>
-      </c>
-      <c r="G150" s="1">
-        <f t="shared" si="53"/>
-        <v>0.84523809523809523</v>
-      </c>
-    </row>
-    <row r="151" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E151" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="F151" s="1">
-        <f t="shared" ref="F151:G151" si="54">AVERAGE(W8,W43,W78,W113)</f>
-        <v>0.52916666666666656</v>
-      </c>
-      <c r="G151" s="1">
-        <f t="shared" si="54"/>
-        <v>0.8125</v>
-      </c>
-    </row>
-    <row r="152" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E152" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F152" s="1">
-        <f t="shared" ref="F152:G152" si="55">AVERAGE(W9,W44,W79,W114)</f>
-        <v>0.52916666666666656</v>
-      </c>
-      <c r="G152" s="1">
-        <f t="shared" si="55"/>
-        <v>0.8125</v>
-      </c>
-    </row>
-    <row r="153" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E153" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="F153" s="1">
-        <f t="shared" ref="F153:G153" si="56">AVERAGE(W10,W45,W80,W115)</f>
-        <v>0.52916666666666656</v>
-      </c>
-      <c r="G153" s="1">
-        <f t="shared" si="56"/>
-        <v>0.77916666666666667</v>
-      </c>
-    </row>
-    <row r="154" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E154" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="F154" s="1">
-        <f t="shared" ref="F154:G154" si="57">AVERAGE(W11,W46,W81,W116)</f>
-        <v>0.50416666666666665</v>
-      </c>
-      <c r="G154" s="1">
-        <f t="shared" si="57"/>
-        <v>0.75790229885057481</v>
-      </c>
-    </row>
-    <row r="155" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E155" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="F155" s="1">
-        <f t="shared" ref="F155:G155" si="58">AVERAGE(W12,W47,W82,W117)</f>
-        <v>0.50416666666666665</v>
-      </c>
-      <c r="G155" s="1">
-        <f t="shared" si="58"/>
-        <v>0.75790229885057481</v>
-      </c>
-    </row>
-    <row r="156" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E156" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="F156" s="1">
-        <f t="shared" ref="F156:G156" si="59">AVERAGE(W13,W48,W83,W118)</f>
-        <v>0.47916666666666663</v>
-      </c>
-      <c r="G156" s="1">
-        <f t="shared" si="59"/>
-        <v>0.57734674329501923</v>
-      </c>
-    </row>
-    <row r="157" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E157" s="4">
-        <v>1</v>
-      </c>
-      <c r="F157" s="1">
-        <f t="shared" ref="F157:G157" si="60">AVERAGE(W14,W49,W84,W119)</f>
-        <v>0.46874999999999994</v>
-      </c>
-      <c r="G157" s="1">
-        <f t="shared" si="60"/>
-        <v>0.57734674329501923</v>
-      </c>
-    </row>
-    <row r="167" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E167" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="169" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F169" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G169" s="5"/>
-    </row>
-    <row r="170" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E170" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E171" s="4">
-        <v>0</v>
-      </c>
-      <c r="F171" s="1">
-        <f>AVERAGE(W109,W39,W4)</f>
-        <v>0.37222222222222223</v>
-      </c>
-      <c r="G171" s="1">
-        <f>AVERAGE(X109,X39,X4)</f>
-        <v>0.88888888888888884</v>
-      </c>
-    </row>
-    <row r="172" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E172" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="F172" s="1">
-        <f t="shared" ref="F172:G172" si="61">AVERAGE(W110,W40,W5)</f>
-        <v>0.37222222222222223</v>
-      </c>
-      <c r="G172" s="1">
-        <f t="shared" si="61"/>
-        <v>0.80555555555555547</v>
-      </c>
-    </row>
-    <row r="173" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E173" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="F173" s="1">
-        <f t="shared" ref="F173:G173" si="62">AVERAGE(W111,W41,W6)</f>
-        <v>0.37222222222222223</v>
-      </c>
-      <c r="G173" s="1">
-        <f t="shared" si="62"/>
-        <v>0.80555555555555547</v>
-      </c>
-    </row>
-    <row r="174" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E174" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="F174" s="1">
-        <f t="shared" ref="F174:G174" si="63">AVERAGE(W112,W42,W7)</f>
-        <v>0.37222222222222223</v>
-      </c>
-      <c r="G174" s="1">
-        <f t="shared" si="63"/>
-        <v>0.79365079365079361</v>
-      </c>
-    </row>
-    <row r="175" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E175" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="F175" s="1">
-        <f t="shared" ref="F175:G175" si="64">AVERAGE(W113,W43,W8)</f>
-        <v>0.37222222222222223</v>
-      </c>
-      <c r="G175" s="1">
-        <f t="shared" si="64"/>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="176" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E176" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F176" s="1">
-        <f t="shared" ref="F176:G176" si="65">AVERAGE(W114,W44,W9)</f>
-        <v>0.37222222222222223</v>
-      </c>
-      <c r="G176" s="1">
-        <f t="shared" si="65"/>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="177" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E177" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="F177" s="1">
-        <f t="shared" ref="F177:G177" si="66">AVERAGE(W115,W45,W10)</f>
-        <v>0.37222222222222223</v>
-      </c>
-      <c r="G177" s="1">
-        <f t="shared" si="66"/>
-        <v>0.7055555555555556</v>
-      </c>
-    </row>
-    <row r="178" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E178" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="F178" s="1">
-        <f t="shared" ref="F178:G178" si="67">AVERAGE(W116,W46,W11)</f>
-        <v>0.33888888888888885</v>
-      </c>
-      <c r="G178" s="1">
-        <f t="shared" si="67"/>
-        <v>0.67720306513409956</v>
-      </c>
-    </row>
-    <row r="179" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E179" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="F179" s="1">
-        <f t="shared" ref="F179:G179" si="68">AVERAGE(W117,W47,W12)</f>
-        <v>0.33888888888888885</v>
-      </c>
-      <c r="G179" s="1">
-        <f t="shared" si="68"/>
-        <v>0.67720306513409956</v>
-      </c>
-    </row>
-    <row r="180" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E180" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="F180" s="1">
-        <f t="shared" ref="F180:G180" si="69">AVERAGE(W118,W48,W13)</f>
-        <v>0.30555555555555558</v>
-      </c>
-      <c r="G180" s="1">
-        <f t="shared" si="69"/>
-        <v>0.4364623243933588</v>
-      </c>
-    </row>
-    <row r="181" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E181" s="4">
-        <v>1</v>
-      </c>
-      <c r="F181" s="1">
-        <f t="shared" ref="F181:G181" si="70">AVERAGE(W119,W49,W14)</f>
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="G181" s="1">
-        <f t="shared" si="70"/>
-        <v>0.4364623243933588</v>
+      <c r="F210" s="1">
+        <f>AVERAGE(W148,W48,W13)</f>
+        <v>0.30417295123177479</v>
+      </c>
+      <c r="G210" s="1">
+        <f>AVERAGE(X148,X48,X13)</f>
+        <v>0.49550224887556221</v>
+      </c>
+    </row>
+    <row r="211" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E211" s="4">
+        <v>1</v>
+      </c>
+      <c r="F211" s="1">
+        <f>AVERAGE(W149,W49,W14)</f>
+        <v>0.30417295123177479</v>
+      </c>
+      <c r="G211" s="1">
+        <f>AVERAGE(X149,X49,X14)</f>
+        <v>0.45066289606519488</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="W123:X123"/>
-    <mergeCell ref="W53:X53"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="W88:X88"/>
-    <mergeCell ref="F169:G169"/>
+    <mergeCell ref="F199:G199"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="J37:K37"/>
     <mergeCell ref="N37:O37"/>
@@ -14772,12 +15813,19 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="W72:X72"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="N107:O107"/>
-    <mergeCell ref="R107:S107"/>
-    <mergeCell ref="W107:X107"/>
-    <mergeCell ref="J147:K147"/>
-    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="J137:K137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="R137:S137"/>
+    <mergeCell ref="W137:X137"/>
+    <mergeCell ref="J177:K177"/>
+    <mergeCell ref="F175:G175"/>
+    <mergeCell ref="W153:X153"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="W88:X88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/solr/Evaluation.xlsx
+++ b/solr/Evaluation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\up202004907\Documents\GitHub\PRI\solr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PRI\solr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CEB498-2C75-41C1-AC24-C5B0766C79F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7339FB3-32F8-4592-B6F4-CE05161645E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F5A3B19-910C-4A1F-9359-A2D6231D0330}"/>
   </bookViews>
@@ -97,7 +97,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1114,37 +1114,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.52254901960784317</c:v>
+                  <c:v>0.62254901960784315</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52254901960784317</c:v>
+                  <c:v>0.62254901960784315</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52254901960784317</c:v>
+                  <c:v>0.62254901960784315</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52254901960784317</c:v>
+                  <c:v>0.62254901960784315</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.40980392156862749</c:v>
+                  <c:v>0.50980392156862742</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.40980392156862749</c:v>
+                  <c:v>0.37647058823529411</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.37647058823529411</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.37647058823529411</c:v>
+                  <c:v>0.30980392156862746</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.31699346405228757</c:v>
+                  <c:v>0.2836601307189543</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.30417295123177479</c:v>
+                  <c:v>0.26143790849673199</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.30417295123177479</c:v>
+                  <c:v>0.26143790849673199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1231,28 +1231,28 @@
                   <c:v>0.88888888888888884</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84126984126984128</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69444444444444453</c:v>
+                  <c:v>0.7055555555555556</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.63888888888888884</c:v>
+                  <c:v>0.62301587301587302</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.58496732026143794</c:v>
+                  <c:v>0.59523809523809534</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.49550224887556221</c:v>
+                  <c:v>0.51794340924775706</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.49550224887556221</c:v>
+                  <c:v>0.51794340924775706</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.49550224887556221</c:v>
+                  <c:v>0.51449275362318836</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.45066289606519488</c:v>
+                  <c:v>0.45906254239587568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3189,34 +3189,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17499999999999999</c:v>
+                  <c:v>0.18181818181818182</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31111111111111112</c:v>
+                  <c:v>0.33333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42</c:v>
+                  <c:v>0.46153846153846151</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.50909090909090904</c:v>
+                  <c:v>0.57142857142857151</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.58333333333333337</c:v>
+                  <c:v>0.54545454545454541</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.64615384615384619</c:v>
+                  <c:v>0.50909090909090904</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61538461538461542</c:v>
+                  <c:v>0.53333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.61016949152542377</c:v>
+                  <c:v>0.48648648648648646</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.63157894736842102</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3295,28 +3295,28 @@
                   <c:v>0.33333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.44444444444444442</c:v>
+                  <c:v>0.44117647058823528</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0.50909090909090904</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.57142857142857151</c:v>
+                  <c:v>0.55319148936170215</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59405940594059414</c:v>
+                  <c:v>0.609375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.61707988980716255</c:v>
+                  <c:v>0.65703971119133575</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.65306122448979587</c:v>
+                  <c:v>0.69798657718120805</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.68408551068883605</c:v>
+                  <c:v>0.72622478386167155</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.71111111111111114</c:v>
+                  <c:v>0.73170731707317072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6626,94 +6626,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.25</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5714285714285714</c:v>
+                  <c:v>0.42857142857142855</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.625</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.63636363636363635</c:v>
+                  <c:v>0.36363636363636365</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.58333333333333337</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.53846153846153844</c:v>
+                  <c:v>0.30769230769230771</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5714285714285714</c:v>
+                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.6</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.5625</c:v>
+                  <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.52941176470588236</c:v>
+                  <c:v>0.29411764705882354</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5</c:v>
+                  <c:v>0.27777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.47368421052631576</c:v>
+                  <c:v>0.26315789473684209</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.5</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.47619047619047616</c:v>
+                  <c:v>0.23809523809523808</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.45454545454545453</c:v>
+                  <c:v>0.22727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.43478260869565216</c:v>
+                  <c:v>0.21739130434782608</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.45833333333333331</c:v>
+                  <c:v>0.20833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.44</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.46153846153846156</c:v>
+                  <c:v>0.19230769230769232</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.44444444444444442</c:v>
+                  <c:v>0.18518518518518517</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.42857142857142855</c:v>
+                  <c:v>0.17857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.41379310344827586</c:v>
+                  <c:v>0.17241379310344829</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.4</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6868,76 +6868,76 @@
                   <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8571428571428571</c:v>
+                  <c:v>0.7142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.75</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.6</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.63636363636363635</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.58333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.61538461538461542</c:v>
+                  <c:v>0.53846153846153844</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5714285714285714</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.6</c:v>
+                  <c:v>0.53333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.5625</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.58823529411764708</c:v>
+                  <c:v>0.52941176470588236</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.52631578947368418</c:v>
+                  <c:v>0.57894736842105265</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.47619047619047616</c:v>
+                  <c:v>0.61904761904761907</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.5</c:v>
+                  <c:v>0.59090909090909094</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.52173913043478259</c:v>
+                  <c:v>0.60869565217391308</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.5</c:v>
+                  <c:v>0.58333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.48</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.5</c:v>
+                  <c:v>0.57692307692307687</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.51851851851851849</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.5357142857142857</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.55172413793103448</c:v>
+                  <c:v>0.51724137931034486</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.53333333333333333</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7335,37 +7335,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.46153846153846156</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.46153846153846156</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7452,28 +7452,28 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8571428571428571</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.61904761904761907</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.58823529411764708</c:v>
+                  <c:v>0.61904761904761907</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.55172413793103448</c:v>
+                  <c:v>0.61904761904761907</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.55172413793103448</c:v>
+                  <c:v>0.61904761904761907</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.55172413793103448</c:v>
+                  <c:v>0.60869565217391308</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.55172413793103448</c:v>
+                  <c:v>0.57692307692307687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7767,37 +7767,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.64191176470588229</c:v>
+                  <c:v>0.71691176470588236</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64191176470588229</c:v>
+                  <c:v>0.71691176470588236</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64191176470588229</c:v>
+                  <c:v>0.71691176470588236</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64191176470588229</c:v>
+                  <c:v>0.71691176470588236</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55735294117647061</c:v>
+                  <c:v>0.63235294117647056</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.55735294117647061</c:v>
+                  <c:v>0.53235294117647058</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.53235294117647058</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.51806722689075635</c:v>
+                  <c:v>0.4680672268907563</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.46552287581699348</c:v>
+                  <c:v>0.44052287581699345</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.45153396874298002</c:v>
+                  <c:v>0.41948268669169791</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.4197963800904978</c:v>
+                  <c:v>0.3877450980392157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7884,28 +7884,28 @@
                   <c:v>0.91666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88095238095238093</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77083333333333337</c:v>
+                  <c:v>0.77916666666666679</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.72916666666666663</c:v>
+                  <c:v>0.71726190476190477</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.68872549019607854</c:v>
+                  <c:v>0.69642857142857151</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6073409723709573</c:v>
+                  <c:v>0.6241718426501035</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.59940446443444939</c:v>
+                  <c:v>0.61623533471359559</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.59503094197582063</c:v>
+                  <c:v>0.60927382053654022</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.52966383871556277</c:v>
+                  <c:v>0.53596357346357348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8849,23 +8849,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90E2CE5-2754-4DEC-9740-5E5101C42739}">
   <dimension ref="A1:Y211"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="22" width="9.140625" style="1"/>
     <col min="23" max="23" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="15">
       <c r="J2" s="8" t="s">
         <v>7</v>
       </c>
@@ -8892,7 +8892,7 @@
       <c r="X2" s="8"/>
       <c r="Y2"/>
     </row>
-    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -9023,7 +9023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>0.39285714285714285</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -9581,7 +9581,7 @@
       </c>
       <c r="X18" s="8"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -9671,7 +9671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -9717,7 +9717,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>0.33333333333333337</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>0.46153846153846151</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>0.54054054054054057</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>0.57142857142857151</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>0.59154929577464799</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -9993,7 +9993,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>0.61538461538461542</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>0.6428571428571429</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -10131,7 +10131,7 @@
         <v>0.5641025641025641</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -10166,7 +10166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="15">
       <c r="I34" s="5" t="s">
         <v>8</v>
       </c>
@@ -10249,12 +10249,12 @@
         <v>0.57388667581634378</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="15">
       <c r="J37" s="8" t="s">
         <v>7</v>
       </c>
@@ -10274,7 +10274,7 @@
       </c>
       <c r="X37" s="8"/>
     </row>
-    <row r="38" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="15">
       <c r="A38" s="2" t="s">
         <v>0</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24">
       <c r="A41" s="1">
         <v>3</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24">
       <c r="A42" s="1">
         <v>4</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24">
       <c r="A43" s="1">
         <v>5</v>
       </c>
@@ -10543,7 +10543,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24">
       <c r="A44" s="1">
         <v>6</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24">
       <c r="A45" s="1">
         <v>7</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24">
       <c r="A46" s="1">
         <v>8</v>
       </c>
@@ -10681,7 +10681,7 @@
         <v>0.43478260869565216</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24">
       <c r="A47" s="1">
         <v>9</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>0.43478260869565216</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24">
       <c r="A48" s="1">
         <v>10</v>
       </c>
@@ -10773,7 +10773,7 @@
         <v>0.43478260869565216</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24">
       <c r="A49" s="1">
         <v>11</v>
       </c>
@@ -10819,7 +10819,7 @@
         <v>0.40740740740740738</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24">
       <c r="A50" s="1">
         <v>12</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24">
       <c r="A51" s="1">
         <v>13</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24">
       <c r="A52" s="1">
         <v>14</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24">
       <c r="A53" s="1">
         <v>15</v>
       </c>
@@ -10963,7 +10963,7 @@
       </c>
       <c r="X53" s="8"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24">
       <c r="A54" s="1">
         <v>16</v>
       </c>
@@ -11007,7 +11007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24">
       <c r="A55" s="1">
         <v>17</v>
       </c>
@@ -11053,7 +11053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24">
       <c r="A56" s="1">
         <v>18</v>
       </c>
@@ -11099,7 +11099,7 @@
         <v>0.17391304347826089</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24">
       <c r="A57" s="1">
         <v>19</v>
       </c>
@@ -11145,7 +11145,7 @@
         <v>0.30769230769230765</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24">
       <c r="A58" s="1">
         <v>20</v>
       </c>
@@ -11191,7 +11191,7 @@
         <v>0.41379310344827586</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24">
       <c r="A59" s="1">
         <v>21</v>
       </c>
@@ -11237,7 +11237,7 @@
         <v>0.47457627118644069</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24">
       <c r="A60" s="1">
         <v>22</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24">
       <c r="A61" s="1">
         <v>23</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>0.59154929577464799</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24">
       <c r="A62" s="1">
         <v>24</v>
       </c>
@@ -11375,7 +11375,7 @@
         <v>0.53639846743295017</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24">
       <c r="A63" s="1">
         <v>25</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>0.56338028169014087</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24">
       <c r="A64" s="1">
         <v>26</v>
       </c>
@@ -11467,7 +11467,7 @@
         <v>0.58631921824104238</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24">
       <c r="A65" s="1">
         <v>27</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>0.57894736842105254</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24">
       <c r="A66" s="1">
         <v>28</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24">
       <c r="A67" s="1">
         <v>29</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24">
       <c r="A68" s="1">
         <v>30</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" ht="15">
       <c r="I69" s="5" t="s">
         <v>8</v>
       </c>
@@ -11631,12 +11631,12 @@
         <v>0.44271149459730275</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" ht="15">
       <c r="J72" s="8" t="s">
         <v>7</v>
       </c>
@@ -11656,7 +11656,7 @@
       </c>
       <c r="X72" s="8"/>
     </row>
-    <row r="73" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" ht="15">
       <c r="A73" s="2" t="s">
         <v>0</v>
       </c>
@@ -11695,7 +11695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24">
       <c r="A74" s="1">
         <v>1</v>
       </c>
@@ -11741,7 +11741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24">
       <c r="A75" s="1">
         <v>2</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24">
       <c r="A76" s="1">
         <v>3</v>
       </c>
@@ -11810,7 +11810,7 @@
         <v>1</v>
       </c>
       <c r="O76" s="1">
-        <f t="shared" ref="O76:O103" si="28">K76*C76</f>
+        <f t="shared" ref="O76:O102" si="28">K76*C76</f>
         <v>1</v>
       </c>
       <c r="R76" s="1">
@@ -11833,7 +11833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24">
       <c r="A77" s="1">
         <v>4</v>
       </c>
@@ -11879,7 +11879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24">
       <c r="A78" s="1">
         <v>5</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24">
       <c r="A79" s="1">
         <v>6</v>
       </c>
@@ -11971,7 +11971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24">
       <c r="A80" s="1">
         <v>7</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24">
       <c r="A81" s="1">
         <v>8</v>
       </c>
@@ -12063,7 +12063,7 @@
         <v>0.94285714285714284</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24">
       <c r="A82" s="1">
         <v>9</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>0.91111111111111109</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24">
       <c r="A83" s="1">
         <v>10</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>0.8936170212765957</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24">
       <c r="A84" s="1">
         <v>11</v>
       </c>
@@ -12201,7 +12201,7 @@
         <v>0.76666666666666672</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24">
       <c r="A85" s="1">
         <v>12</v>
       </c>
@@ -12236,7 +12236,7 @@
         <v>0.2608695652173913</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24">
       <c r="A86" s="1">
         <v>13</v>
       </c>
@@ -12271,7 +12271,7 @@
         <v>0.28260869565217389</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24">
       <c r="A87" s="1">
         <v>14</v>
       </c>
@@ -12306,7 +12306,7 @@
         <v>0.30434782608695654</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24">
       <c r="A88" s="1">
         <v>15</v>
       </c>
@@ -12345,7 +12345,7 @@
       </c>
       <c r="X88" s="8"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24">
       <c r="A89" s="1">
         <v>16</v>
       </c>
@@ -12389,7 +12389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24">
       <c r="A90" s="1">
         <v>17</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24">
       <c r="A91" s="1">
         <v>18</v>
       </c>
@@ -12481,7 +12481,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24">
       <c r="A92" s="1">
         <v>19</v>
       </c>
@@ -12527,7 +12527,7 @@
         <v>0.33333333333333337</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24">
       <c r="A93" s="1">
         <v>20</v>
       </c>
@@ -12573,7 +12573,7 @@
         <v>0.46153846153846151</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24">
       <c r="A94" s="1">
         <v>21</v>
       </c>
@@ -12619,7 +12619,7 @@
         <v>0.57142857142857151</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24">
       <c r="A95" s="1">
         <v>22</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24">
       <c r="A96" s="1">
         <v>23</v>
       </c>
@@ -12711,7 +12711,7 @@
         <v>0.74999999999999989</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24">
       <c r="A97" s="1">
         <v>24</v>
       </c>
@@ -12757,7 +12757,7 @@
         <v>0.8034782608695652</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24">
       <c r="A98" s="1">
         <v>25</v>
       </c>
@@ -12803,7 +12803,7 @@
         <v>0.8519480519480519</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24">
       <c r="A99" s="1">
         <v>26</v>
       </c>
@@ -12849,7 +12849,7 @@
         <v>0.89679715302491092</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24">
       <c r="A100" s="1">
         <v>27</v>
       </c>
@@ -12895,7 +12895,7 @@
         <v>0.86792452830188693</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24">
       <c r="A101" s="1">
         <v>28</v>
       </c>
@@ -12930,7 +12930,7 @@
         <v>0.60869565217391308</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24">
       <c r="A102" s="1">
         <v>29</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>0.63043478260869568</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24">
       <c r="A103" s="1">
         <v>30</v>
       </c>
@@ -13000,7 +13000,7 @@
         <v>0.65217391304347827</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24">
       <c r="A104" s="1">
         <v>31</v>
       </c>
@@ -13035,7 +13035,7 @@
         <v>0.65217391304347827</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24">
       <c r="A105" s="1">
         <v>32</v>
       </c>
@@ -13070,7 +13070,7 @@
         <v>0.65217391304347827</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24">
       <c r="A106" s="1">
         <v>33</v>
       </c>
@@ -13105,7 +13105,7 @@
         <v>0.67391304347826086</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24">
       <c r="A107" s="1">
         <v>34</v>
       </c>
@@ -13140,7 +13140,7 @@
         <v>0.69565217391304346</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24">
       <c r="A108" s="1">
         <v>35</v>
       </c>
@@ -13175,7 +13175,7 @@
         <v>0.71739130434782605</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24">
       <c r="A109" s="1">
         <v>36</v>
       </c>
@@ -13210,7 +13210,7 @@
         <v>0.71739130434782605</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24">
       <c r="A110" s="1">
         <v>37</v>
       </c>
@@ -13245,7 +13245,7 @@
         <v>0.71739130434782605</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24">
       <c r="A111" s="1">
         <v>38</v>
       </c>
@@ -13280,7 +13280,7 @@
         <v>0.73913043478260865</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24">
       <c r="A112" s="1">
         <v>39</v>
       </c>
@@ -13315,7 +13315,7 @@
         <v>0.76086956521739135</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19">
       <c r="A113" s="1">
         <v>40</v>
       </c>
@@ -13350,7 +13350,7 @@
         <v>0.78260869565217395</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19">
       <c r="A114" s="1">
         <v>41</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>0.80434782608695654</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19">
       <c r="A115" s="1">
         <v>42</v>
       </c>
@@ -13420,7 +13420,7 @@
         <v>0.82608695652173914</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19">
       <c r="A116" s="1">
         <v>43</v>
       </c>
@@ -13455,7 +13455,7 @@
         <v>0.84782608695652173</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19">
       <c r="A117" s="1">
         <v>44</v>
       </c>
@@ -13490,7 +13490,7 @@
         <v>0.86956521739130432</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19">
       <c r="A118" s="1">
         <v>45</v>
       </c>
@@ -13525,7 +13525,7 @@
         <v>0.89130434782608692</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19">
       <c r="A119" s="1">
         <v>46</v>
       </c>
@@ -13560,7 +13560,7 @@
         <v>0.89130434782608692</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19">
       <c r="A120" s="1">
         <v>47</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>0.91304347826086951</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19">
       <c r="A121" s="1">
         <v>48</v>
       </c>
@@ -13630,7 +13630,7 @@
         <v>0.91304347826086951</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19">
       <c r="A122" s="1">
         <v>49</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>0.91304347826086951</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19">
       <c r="A123" s="1">
         <v>50</v>
       </c>
@@ -13700,7 +13700,7 @@
         <v>0.91304347826086951</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19">
       <c r="A124" s="1">
         <v>51</v>
       </c>
@@ -13735,7 +13735,7 @@
         <v>0.91304347826086951</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19">
       <c r="A125" s="1">
         <v>52</v>
       </c>
@@ -13770,7 +13770,7 @@
         <v>0.91304347826086951</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19">
       <c r="A126" s="1">
         <v>53</v>
       </c>
@@ -13805,7 +13805,7 @@
         <v>0.91304347826086951</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19">
       <c r="A127" s="1">
         <v>54</v>
       </c>
@@ -13840,7 +13840,7 @@
         <v>0.93478260869565222</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19">
       <c r="A128" s="1">
         <v>55</v>
       </c>
@@ -13875,7 +13875,7 @@
         <v>0.93478260869565222</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24">
       <c r="A129" s="1">
         <v>56</v>
       </c>
@@ -13910,7 +13910,7 @@
         <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24">
       <c r="A130" s="1">
         <v>57</v>
       </c>
@@ -13945,7 +13945,7 @@
         <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24">
       <c r="A131" s="1">
         <v>58</v>
       </c>
@@ -13980,7 +13980,7 @@
         <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24">
       <c r="A132" s="1">
         <v>59</v>
       </c>
@@ -14015,7 +14015,7 @@
         <v>0.97826086956521741</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24">
       <c r="A133" s="1">
         <v>60</v>
       </c>
@@ -14050,7 +14050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" ht="15">
       <c r="I134" s="5" t="s">
         <v>8</v>
       </c>
@@ -14063,12 +14063,12 @@
         <v>0.93280461774955226</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24">
       <c r="A136" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" ht="15">
       <c r="J137" s="8" t="s">
         <v>7</v>
       </c>
@@ -14088,7 +14088,7 @@
       </c>
       <c r="X137" s="8"/>
     </row>
-    <row r="138" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" ht="15">
       <c r="A138" s="2" t="s">
         <v>0</v>
       </c>
@@ -14127,19 +14127,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24">
       <c r="A139" s="1">
         <v>1</v>
       </c>
       <c r="B139" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" s="1">
         <v>1</v>
       </c>
       <c r="J139" s="1">
         <f>SUM(B139)/A139</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K139" s="1">
         <f>SUM(C139)/A139</f>
@@ -14147,7 +14147,7 @@
       </c>
       <c r="N139" s="1">
         <f>J139*B139</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O139" s="1">
         <f>K139*C139</f>
@@ -14155,25 +14155,25 @@
       </c>
       <c r="R139" s="1">
         <f>SUMIF(B$139:B139,"=1")/SUMIF(B$139:B$168,"=1")</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S139" s="1">
         <f>SUMIF(C$139:C139,"=1")/SUMIF(C$139:C$168,"=1")</f>
-        <v>6.25E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="V139" s="4">
         <v>0</v>
       </c>
       <c r="W139" s="1">
-        <f>_xlfn.MAXIFS(J$139:J$168,R$139:R$168,"&gt;="&amp;$V139)</f>
-        <v>0.7</v>
+        <f t="shared" ref="W139:W149" si="40">_xlfn.MAXIFS(J$139:J$168,R$139:R$168,"&gt;="&amp;$V139)</f>
+        <v>1</v>
       </c>
       <c r="X139" s="1">
-        <f>_xlfn.MAXIFS(K$139:K$168,S$139:S$168,"&gt;="&amp;$V139)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
+        <f t="shared" ref="X139:X149" si="41">_xlfn.MAXIFS(K$139:K$168,S$139:S$168,"&gt;="&amp;$V139)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24">
       <c r="A140" s="1">
         <v>2</v>
       </c>
@@ -14185,15 +14185,15 @@
       </c>
       <c r="J140" s="1">
         <f>SUM(B$139:B140)/A140</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K140" s="1">
         <f>SUM(C$139:C140)/A140</f>
         <v>1</v>
       </c>
       <c r="N140" s="1">
-        <f t="shared" ref="N140:N168" si="40">J140*B140</f>
-        <v>0.5</v>
+        <f t="shared" ref="N140:N168" si="42">J140*B140</f>
+        <v>1</v>
       </c>
       <c r="O140" s="1">
         <f>K140*C140</f>
@@ -14201,25 +14201,25 @@
       </c>
       <c r="R140" s="1">
         <f>SUMIF(B$139:B140,"=1")/SUMIF(B$139:B$168,"=1")</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.4</v>
       </c>
       <c r="S140" s="1">
         <f>SUMIF(C$139:C140,"=1")/SUMIF(C$139:C$168,"=1")</f>
-        <v>0.125</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="V140" s="4">
         <v>0.1</v>
       </c>
       <c r="W140" s="1">
-        <f>_xlfn.MAXIFS(J$139:J$168,R$139:R$168,"&gt;="&amp;$V140)</f>
-        <v>0.7</v>
+        <f t="shared" si="40"/>
+        <v>1</v>
       </c>
       <c r="X140" s="1">
-        <f>_xlfn.MAXIFS(K$139:K$168,S$139:S$168,"&gt;="&amp;$V140)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24">
       <c r="A141" s="1">
         <v>3</v>
       </c>
@@ -14231,41 +14231,41 @@
       </c>
       <c r="J141" s="1">
         <f>SUM(B$139:B141)/A141</f>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K141" s="1">
         <f>SUM(C$139:C141)/A141</f>
         <v>1</v>
       </c>
       <c r="N141" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="O141" s="1">
-        <f t="shared" ref="O141:O168" si="41">K141*C141</f>
+        <f t="shared" ref="O141:O168" si="43">K141*C141</f>
         <v>1</v>
       </c>
       <c r="R141" s="1">
         <f>SUMIF(B$139:B141,"=1")/SUMIF(B$139:B$168,"=1")</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.4</v>
       </c>
       <c r="S141" s="1">
         <f>SUMIF(C$139:C141,"=1")/SUMIF(C$139:C$168,"=1")</f>
-        <v>0.1875</v>
+        <v>0.2</v>
       </c>
       <c r="V141" s="4">
         <v>0.2</v>
       </c>
       <c r="W141" s="1">
-        <f>_xlfn.MAXIFS(J$139:J$168,R$139:R$168,"&gt;="&amp;$V141)</f>
-        <v>0.7</v>
+        <f t="shared" si="40"/>
+        <v>1</v>
       </c>
       <c r="X141" s="1">
-        <f>_xlfn.MAXIFS(K$139:K$168,S$139:S$168,"&gt;="&amp;$V141)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24">
       <c r="A142" s="1">
         <v>4</v>
       </c>
@@ -14277,41 +14277,41 @@
       </c>
       <c r="J142" s="1">
         <f>SUM(B$139:B142)/A142</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K142" s="1">
         <f>SUM(C$139:C142)/A142</f>
         <v>1</v>
       </c>
       <c r="N142" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="O142" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="R142" s="1">
         <f>SUMIF(B$139:B142,"=1")/SUMIF(B$139:B$168,"=1")</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.4</v>
       </c>
       <c r="S142" s="1">
         <f>SUMIF(C$139:C142,"=1")/SUMIF(C$139:C$168,"=1")</f>
-        <v>0.25</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="V142" s="4">
         <v>0.3</v>
       </c>
       <c r="W142" s="1">
-        <f>_xlfn.MAXIFS(J$139:J$168,R$139:R$168,"&gt;="&amp;$V142)</f>
-        <v>0.7</v>
+        <f t="shared" si="40"/>
+        <v>1</v>
       </c>
       <c r="X142" s="1">
-        <f>_xlfn.MAXIFS(K$139:K$168,S$139:S$168,"&gt;="&amp;$V142)</f>
-        <v>0.8571428571428571</v>
-      </c>
-    </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
+        <f t="shared" si="41"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24">
       <c r="A143" s="1">
         <v>5</v>
       </c>
@@ -14323,46 +14323,46 @@
       </c>
       <c r="J143" s="1">
         <f>SUM(B$139:B143)/A143</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="K143" s="1">
         <f>SUM(C$139:C143)/A143</f>
         <v>0.8</v>
       </c>
       <c r="N143" s="1">
-        <f t="shared" si="40"/>
-        <v>0.4</v>
+        <f t="shared" si="42"/>
+        <v>0.6</v>
       </c>
       <c r="O143" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="R143" s="1">
         <f>SUMIF(B$139:B143,"=1")/SUMIF(B$139:B$168,"=1")</f>
-        <v>0.16666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="S143" s="1">
         <f>SUMIF(C$139:C143,"=1")/SUMIF(C$139:C$168,"=1")</f>
-        <v>0.25</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="V143" s="4">
         <v>0.4</v>
       </c>
       <c r="W143" s="1">
-        <f>_xlfn.MAXIFS(J$139:J$168,R$139:R$168,"&gt;="&amp;$V143)</f>
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="X143" s="1">
+        <f t="shared" si="41"/>
         <v>0.7</v>
       </c>
-      <c r="X143" s="1">
-        <f>_xlfn.MAXIFS(K$139:K$168,S$139:S$168,"&gt;="&amp;$V143)</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:24">
       <c r="A144" s="1">
         <v>6</v>
       </c>
       <c r="B144" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144" s="1">
         <v>1</v>
@@ -14376,172 +14376,172 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="N144" s="1">
-        <f t="shared" si="40"/>
-        <v>0.5</v>
+        <f t="shared" si="42"/>
+        <v>0</v>
       </c>
       <c r="O144" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="R144" s="1">
         <f>SUMIF(B$139:B144,"=1")/SUMIF(B$139:B$168,"=1")</f>
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="S144" s="1">
         <f>SUMIF(C$139:C144,"=1")/SUMIF(C$139:C$168,"=1")</f>
-        <v>0.3125</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="V144" s="4">
         <v>0.5</v>
       </c>
       <c r="W144" s="1">
-        <f>_xlfn.MAXIFS(J$139:J$168,R$139:R$168,"&gt;="&amp;$V144)</f>
-        <v>0.7</v>
+        <f t="shared" si="40"/>
+        <v>0.6</v>
       </c>
       <c r="X144" s="1">
-        <f>_xlfn.MAXIFS(K$139:K$168,S$139:S$168,"&gt;="&amp;$V144)</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
+        <f t="shared" si="41"/>
+        <v>0.61904761904761907</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24">
       <c r="A145" s="1">
         <v>7</v>
       </c>
       <c r="B145" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" s="1">
         <f>SUM(B$139:B145)/A145</f>
-        <v>0.5714285714285714</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="K145" s="1">
         <f>SUM(C$139:C145)/A145</f>
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N145" s="1">
-        <f t="shared" si="40"/>
-        <v>0.5714285714285714</v>
+        <f t="shared" si="42"/>
+        <v>0</v>
       </c>
       <c r="O145" s="1">
-        <f t="shared" si="41"/>
-        <v>0.8571428571428571</v>
+        <f t="shared" si="43"/>
+        <v>0</v>
       </c>
       <c r="R145" s="1">
         <f>SUMIF(B$139:B145,"=1")/SUMIF(B$139:B$168,"=1")</f>
-        <v>0.33333333333333331</v>
+        <v>0.6</v>
       </c>
       <c r="S145" s="1">
         <f>SUMIF(C$139:C145,"=1")/SUMIF(C$139:C$168,"=1")</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="V145" s="4">
         <v>0.6</v>
       </c>
       <c r="W145" s="1">
-        <f>_xlfn.MAXIFS(J$139:J$168,R$139:R$168,"&gt;="&amp;$V145)</f>
+        <f t="shared" si="40"/>
         <v>0.6</v>
       </c>
       <c r="X145" s="1">
-        <f>_xlfn.MAXIFS(K$139:K$168,S$139:S$168,"&gt;="&amp;$V145)</f>
-        <v>0.58823529411764708</v>
-      </c>
-    </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
+        <f t="shared" si="41"/>
+        <v>0.61904761904761907</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24">
       <c r="A146" s="1">
         <v>8</v>
       </c>
       <c r="B146" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" s="1">
         <v>0</v>
       </c>
       <c r="J146" s="1">
         <f>SUM(B$139:B146)/A146</f>
-        <v>0.625</v>
+        <v>0.375</v>
       </c>
       <c r="K146" s="1">
         <f>SUM(C$139:C146)/A146</f>
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="N146" s="1">
-        <f t="shared" si="40"/>
-        <v>0.625</v>
+        <f t="shared" si="42"/>
+        <v>0</v>
       </c>
       <c r="O146" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="R146" s="1">
         <f>SUMIF(B$139:B146,"=1")/SUMIF(B$139:B$168,"=1")</f>
-        <v>0.41666666666666669</v>
+        <v>0.6</v>
       </c>
       <c r="S146" s="1">
         <f>SUMIF(C$139:C146,"=1")/SUMIF(C$139:C$168,"=1")</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="V146" s="4">
         <v>0.7</v>
       </c>
       <c r="W146" s="1">
-        <f>_xlfn.MAXIFS(J$139:J$168,R$139:R$168,"&gt;="&amp;$V146)</f>
-        <v>0.6</v>
+        <f t="shared" si="40"/>
+        <v>0.4</v>
       </c>
       <c r="X146" s="1">
-        <f>_xlfn.MAXIFS(K$139:K$168,S$139:S$168,"&gt;="&amp;$V146)</f>
-        <v>0.55172413793103448</v>
-      </c>
-    </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
+        <f t="shared" si="41"/>
+        <v>0.61904761904761907</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24">
       <c r="A147" s="1">
         <v>9</v>
       </c>
       <c r="B147" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" s="1">
         <f>SUM(B$139:B147)/A147</f>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K147" s="1">
         <f>SUM(C$139:C147)/A147</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="N147" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="O147" s="1">
+        <f t="shared" si="43"/>
         <v>0.66666666666666663</v>
-      </c>
-      <c r="O147" s="1">
-        <f t="shared" si="41"/>
-        <v>0</v>
       </c>
       <c r="R147" s="1">
         <f>SUMIF(B$139:B147,"=1")/SUMIF(B$139:B$168,"=1")</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="S147" s="1">
         <f>SUMIF(C$139:C147,"=1")/SUMIF(C$139:C$168,"=1")</f>
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="V147" s="4">
         <v>0.8</v>
       </c>
       <c r="W147" s="1">
-        <f>_xlfn.MAXIFS(J$139:J$168,R$139:R$168,"&gt;="&amp;$V147)</f>
-        <v>0.5</v>
+        <f t="shared" si="40"/>
+        <v>0.4</v>
       </c>
       <c r="X147" s="1">
-        <f>_xlfn.MAXIFS(K$139:K$168,S$139:S$168,"&gt;="&amp;$V147)</f>
-        <v>0.55172413793103448</v>
-      </c>
-    </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
+        <f t="shared" si="41"/>
+        <v>0.61904761904761907</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24">
       <c r="A148" s="1">
         <v>10</v>
       </c>
@@ -14549,45 +14549,45 @@
         <v>1</v>
       </c>
       <c r="C148" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" s="1">
         <f>SUM(B$139:B148)/A148</f>
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="K148" s="1">
         <f>SUM(C$139:C148)/A148</f>
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="N148" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
+        <v>0.4</v>
+      </c>
+      <c r="O148" s="1">
+        <f t="shared" si="43"/>
         <v>0.7</v>
-      </c>
-      <c r="O148" s="1">
-        <f t="shared" si="41"/>
-        <v>0</v>
       </c>
       <c r="R148" s="1">
         <f>SUMIF(B$139:B148,"=1")/SUMIF(B$139:B$168,"=1")</f>
-        <v>0.58333333333333337</v>
+        <v>0.8</v>
       </c>
       <c r="S148" s="1">
         <f>SUMIF(C$139:C148,"=1")/SUMIF(C$139:C$168,"=1")</f>
-        <v>0.375</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="V148" s="4">
         <v>0.9</v>
       </c>
       <c r="W148" s="1">
-        <f>_xlfn.MAXIFS(J$139:J$168,R$139:R$168,"&gt;="&amp;$V148)</f>
-        <v>0.46153846153846156</v>
+        <f t="shared" si="40"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="X148" s="1">
-        <f>_xlfn.MAXIFS(K$139:K$168,S$139:S$168,"&gt;="&amp;$V148)</f>
-        <v>0.55172413793103448</v>
-      </c>
-    </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
+        <f t="shared" si="41"/>
+        <v>0.60869565217391308</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24">
       <c r="A149" s="1">
         <v>11</v>
       </c>
@@ -14595,45 +14595,45 @@
         <v>0</v>
       </c>
       <c r="C149" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" s="1">
         <f>SUM(B$139:B149)/A149</f>
-        <v>0.63636363636363635</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="K149" s="1">
         <f>SUM(C$139:C149)/A149</f>
         <v>0.63636363636363635</v>
       </c>
       <c r="N149" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="O149" s="1">
-        <f t="shared" si="41"/>
-        <v>0.63636363636363635</v>
+        <f t="shared" si="43"/>
+        <v>0</v>
       </c>
       <c r="R149" s="1">
         <f>SUMIF(B$139:B149,"=1")/SUMIF(B$139:B$168,"=1")</f>
-        <v>0.58333333333333337</v>
+        <v>0.8</v>
       </c>
       <c r="S149" s="1">
         <f>SUMIF(C$139:C149,"=1")/SUMIF(C$139:C$168,"=1")</f>
-        <v>0.4375</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="V149" s="4">
         <v>1</v>
       </c>
       <c r="W149" s="1">
-        <f>_xlfn.MAXIFS(J$139:J$168,R$139:R$168,"&gt;="&amp;$V149)</f>
-        <v>0.46153846153846156</v>
+        <f t="shared" si="40"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="X149" s="1">
-        <f>_xlfn.MAXIFS(K$139:K$168,S$139:S$168,"&gt;="&amp;$V149)</f>
-        <v>0.55172413793103448</v>
-      </c>
-    </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
+        <f t="shared" si="41"/>
+        <v>0.57692307692307687</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24">
       <c r="A150" s="1">
         <v>12</v>
       </c>
@@ -14641,34 +14641,34 @@
         <v>0</v>
       </c>
       <c r="C150" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" s="1">
         <f>SUM(B$139:B150)/A150</f>
-        <v>0.58333333333333337</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K150" s="1">
         <f>SUM(C$139:C150)/A150</f>
-        <v>0.66666666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="N150" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="O150" s="1">
-        <f t="shared" si="41"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="43"/>
+        <v>0</v>
       </c>
       <c r="R150" s="1">
         <f>SUMIF(B$139:B150,"=1")/SUMIF(B$139:B$168,"=1")</f>
-        <v>0.58333333333333337</v>
+        <v>0.8</v>
       </c>
       <c r="S150" s="1">
         <f>SUMIF(C$139:C150,"=1")/SUMIF(C$139:C$168,"=1")</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24">
       <c r="A151" s="1">
         <v>13</v>
       </c>
@@ -14680,65 +14680,65 @@
       </c>
       <c r="J151" s="1">
         <f>SUM(B$139:B151)/A151</f>
-        <v>0.53846153846153844</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="K151" s="1">
         <f>SUM(C$139:C151)/A151</f>
-        <v>0.61538461538461542</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="N151" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="O151" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="R151" s="1">
         <f>SUMIF(B$139:B151,"=1")/SUMIF(B$139:B$168,"=1")</f>
-        <v>0.58333333333333337</v>
+        <v>0.8</v>
       </c>
       <c r="S151" s="1">
         <f>SUMIF(C$139:C151,"=1")/SUMIF(C$139:C$168,"=1")</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24">
       <c r="A152" s="1">
         <v>14</v>
       </c>
       <c r="B152" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" s="1">
         <v>0</v>
       </c>
       <c r="J152" s="1">
         <f>SUM(B$139:B152)/A152</f>
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K152" s="1">
         <f>SUM(C$139:C152)/A152</f>
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="N152" s="1">
-        <f t="shared" si="40"/>
-        <v>0.5714285714285714</v>
+        <f t="shared" si="42"/>
+        <v>0</v>
       </c>
       <c r="O152" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="R152" s="1">
         <f>SUMIF(B$139:B152,"=1")/SUMIF(B$139:B$168,"=1")</f>
-        <v>0.66666666666666663</v>
+        <v>0.8</v>
       </c>
       <c r="S152" s="1">
         <f>SUMIF(C$139:C152,"=1")/SUMIF(C$139:C$168,"=1")</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24">
       <c r="A153" s="1">
         <v>15</v>
       </c>
@@ -14750,34 +14750,34 @@
       </c>
       <c r="J153" s="1">
         <f>SUM(B$139:B153)/A153</f>
-        <v>0.6</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K153" s="1">
         <f>SUM(C$139:C153)/A153</f>
-        <v>0.6</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="N153" s="1">
-        <f t="shared" si="40"/>
-        <v>0.6</v>
+        <f t="shared" si="42"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O153" s="1">
-        <f t="shared" si="41"/>
-        <v>0.6</v>
+        <f t="shared" si="43"/>
+        <v>0.53333333333333333</v>
       </c>
       <c r="R153" s="1">
         <f>SUMIF(B$139:B153,"=1")/SUMIF(B$139:B$168,"=1")</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S153" s="1">
         <f>SUMIF(C$139:C153,"=1")/SUMIF(C$139:C$168,"=1")</f>
-        <v>0.5625</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="W153" s="8" t="s">
         <v>16</v>
       </c>
       <c r="X153" s="8"/>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24">
       <c r="A154" s="1">
         <v>16</v>
       </c>
@@ -14785,31 +14785,31 @@
         <v>0</v>
       </c>
       <c r="C154" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" s="1">
         <f>SUM(B$139:B154)/A154</f>
-        <v>0.5625</v>
+        <v>0.3125</v>
       </c>
       <c r="K154" s="1">
         <f>SUM(C$139:C154)/A154</f>
         <v>0.5625</v>
       </c>
       <c r="N154" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="O154" s="1">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>0.5625</v>
       </c>
       <c r="R154" s="1">
         <f>SUMIF(B$139:B154,"=1")/SUMIF(B$139:B$168,"=1")</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S154" s="1">
         <f>SUMIF(C$139:C154,"=1")/SUMIF(C$139:C$168,"=1")</f>
-        <v>0.5625</v>
+        <v>0.6</v>
       </c>
       <c r="V154" s="3" t="s">
         <v>11</v>
@@ -14821,7 +14821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24">
       <c r="A155" s="1">
         <v>17</v>
       </c>
@@ -14829,31 +14829,31 @@
         <v>0</v>
       </c>
       <c r="C155" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" s="1">
         <f>SUM(B$139:B155)/A155</f>
-        <v>0.52941176470588236</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="K155" s="1">
         <f>SUM(C$139:C155)/A155</f>
-        <v>0.58823529411764708</v>
+        <v>0.52941176470588236</v>
       </c>
       <c r="N155" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="O155" s="1">
-        <f t="shared" si="41"/>
-        <v>0.58823529411764708</v>
+        <f t="shared" si="43"/>
+        <v>0</v>
       </c>
       <c r="R155" s="1">
         <f>SUMIF(B$139:B155,"=1")/SUMIF(B$139:B$168,"=1")</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S155" s="1">
         <f>SUMIF(C$139:C155,"=1")/SUMIF(C$139:C$168,"=1")</f>
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="V155" s="4">
         <v>0</v>
@@ -14867,7 +14867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24">
       <c r="A156" s="1">
         <v>18</v>
       </c>
@@ -14875,45 +14875,45 @@
         <v>0</v>
       </c>
       <c r="C156" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" s="1">
         <f>SUM(B$139:B156)/A156</f>
-        <v>0.5</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="K156" s="1">
         <f>SUM(C$139:C156)/A156</f>
         <v>0.55555555555555558</v>
       </c>
       <c r="N156" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="O156" s="1">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>0.55555555555555558</v>
       </c>
       <c r="R156" s="1">
         <f>SUMIF(B$139:B156,"=1")/SUMIF(B$139:B$168,"=1")</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S156" s="1">
         <f>SUMIF(C$139:C156,"=1")/SUMIF(C$139:C$168,"=1")</f>
-        <v>0.625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="V156" s="4">
         <v>0.1</v>
       </c>
       <c r="W156" s="1">
-        <f t="shared" ref="W156:X156" si="42">(1 + $V$2^2) * (W140*$V140/($V$2^2 * W140 +$V140))</f>
-        <v>0.17499999999999999</v>
+        <f t="shared" ref="W156:X156" si="44">(1 + $V$2^2) * (W140*$V140/($V$2^2 * W140 +$V140))</f>
+        <v>0.18181818181818182</v>
       </c>
       <c r="X156" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24">
       <c r="A157" s="1">
         <v>19</v>
       </c>
@@ -14921,91 +14921,91 @@
         <v>0</v>
       </c>
       <c r="C157" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" s="1">
         <f>SUM(B$139:B157)/A157</f>
-        <v>0.47368421052631576</v>
+        <v>0.26315789473684209</v>
       </c>
       <c r="K157" s="1">
         <f>SUM(C$139:C157)/A157</f>
-        <v>0.52631578947368418</v>
+        <v>0.57894736842105265</v>
       </c>
       <c r="N157" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="O157" s="1">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>0.57894736842105265</v>
       </c>
       <c r="R157" s="1">
         <f>SUMIF(B$139:B157,"=1")/SUMIF(B$139:B$168,"=1")</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S157" s="1">
         <f>SUMIF(C$139:C157,"=1")/SUMIF(C$139:C$168,"=1")</f>
-        <v>0.625</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="V157" s="4">
         <v>0.2</v>
       </c>
       <c r="W157" s="1">
-        <f t="shared" ref="W157:X157" si="43">(1 + $V$2^2) * (W141*$V141/($V$2^2 * W141 +$V141))</f>
-        <v>0.31111111111111112</v>
+        <f t="shared" ref="W157:X157" si="45">(1 + $V$2^2) * (W141*$V141/($V$2^2 * W141 +$V141))</f>
+        <v>0.33333333333333337</v>
       </c>
       <c r="X157" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.33333333333333337</v>
       </c>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24">
       <c r="A158" s="1">
         <v>20</v>
       </c>
       <c r="B158" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" s="1">
         <f>SUM(B$139:B158)/A158</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K158" s="1">
         <f>SUM(C$139:C158)/A158</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="N158" s="1">
-        <f t="shared" si="40"/>
-        <v>0.5</v>
+        <f t="shared" si="42"/>
+        <v>0</v>
       </c>
       <c r="O158" s="1">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>0.6</v>
       </c>
       <c r="R158" s="1">
         <f>SUMIF(B$139:B158,"=1")/SUMIF(B$139:B$168,"=1")</f>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="S158" s="1">
         <f>SUMIF(C$139:C158,"=1")/SUMIF(C$139:C$168,"=1")</f>
-        <v>0.625</v>
+        <v>0.8</v>
       </c>
       <c r="V158" s="4">
         <v>0.3</v>
       </c>
       <c r="W158" s="1">
-        <f t="shared" ref="W158:X158" si="44">(1 + $V$2^2) * (W142*$V142/($V$2^2 * W142 +$V142))</f>
-        <v>0.42</v>
+        <f t="shared" ref="W158:X158" si="46">(1 + $V$2^2) * (W142*$V142/($V$2^2 * W142 +$V142))</f>
+        <v>0.46153846153846151</v>
       </c>
       <c r="X158" s="1">
-        <f t="shared" si="44"/>
-        <v>0.44444444444444442</v>
-      </c>
-    </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
+        <f t="shared" si="46"/>
+        <v>0.44117647058823528</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24">
       <c r="A159" s="1">
         <v>21</v>
       </c>
@@ -15013,45 +15013,45 @@
         <v>0</v>
       </c>
       <c r="C159" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" s="1">
         <f>SUM(B$139:B159)/A159</f>
-        <v>0.47619047619047616</v>
+        <v>0.23809523809523808</v>
       </c>
       <c r="K159" s="1">
         <f>SUM(C$139:C159)/A159</f>
-        <v>0.47619047619047616</v>
+        <v>0.61904761904761907</v>
       </c>
       <c r="N159" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="O159" s="1">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>0.61904761904761907</v>
       </c>
       <c r="R159" s="1">
         <f>SUMIF(B$139:B159,"=1")/SUMIF(B$139:B$168,"=1")</f>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="S159" s="1">
         <f>SUMIF(C$139:C159,"=1")/SUMIF(C$139:C$168,"=1")</f>
-        <v>0.625</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="V159" s="4">
         <v>0.4</v>
       </c>
       <c r="W159" s="1">
-        <f t="shared" ref="W159:X159" si="45">(1 + $V$2^2) * (W143*$V143/($V$2^2 * W143 +$V143))</f>
+        <f t="shared" ref="W159:X159" si="47">(1 + $V$2^2) * (W143*$V143/($V$2^2 * W143 +$V143))</f>
+        <v>0.57142857142857151</v>
+      </c>
+      <c r="X159" s="1">
+        <f t="shared" si="47"/>
         <v>0.50909090909090904</v>
       </c>
-      <c r="X159" s="1">
-        <f t="shared" si="45"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:24">
       <c r="A160" s="1">
         <v>22</v>
       </c>
@@ -15059,45 +15059,45 @@
         <v>0</v>
       </c>
       <c r="C160" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" s="1">
         <f>SUM(B$139:B160)/A160</f>
-        <v>0.45454545454545453</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="K160" s="1">
         <f>SUM(C$139:C160)/A160</f>
-        <v>0.5</v>
+        <v>0.59090909090909094</v>
       </c>
       <c r="N160" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="O160" s="1">
-        <f t="shared" si="41"/>
-        <v>0.5</v>
+        <f t="shared" si="43"/>
+        <v>0</v>
       </c>
       <c r="R160" s="1">
         <f>SUMIF(B$139:B160,"=1")/SUMIF(B$139:B$168,"=1")</f>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="S160" s="1">
         <f>SUMIF(C$139:C160,"=1")/SUMIF(C$139:C$168,"=1")</f>
-        <v>0.6875</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="V160" s="4">
         <v>0.5</v>
       </c>
       <c r="W160" s="1">
-        <f t="shared" ref="W160:X160" si="46">(1 + $V$2^2) * (W144*$V144/($V$2^2 * W144 +$V144))</f>
-        <v>0.58333333333333337</v>
+        <f t="shared" ref="W160:X160" si="48">(1 + $V$2^2) * (W144*$V144/($V$2^2 * W144 +$V144))</f>
+        <v>0.54545454545454541</v>
       </c>
       <c r="X160" s="1">
-        <f t="shared" si="46"/>
-        <v>0.57142857142857151</v>
-      </c>
-    </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
+        <f t="shared" si="48"/>
+        <v>0.55319148936170215</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24">
       <c r="A161" s="1">
         <v>23</v>
       </c>
@@ -15109,87 +15109,87 @@
       </c>
       <c r="J161" s="1">
         <f>SUM(B$139:B161)/A161</f>
-        <v>0.43478260869565216</v>
+        <v>0.21739130434782608</v>
       </c>
       <c r="K161" s="1">
         <f>SUM(C$139:C161)/A161</f>
-        <v>0.52173913043478259</v>
+        <v>0.60869565217391308</v>
       </c>
       <c r="N161" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="O161" s="1">
-        <f t="shared" si="41"/>
-        <v>0.52173913043478259</v>
+        <f t="shared" si="43"/>
+        <v>0.60869565217391308</v>
       </c>
       <c r="R161" s="1">
         <f>SUMIF(B$139:B161,"=1")/SUMIF(B$139:B$168,"=1")</f>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="S161" s="1">
         <f>SUMIF(C$139:C161,"=1")/SUMIF(C$139:C$168,"=1")</f>
-        <v>0.75</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="V161" s="4">
         <v>0.6</v>
       </c>
       <c r="W161" s="1">
-        <f t="shared" ref="W161:X161" si="47">(1 + $V$2^2) * (W145*$V145/($V$2^2 * W145 +$V145))</f>
+        <f t="shared" ref="W161:X161" si="49">(1 + $V$2^2) * (W145*$V145/($V$2^2 * W145 +$V145))</f>
         <v>0.6</v>
       </c>
       <c r="X161" s="1">
-        <f t="shared" si="47"/>
-        <v>0.59405940594059414</v>
-      </c>
-    </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
+        <f t="shared" si="49"/>
+        <v>0.609375</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24">
       <c r="A162" s="1">
         <v>24</v>
       </c>
       <c r="B162" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" s="1">
         <v>0</v>
       </c>
       <c r="J162" s="1">
         <f>SUM(B$139:B162)/A162</f>
-        <v>0.45833333333333331</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="K162" s="1">
         <f>SUM(C$139:C162)/A162</f>
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="N162" s="1">
-        <f t="shared" si="40"/>
-        <v>0.45833333333333331</v>
+        <f t="shared" si="42"/>
+        <v>0</v>
       </c>
       <c r="O162" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="R162" s="1">
         <f>SUMIF(B$139:B162,"=1")/SUMIF(B$139:B$168,"=1")</f>
-        <v>0.91666666666666663</v>
+        <v>1</v>
       </c>
       <c r="S162" s="1">
         <f>SUMIF(C$139:C162,"=1")/SUMIF(C$139:C$168,"=1")</f>
-        <v>0.75</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="V162" s="4">
         <v>0.7</v>
       </c>
       <c r="W162" s="1">
-        <f t="shared" ref="W162:X162" si="48">(1 + $V$2^2) * (W146*$V146/($V$2^2 * W146 +$V146))</f>
-        <v>0.64615384615384619</v>
+        <f t="shared" ref="W162:X162" si="50">(1 + $V$2^2) * (W146*$V146/($V$2^2 * W146 +$V146))</f>
+        <v>0.50909090909090904</v>
       </c>
       <c r="X162" s="1">
-        <f t="shared" si="48"/>
-        <v>0.61707988980716255</v>
-      </c>
-    </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
+        <f t="shared" si="50"/>
+        <v>0.65703971119133575</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24">
       <c r="A163" s="1">
         <v>25</v>
       </c>
@@ -15201,65 +15201,65 @@
       </c>
       <c r="J163" s="1">
         <f>SUM(B$139:B163)/A163</f>
-        <v>0.44</v>
+        <v>0.2</v>
       </c>
       <c r="K163" s="1">
         <f>SUM(C$139:C163)/A163</f>
-        <v>0.48</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N163" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="O163" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="R163" s="1">
         <f>SUMIF(B$139:B163,"=1")/SUMIF(B$139:B$168,"=1")</f>
-        <v>0.91666666666666663</v>
+        <v>1</v>
       </c>
       <c r="S163" s="1">
         <f>SUMIF(C$139:C163,"=1")/SUMIF(C$139:C$168,"=1")</f>
-        <v>0.75</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="V163" s="4">
         <v>0.8</v>
       </c>
       <c r="W163" s="1">
-        <f t="shared" ref="W163:X163" si="49">(1 + $V$2^2) * (W147*$V147/($V$2^2 * W147 +$V147))</f>
-        <v>0.61538461538461542</v>
+        <f t="shared" ref="W163:X163" si="51">(1 + $V$2^2) * (W147*$V147/($V$2^2 * W147 +$V147))</f>
+        <v>0.53333333333333333</v>
       </c>
       <c r="X163" s="1">
-        <f t="shared" si="49"/>
-        <v>0.65306122448979587</v>
-      </c>
-    </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
+        <f t="shared" si="51"/>
+        <v>0.69798657718120805</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24">
       <c r="A164" s="1">
         <v>26</v>
       </c>
       <c r="B164" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" s="1">
         <v>1</v>
       </c>
       <c r="J164" s="1">
         <f>SUM(B$139:B164)/A164</f>
-        <v>0.46153846153846156</v>
+        <v>0.19230769230769232</v>
       </c>
       <c r="K164" s="1">
         <f>SUM(C$139:C164)/A164</f>
-        <v>0.5</v>
+        <v>0.57692307692307687</v>
       </c>
       <c r="N164" s="1">
-        <f t="shared" si="40"/>
-        <v>0.46153846153846156</v>
+        <f t="shared" si="42"/>
+        <v>0</v>
       </c>
       <c r="O164" s="1">
-        <f t="shared" si="41"/>
-        <v>0.5</v>
+        <f t="shared" si="43"/>
+        <v>0.57692307692307687</v>
       </c>
       <c r="R164" s="1">
         <f>SUMIF(B$139:B164,"=1")/SUMIF(B$139:B$168,"=1")</f>
@@ -15267,21 +15267,21 @@
       </c>
       <c r="S164" s="1">
         <f>SUMIF(C$139:C164,"=1")/SUMIF(C$139:C$168,"=1")</f>
-        <v>0.8125</v>
+        <v>1</v>
       </c>
       <c r="V164" s="4">
         <v>0.9</v>
       </c>
       <c r="W164" s="1">
-        <f t="shared" ref="W164:X164" si="50">(1 + $V$2^2) * (W148*$V148/($V$2^2 * W148 +$V148))</f>
-        <v>0.61016949152542377</v>
+        <f t="shared" ref="W164:X164" si="52">(1 + $V$2^2) * (W148*$V148/($V$2^2 * W148 +$V148))</f>
+        <v>0.48648648648648646</v>
       </c>
       <c r="X164" s="1">
-        <f t="shared" si="50"/>
-        <v>0.68408551068883605</v>
-      </c>
-    </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
+        <f t="shared" si="52"/>
+        <v>0.72622478386167155</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24">
       <c r="A165" s="1">
         <v>27</v>
       </c>
@@ -15289,23 +15289,23 @@
         <v>0</v>
       </c>
       <c r="C165" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" s="1">
         <f>SUM(B$139:B165)/A165</f>
-        <v>0.44444444444444442</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="K165" s="1">
         <f>SUM(C$139:C165)/A165</f>
-        <v>0.51851851851851849</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="N165" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="O165" s="1">
-        <f t="shared" si="41"/>
-        <v>0.51851851851851849</v>
+        <f t="shared" si="43"/>
+        <v>0</v>
       </c>
       <c r="R165" s="1">
         <f>SUMIF(B$139:B165,"=1")/SUMIF(B$139:B$168,"=1")</f>
@@ -15313,21 +15313,21 @@
       </c>
       <c r="S165" s="1">
         <f>SUMIF(C$139:C165,"=1")/SUMIF(C$139:C$168,"=1")</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="V165" s="4">
         <v>1</v>
       </c>
       <c r="W165" s="1">
-        <f t="shared" ref="W165:X165" si="51">(1 + $V$2^2) * (W149*$V149/($V$2^2 * W149 +$V149))</f>
-        <v>0.63157894736842102</v>
+        <f t="shared" ref="W165:X165" si="53">(1 + $V$2^2) * (W149*$V149/($V$2^2 * W149 +$V149))</f>
+        <v>0.5</v>
       </c>
       <c r="X165" s="1">
-        <f t="shared" si="51"/>
-        <v>0.71111111111111114</v>
-      </c>
-    </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
+        <f t="shared" si="53"/>
+        <v>0.73170731707317072</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24">
       <c r="A166" s="1">
         <v>28</v>
       </c>
@@ -15335,23 +15335,23 @@
         <v>0</v>
       </c>
       <c r="C166" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" s="1">
         <f>SUM(B$139:B166)/A166</f>
-        <v>0.42857142857142855</v>
+        <v>0.17857142857142858</v>
       </c>
       <c r="K166" s="1">
         <f>SUM(C$139:C166)/A166</f>
         <v>0.5357142857142857</v>
       </c>
       <c r="N166" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="O166" s="1">
-        <f t="shared" si="41"/>
-        <v>0.5357142857142857</v>
+        <f t="shared" si="43"/>
+        <v>0</v>
       </c>
       <c r="R166" s="1">
         <f>SUMIF(B$139:B166,"=1")/SUMIF(B$139:B$168,"=1")</f>
@@ -15359,10 +15359,10 @@
       </c>
       <c r="S166" s="1">
         <f>SUMIF(C$139:C166,"=1")/SUMIF(C$139:C$168,"=1")</f>
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24">
       <c r="A167" s="1">
         <v>29</v>
       </c>
@@ -15370,23 +15370,23 @@
         <v>0</v>
       </c>
       <c r="C167" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" s="1">
         <f>SUM(B$139:B167)/A167</f>
-        <v>0.41379310344827586</v>
+        <v>0.17241379310344829</v>
       </c>
       <c r="K167" s="1">
         <f>SUM(C$139:C167)/A167</f>
-        <v>0.55172413793103448</v>
+        <v>0.51724137931034486</v>
       </c>
       <c r="N167" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="O167" s="1">
-        <f t="shared" si="41"/>
-        <v>0.55172413793103448</v>
+        <f t="shared" si="43"/>
+        <v>0</v>
       </c>
       <c r="R167" s="1">
         <f>SUMIF(B$139:B167,"=1")/SUMIF(B$139:B$168,"=1")</f>
@@ -15397,7 +15397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24">
       <c r="A168" s="1">
         <v>30</v>
       </c>
@@ -15409,18 +15409,18 @@
       </c>
       <c r="J168" s="1">
         <f>SUM(B$139:B168)/A168</f>
-        <v>0.4</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="K168" s="1">
         <f>SUM(C$139:C168)/A168</f>
-        <v>0.53333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="N168" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="O168" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="R168" s="1">
@@ -15432,33 +15432,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" ht="15">
       <c r="I169" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J169" s="5">
         <f>AVERAGE(J139:J168)</f>
-        <v>0.48179369790051252</v>
+        <v>0.36036905802460134</v>
       </c>
       <c r="K169" s="5">
         <f>AVERAGE(K139:K168)</f>
-        <v>0.64822709560852221</v>
-      </c>
-    </row>
-    <row r="172" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+        <v>0.65348707458090882</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24" ht="15">
       <c r="I172" s="6" t="s">
         <v>15</v>
       </c>
       <c r="J172" s="5">
         <f>AVERAGE(J134,J169,J69,J34)</f>
-        <v>0.45919045492568555</v>
+        <v>0.42883429495670777</v>
       </c>
       <c r="K172" s="5">
         <f>AVERAGE(K169,K134,K69,K34)</f>
-        <v>0.64940747094293017</v>
-      </c>
-    </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
+        <v>0.65072246568602687</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -15466,18 +15466,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:24">
       <c r="A174" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:24">
       <c r="F175" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="8"/>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:24">
       <c r="E176" s="3" t="s">
         <v>11</v>
       </c>
@@ -15488,166 +15488,166 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="5:11">
       <c r="E177" s="4">
         <v>0</v>
       </c>
       <c r="F177" s="1">
-        <f>AVERAGE(W4,W39,W74,W139)</f>
-        <v>0.64191176470588229</v>
+        <f t="shared" ref="F177:F187" si="54">AVERAGE(W4,W39,W74,W139)</f>
+        <v>0.71691176470588236</v>
       </c>
       <c r="G177" s="1">
-        <f>AVERAGE(X4,X39,X74,X139)</f>
+        <f t="shared" ref="G177:G187" si="55">AVERAGE(X4,X39,X74,X139)</f>
         <v>0.91666666666666663</v>
       </c>
       <c r="J177" s="8"/>
       <c r="K177" s="8"/>
     </row>
-    <row r="178" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="5:11">
       <c r="E178" s="4">
         <v>0.1</v>
       </c>
       <c r="F178" s="1">
-        <f>AVERAGE(W5,W40,W75,W140)</f>
-        <v>0.64191176470588229</v>
+        <f t="shared" si="54"/>
+        <v>0.71691176470588236</v>
       </c>
       <c r="G178" s="1">
-        <f>AVERAGE(X5,X40,X75,X140)</f>
+        <f t="shared" si="55"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
     </row>
-    <row r="179" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="5:11">
       <c r="E179" s="4">
         <v>0.2</v>
       </c>
       <c r="F179" s="1">
-        <f>AVERAGE(W6,W41,W76,W141)</f>
-        <v>0.64191176470588229</v>
+        <f t="shared" si="54"/>
+        <v>0.71691176470588236</v>
       </c>
       <c r="G179" s="1">
-        <f>AVERAGE(X6,X41,X76,X141)</f>
+        <f t="shared" si="55"/>
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="180" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="5:11">
       <c r="E180" s="4">
         <v>0.3</v>
       </c>
       <c r="F180" s="1">
-        <f>AVERAGE(W7,W42,W77,W142)</f>
-        <v>0.64191176470588229</v>
+        <f t="shared" si="54"/>
+        <v>0.71691176470588236</v>
       </c>
       <c r="G180" s="1">
-        <f>AVERAGE(X7,X42,X77,X142)</f>
-        <v>0.88095238095238093</v>
-      </c>
-    </row>
-    <row r="181" spans="5:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="55"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="181" spans="5:11">
       <c r="E181" s="4">
         <v>0.4</v>
       </c>
       <c r="F181" s="1">
-        <f>AVERAGE(W8,W43,W78,W143)</f>
-        <v>0.55735294117647061</v>
+        <f t="shared" si="54"/>
+        <v>0.63235294117647056</v>
       </c>
       <c r="G181" s="1">
-        <f>AVERAGE(X8,X43,X78,X143)</f>
-        <v>0.77083333333333337</v>
-      </c>
-    </row>
-    <row r="182" spans="5:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="55"/>
+        <v>0.77916666666666679</v>
+      </c>
+    </row>
+    <row r="182" spans="5:11">
       <c r="E182" s="4">
         <v>0.5</v>
       </c>
       <c r="F182" s="1">
-        <f>AVERAGE(W9,W44,W79,W144)</f>
-        <v>0.55735294117647061</v>
+        <f t="shared" si="54"/>
+        <v>0.53235294117647058</v>
       </c>
       <c r="G182" s="1">
-        <f>AVERAGE(X9,X44,X79,X144)</f>
-        <v>0.72916666666666663</v>
-      </c>
-    </row>
-    <row r="183" spans="5:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="55"/>
+        <v>0.71726190476190477</v>
+      </c>
+    </row>
+    <row r="183" spans="5:11">
       <c r="E183" s="4">
         <v>0.6</v>
       </c>
       <c r="F183" s="1">
-        <f>AVERAGE(W10,W45,W80,W145)</f>
+        <f t="shared" si="54"/>
         <v>0.53235294117647058</v>
       </c>
       <c r="G183" s="1">
-        <f>AVERAGE(X10,X45,X80,X145)</f>
-        <v>0.68872549019607854</v>
-      </c>
-    </row>
-    <row r="184" spans="5:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="55"/>
+        <v>0.69642857142857151</v>
+      </c>
+    </row>
+    <row r="184" spans="5:11">
       <c r="E184" s="4">
         <v>0.7</v>
       </c>
       <c r="F184" s="1">
-        <f>AVERAGE(W11,W46,W81,W146)</f>
-        <v>0.51806722689075635</v>
+        <f t="shared" si="54"/>
+        <v>0.4680672268907563</v>
       </c>
       <c r="G184" s="1">
-        <f>AVERAGE(X11,X46,X81,X146)</f>
-        <v>0.6073409723709573</v>
-      </c>
-    </row>
-    <row r="185" spans="5:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="55"/>
+        <v>0.6241718426501035</v>
+      </c>
+    </row>
+    <row r="185" spans="5:11">
       <c r="E185" s="4">
         <v>0.8</v>
       </c>
       <c r="F185" s="1">
-        <f>AVERAGE(W12,W47,W82,W147)</f>
-        <v>0.46552287581699348</v>
+        <f t="shared" si="54"/>
+        <v>0.44052287581699345</v>
       </c>
       <c r="G185" s="1">
-        <f>AVERAGE(X12,X47,X82,X147)</f>
-        <v>0.59940446443444939</v>
-      </c>
-    </row>
-    <row r="186" spans="5:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="55"/>
+        <v>0.61623533471359559</v>
+      </c>
+    </row>
+    <row r="186" spans="5:11">
       <c r="E186" s="4">
         <v>0.9</v>
       </c>
       <c r="F186" s="1">
-        <f>AVERAGE(W13,W48,W83,W148)</f>
-        <v>0.45153396874298002</v>
+        <f t="shared" si="54"/>
+        <v>0.41948268669169791</v>
       </c>
       <c r="G186" s="1">
-        <f>AVERAGE(X13,X48,X83,X148)</f>
-        <v>0.59503094197582063</v>
-      </c>
-    </row>
-    <row r="187" spans="5:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="55"/>
+        <v>0.60927382053654022</v>
+      </c>
+    </row>
+    <row r="187" spans="5:11">
       <c r="E187" s="4">
         <v>1</v>
       </c>
       <c r="F187" s="1">
-        <f>AVERAGE(W14,W49,W84,W149)</f>
-        <v>0.4197963800904978</v>
+        <f t="shared" si="54"/>
+        <v>0.3877450980392157</v>
       </c>
       <c r="G187" s="1">
-        <f>AVERAGE(X14,X49,X84,X149)</f>
-        <v>0.52966383871556277</v>
-      </c>
-    </row>
-    <row r="197" spans="5:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="55"/>
+        <v>0.53596357346357348</v>
+      </c>
+    </row>
+    <row r="197" spans="5:7">
       <c r="E197" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="5:7">
       <c r="F199" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="8"/>
     </row>
-    <row r="200" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="5:7">
       <c r="E200" s="3" t="s">
         <v>11</v>
       </c>
@@ -15658,151 +15658,158 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="5:7">
       <c r="E201" s="4">
         <v>0</v>
       </c>
       <c r="F201" s="1">
-        <f>AVERAGE(W139,W39,W4)</f>
-        <v>0.52254901960784317</v>
+        <f t="shared" ref="F201:F211" si="56">AVERAGE(W139,W39,W4)</f>
+        <v>0.62254901960784315</v>
       </c>
       <c r="G201" s="1">
-        <f>AVERAGE(X139,X39,X4)</f>
+        <f t="shared" ref="G201:G211" si="57">AVERAGE(X139,X39,X4)</f>
         <v>0.88888888888888884</v>
       </c>
     </row>
-    <row r="202" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="5:7">
       <c r="E202" s="4">
         <v>0.1</v>
       </c>
       <c r="F202" s="1">
-        <f>AVERAGE(W140,W40,W5)</f>
-        <v>0.52254901960784317</v>
+        <f t="shared" si="56"/>
+        <v>0.62254901960784315</v>
       </c>
       <c r="G202" s="1">
-        <f>AVERAGE(X140,X40,X5)</f>
+        <f t="shared" si="57"/>
         <v>0.88888888888888884</v>
       </c>
     </row>
-    <row r="203" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="5:7">
       <c r="E203" s="4">
         <v>0.2</v>
       </c>
       <c r="F203" s="1">
-        <f>AVERAGE(W141,W41,W6)</f>
-        <v>0.52254901960784317</v>
+        <f t="shared" si="56"/>
+        <v>0.62254901960784315</v>
       </c>
       <c r="G203" s="1">
-        <f>AVERAGE(X141,X41,X6)</f>
+        <f t="shared" si="57"/>
         <v>0.88888888888888884</v>
       </c>
     </row>
-    <row r="204" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="5:7">
       <c r="E204" s="4">
         <v>0.3</v>
       </c>
       <c r="F204" s="1">
-        <f>AVERAGE(W142,W42,W7)</f>
-        <v>0.52254901960784317</v>
+        <f t="shared" si="56"/>
+        <v>0.62254901960784315</v>
       </c>
       <c r="G204" s="1">
-        <f>AVERAGE(X142,X42,X7)</f>
-        <v>0.84126984126984128</v>
-      </c>
-    </row>
-    <row r="205" spans="5:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="57"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="205" spans="5:7">
       <c r="E205" s="4">
         <v>0.4</v>
       </c>
       <c r="F205" s="1">
-        <f>AVERAGE(W143,W43,W8)</f>
-        <v>0.40980392156862749</v>
+        <f t="shared" si="56"/>
+        <v>0.50980392156862742</v>
       </c>
       <c r="G205" s="1">
-        <f>AVERAGE(X143,X43,X8)</f>
-        <v>0.69444444444444453</v>
-      </c>
-    </row>
-    <row r="206" spans="5:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="57"/>
+        <v>0.7055555555555556</v>
+      </c>
+    </row>
+    <row r="206" spans="5:7">
       <c r="E206" s="4">
         <v>0.5</v>
       </c>
       <c r="F206" s="1">
-        <f>AVERAGE(W144,W44,W9)</f>
-        <v>0.40980392156862749</v>
+        <f t="shared" si="56"/>
+        <v>0.37647058823529411</v>
       </c>
       <c r="G206" s="1">
-        <f>AVERAGE(X144,X44,X9)</f>
-        <v>0.63888888888888884</v>
-      </c>
-    </row>
-    <row r="207" spans="5:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="57"/>
+        <v>0.62301587301587302</v>
+      </c>
+    </row>
+    <row r="207" spans="5:7">
       <c r="E207" s="4">
         <v>0.6</v>
       </c>
       <c r="F207" s="1">
-        <f>AVERAGE(W145,W45,W10)</f>
+        <f t="shared" si="56"/>
         <v>0.37647058823529411</v>
       </c>
       <c r="G207" s="1">
-        <f>AVERAGE(X145,X45,X10)</f>
-        <v>0.58496732026143794</v>
-      </c>
-    </row>
-    <row r="208" spans="5:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="57"/>
+        <v>0.59523809523809534</v>
+      </c>
+    </row>
+    <row r="208" spans="5:7">
       <c r="E208" s="4">
         <v>0.7</v>
       </c>
       <c r="F208" s="1">
-        <f>AVERAGE(W146,W46,W11)</f>
-        <v>0.37647058823529411</v>
+        <f t="shared" si="56"/>
+        <v>0.30980392156862746</v>
       </c>
       <c r="G208" s="1">
-        <f>AVERAGE(X146,X46,X11)</f>
-        <v>0.49550224887556221</v>
-      </c>
-    </row>
-    <row r="209" spans="5:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="57"/>
+        <v>0.51794340924775706</v>
+      </c>
+    </row>
+    <row r="209" spans="5:7">
       <c r="E209" s="4">
         <v>0.8</v>
       </c>
       <c r="F209" s="1">
-        <f>AVERAGE(W147,W47,W12)</f>
-        <v>0.31699346405228757</v>
+        <f t="shared" si="56"/>
+        <v>0.2836601307189543</v>
       </c>
       <c r="G209" s="1">
-        <f>AVERAGE(X147,X47,X12)</f>
-        <v>0.49550224887556221</v>
-      </c>
-    </row>
-    <row r="210" spans="5:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="57"/>
+        <v>0.51794340924775706</v>
+      </c>
+    </row>
+    <row r="210" spans="5:7">
       <c r="E210" s="4">
         <v>0.9</v>
       </c>
       <c r="F210" s="1">
-        <f>AVERAGE(W148,W48,W13)</f>
-        <v>0.30417295123177479</v>
+        <f t="shared" si="56"/>
+        <v>0.26143790849673199</v>
       </c>
       <c r="G210" s="1">
-        <f>AVERAGE(X148,X48,X13)</f>
-        <v>0.49550224887556221</v>
-      </c>
-    </row>
-    <row r="211" spans="5:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="57"/>
+        <v>0.51449275362318836</v>
+      </c>
+    </row>
+    <row r="211" spans="5:7">
       <c r="E211" s="4">
         <v>1</v>
       </c>
       <c r="F211" s="1">
-        <f>AVERAGE(W149,W49,W14)</f>
-        <v>0.30417295123177479</v>
+        <f t="shared" si="56"/>
+        <v>0.26143790849673199</v>
       </c>
       <c r="G211" s="1">
-        <f>AVERAGE(X149,X49,X14)</f>
-        <v>0.45066289606519488</v>
+        <f t="shared" si="57"/>
+        <v>0.45906254239587568</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="W153:X153"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="W88:X88"/>
     <mergeCell ref="F199:G199"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="J37:K37"/>
@@ -15819,13 +15826,6 @@
     <mergeCell ref="W137:X137"/>
     <mergeCell ref="J177:K177"/>
     <mergeCell ref="F175:G175"/>
-    <mergeCell ref="W153:X153"/>
-    <mergeCell ref="W53:X53"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="W88:X88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/solr/Evaluation.xlsx
+++ b/solr/Evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PRI\solr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7339FB3-32F8-4592-B6F4-CE05161645E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89735F5-3859-4414-A6CB-0ECA05D78032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F5A3B19-910C-4A1F-9359-A2D6231D0330}"/>
+    <workbookView xWindow="6075" yWindow="6210" windowWidth="15300" windowHeight="7965" xr2:uid="{1F5A3B19-910C-4A1F-9359-A2D6231D0330}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="17">
   <si>
     <t>Rank</t>
   </si>
@@ -75,12 +75,6 @@
     <t>GLOBAL</t>
   </si>
   <si>
-    <t>WITH ALL 4</t>
-  </si>
-  <si>
-    <t>Without the all 1's</t>
-  </si>
-  <si>
     <t>MAP</t>
   </si>
   <si>
@@ -88,6 +82,9 @@
   </si>
   <si>
     <t>Beta</t>
+  </si>
+  <si>
+    <t>Whole System</t>
   </si>
 </sst>
 </file>
@@ -1015,32 +1012,54 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:rPr lang="en-US" b="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
+                  <a:srgbClr val="757575"/>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>Precision-Recall Curve (Interpolated)</a:t>
+              <a:t>F</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t> Measure (Beta = 1)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="0">
+              <a:solidFill>
+                <a:srgbClr val="757575"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1052,22 +1071,14 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$W$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>V1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>V1</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$V$4:$V$14</c:f>
+              <c:f>Sheet1!$V$20:$V$30</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1109,42 +1120,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$201:$F$211</c:f>
+              <c:f>Sheet1!$W$20:$W$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.62254901960784315</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62254901960784315</c:v>
+                  <c:v>0.17647058823529416</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.62254901960784315</c:v>
+                  <c:v>0.31578947368421056</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.62254901960784315</c:v>
+                  <c:v>0.42857142857142849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.50980392156862742</c:v>
+                  <c:v>0.40579710144927533</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.37647058823529411</c:v>
+                  <c:v>0.45161290322580644</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37647058823529411</c:v>
+                  <c:v>0.48837209302325579</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.30980392156862746</c:v>
+                  <c:v>0.51851851851851849</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2836601307189543</c:v>
+                  <c:v>0.47058823529411764</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.26143790849673199</c:v>
+                  <c:v>0.48648648648648646</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.26143790849673199</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1152,7 +1163,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B1DB-40F0-AAD4-01DEB14EF6C5}"/>
+              <c16:uniqueId val="{00000000-1A2D-40B8-88C2-9692F3439E56}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1160,22 +1171,14 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$X$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>V2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>V2</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$V$4:$V$14</c:f>
+              <c:f>Sheet1!$V$20:$V$30</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1217,42 +1220,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$201:$G$211</c:f>
+              <c:f>Sheet1!$X$20:$X$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.88888888888888884</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88888888888888884</c:v>
+                  <c:v>0.18181818181818182</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88888888888888884</c:v>
+                  <c:v>0.33333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>0.46153846153846151</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7055555555555556</c:v>
+                  <c:v>0.54054054054054057</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.62301587301587302</c:v>
+                  <c:v>0.57142857142857151</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59523809523809534</c:v>
+                  <c:v>0.59154929577464799</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.51794340924775706</c:v>
+                  <c:v>0.58333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.51794340924775706</c:v>
+                  <c:v>0.61538461538461542</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.51449275362318836</c:v>
+                  <c:v>0.6428571428571429</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.45906254239587568</c:v>
+                  <c:v>0.5641025641025641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1260,7 +1263,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B1DB-40F0-AAD4-01DEB14EF6C5}"/>
+              <c16:uniqueId val="{00000001-1A2D-40B8-88C2-9692F3439E56}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1286,11 +1289,18 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -1300,21 +1310,43 @@
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1336,32 +1368,45 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:srgbClr val="B7B7B7"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:minorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:srgbClr val="CCCCCC">
                   <a:alpha val="0"/>
                 </a:srgbClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -1371,24 +1416,43 @@
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln/>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1398,20 +1462,38 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
       <c:txPr>
-        <a:bodyPr/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0">
-            <a:defRPr b="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="1A1A1A"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -1422,6 +1504,31 @@
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:tint val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1555,7 +1662,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$W$20:$W$30</c:f>
+              <c:f>Sheet1!$W$55:$W$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1563,34 +1670,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17647058823529416</c:v>
+                  <c:v>0.1081081081081081</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31578947368421056</c:v>
+                  <c:v>0.14814814814814817</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42857142857142849</c:v>
+                  <c:v>0.16901408450704228</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.40579710144927533</c:v>
+                  <c:v>0.1818181818181818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45161290322580644</c:v>
+                  <c:v>0.19047619047619047</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.48837209302325579</c:v>
+                  <c:v>0.19672131147540983</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.51851851851851849</c:v>
+                  <c:v>0.20143884892086331</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47058823529411764</c:v>
+                  <c:v>0.20512820512820512</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.48648648648648646</c:v>
+                  <c:v>0.20809248554913296</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5</c:v>
+                  <c:v>0.21052631578947367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1598,7 +1705,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1A2D-40B8-88C2-9692F3439E56}"/>
+              <c16:uniqueId val="{00000000-1565-4F43-A603-A2D47A4D304B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1655,7 +1762,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$X$20:$X$30</c:f>
+              <c:f>Sheet1!$X$55:$X$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1663,34 +1770,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18181818181818182</c:v>
+                  <c:v>0.17391304347826089</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33333333333333337</c:v>
+                  <c:v>0.30769230769230765</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46153846153846151</c:v>
+                  <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.54054054054054057</c:v>
+                  <c:v>0.47457627118644069</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.57142857142857151</c:v>
+                  <c:v>0.53846153846153844</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.59154929577464799</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.58333333333333337</c:v>
+                  <c:v>0.53639846743295017</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61538461538461542</c:v>
+                  <c:v>0.56338028169014087</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.6428571428571429</c:v>
+                  <c:v>0.58631921824104238</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5641025641025641</c:v>
+                  <c:v>0.57894736842105254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1698,7 +1805,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1A2D-40B8-88C2-9692F3439E56}"/>
+              <c16:uniqueId val="{00000001-1565-4F43-A603-A2D47A4D304B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2097,7 +2204,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$W$55:$W$65</c:f>
+              <c:f>Sheet1!$W$90:$W$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2105,34 +2212,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1081081081081081</c:v>
+                  <c:v>0.18181818181818182</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14814814814814817</c:v>
+                  <c:v>0.33333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16901408450704228</c:v>
+                  <c:v>0.46153846153846151</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1818181818181818</c:v>
+                  <c:v>0.57142857142857151</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.19047619047619047</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.19672131147540983</c:v>
+                  <c:v>0.74999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.20143884892086331</c:v>
+                  <c:v>0.8034782608695652</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20512820512820512</c:v>
+                  <c:v>0.8519480519480519</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.20809248554913296</c:v>
+                  <c:v>0.89679715302491092</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.21052631578947367</c:v>
+                  <c:v>0.86792452830188693</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2140,7 +2247,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1565-4F43-A603-A2D47A4D304B}"/>
+              <c16:uniqueId val="{00000000-A5A1-496C-A982-F5F5F89BA2C7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2197,7 +2304,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$X$55:$X$65</c:f>
+              <c:f>Sheet1!$X$90:$X$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2205,34 +2312,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17391304347826089</c:v>
+                  <c:v>0.18181818181818182</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30769230769230765</c:v>
+                  <c:v>0.33333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41379310344827586</c:v>
+                  <c:v>0.46153846153846151</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47457627118644069</c:v>
+                  <c:v>0.57142857142857151</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.53846153846153844</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59154929577464799</c:v>
+                  <c:v>0.74999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.53639846743295017</c:v>
+                  <c:v>0.8034782608695652</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.56338028169014087</c:v>
+                  <c:v>0.8519480519480519</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.58631921824104238</c:v>
+                  <c:v>0.89679715302491092</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.57894736842105254</c:v>
+                  <c:v>0.86792452830188693</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2240,7 +2347,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1565-4F43-A603-A2D47A4D304B}"/>
+              <c16:uniqueId val="{00000001-A5A1-496C-A982-F5F5F89BA2C7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2639,548 +2746,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$W$90:$W$100</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18181818181818182</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.33333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.46153846153846151</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.57142857142857151</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.74999999999999989</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8034782608695652</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8519480519480519</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.89679715302491092</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.86792452830188693</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A5A1-496C-A982-F5F5F89BA2C7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>V2</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$V$20:$V$30</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$X$90:$X$100</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18181818181818182</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.33333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.46153846153846151</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.57142857142857151</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.74999999999999989</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8034782608695652</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8519480519480519</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.89679715302491092</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.86792452830188693</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A5A1-496C-A982-F5F5F89BA2C7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1361606489"/>
-        <c:axId val="1331152447"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1361606489"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Recall</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:tint val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1331152447"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1331152447"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Precision</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:tint val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1361606489"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:tint val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>F</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="0" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t> Measure (Beta = 1)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="0">
-              <a:solidFill>
-                <a:srgbClr val="757575"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>V1</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$V$20:$V$30</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>Sheet1!$W$155:$W$165</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -5315,10 +4880,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$33</c:f>
+              <c:f>Sheet1!$A$74:$A$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5408,16 +4973,106 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$74:$J$103</c:f>
+              <c:f>Sheet1!$J$74:$J$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5507,6 +5162,96 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.967741935483871</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.93939393939393945</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.94117647058823528</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.94285714285714284</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.89189189189189189</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.89473684210526316</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.89743589743589747</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.90243902439024393</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.90476190476190477</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.90697674418604646</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.90909090909090906</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.91111111111111109</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.89130434782608692</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.8936170212765957</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.82352941176470584</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.80769230769230771</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.79245283018867929</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.79629629629629628</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.78181818181818186</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.7857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.77192982456140347</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.75862068965517238</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.76271186440677963</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.76666666666666672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5539,10 +5284,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$33</c:f>
+              <c:f>Sheet1!$A$74:$A$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5632,16 +5377,106 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$74:$K$103</c:f>
+              <c:f>Sheet1!$K$74:$K$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5731,6 +5566,96 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.967741935483871</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.93939393939393945</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.94117647058823528</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.94285714285714284</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.89189189189189189</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.89473684210526316</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.89743589743589747</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.90243902439024393</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.90476190476190477</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.90697674418604646</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.90909090909090906</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.91111111111111109</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.89130434782608692</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.8936170212765957</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.82352941176470584</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.80769230769230771</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.79245283018867929</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.79629629629629628</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.78181818181818186</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.7857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.77192982456140347</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.75862068965517238</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.76271186440677963</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.76666666666666672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8384,39 +8309,6 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>246530</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5105400" cy="3036794"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2" title="Chart">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA630150-F221-4029-A577-976C5F152D76}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>560294</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -8442,7 +8334,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8475,7 +8367,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8508,7 +8400,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8541,7 +8433,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8849,8 +8741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90E2CE5-2754-4DEC-9740-5E5101C42739}">
   <dimension ref="A1:Y211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C169" sqref="C169"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J134" sqref="J134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8881,7 +8773,7 @@
       <c r="S2" s="8"/>
       <c r="T2"/>
       <c r="U2" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V2" s="7">
         <v>1</v>
@@ -9577,7 +9469,7 @@
         <v>0.63636363636363635</v>
       </c>
       <c r="W18" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="X18" s="8"/>
     </row>
@@ -10959,7 +10851,7 @@
         <v>0.63636363636363635</v>
       </c>
       <c r="W53" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="X53" s="8"/>
     </row>
@@ -12341,7 +12233,7 @@
         <v>0.32608695652173914</v>
       </c>
       <c r="W88" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="X88" s="8"/>
     </row>
@@ -14773,7 +14665,7 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="W153" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="X153" s="8"/>
     </row>
@@ -15445,9 +15337,14 @@
         <v>0.65348707458090882</v>
       </c>
     </row>
+    <row r="171" spans="1:24">
+      <c r="E171" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="172" spans="1:24" ht="15">
       <c r="I172" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J172" s="5">
         <f>AVERAGE(J134,J169,J69,J34)</f>
@@ -15462,9 +15359,6 @@
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
-      <c r="E173" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="174" spans="1:24">
       <c r="A174" s="1" t="s">
@@ -15636,180 +15530,50 @@
         <v>0.53596357346357348</v>
       </c>
     </row>
-    <row r="197" spans="5:7">
-      <c r="E197" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="199" spans="5:7">
-      <c r="F199" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="F199" s="8"/>
       <c r="G199" s="8"/>
     </row>
     <row r="200" spans="5:7">
-      <c r="E200" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="E200" s="3"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
     </row>
     <row r="201" spans="5:7">
-      <c r="E201" s="4">
-        <v>0</v>
-      </c>
-      <c r="F201" s="1">
-        <f t="shared" ref="F201:F211" si="56">AVERAGE(W139,W39,W4)</f>
-        <v>0.62254901960784315</v>
-      </c>
-      <c r="G201" s="1">
-        <f t="shared" ref="G201:G211" si="57">AVERAGE(X139,X39,X4)</f>
-        <v>0.88888888888888884</v>
-      </c>
+      <c r="E201" s="4"/>
     </row>
     <row r="202" spans="5:7">
-      <c r="E202" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="F202" s="1">
-        <f t="shared" si="56"/>
-        <v>0.62254901960784315</v>
-      </c>
-      <c r="G202" s="1">
-        <f t="shared" si="57"/>
-        <v>0.88888888888888884</v>
-      </c>
+      <c r="E202" s="4"/>
     </row>
     <row r="203" spans="5:7">
-      <c r="E203" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="F203" s="1">
-        <f t="shared" si="56"/>
-        <v>0.62254901960784315</v>
-      </c>
-      <c r="G203" s="1">
-        <f t="shared" si="57"/>
-        <v>0.88888888888888884</v>
-      </c>
+      <c r="E203" s="4"/>
     </row>
     <row r="204" spans="5:7">
-      <c r="E204" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="F204" s="1">
-        <f t="shared" si="56"/>
-        <v>0.62254901960784315</v>
-      </c>
-      <c r="G204" s="1">
-        <f t="shared" si="57"/>
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="E204" s="4"/>
     </row>
     <row r="205" spans="5:7">
-      <c r="E205" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="F205" s="1">
-        <f t="shared" si="56"/>
-        <v>0.50980392156862742</v>
-      </c>
-      <c r="G205" s="1">
-        <f t="shared" si="57"/>
-        <v>0.7055555555555556</v>
-      </c>
+      <c r="E205" s="4"/>
     </row>
     <row r="206" spans="5:7">
-      <c r="E206" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F206" s="1">
-        <f t="shared" si="56"/>
-        <v>0.37647058823529411</v>
-      </c>
-      <c r="G206" s="1">
-        <f t="shared" si="57"/>
-        <v>0.62301587301587302</v>
-      </c>
+      <c r="E206" s="4"/>
     </row>
     <row r="207" spans="5:7">
-      <c r="E207" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="F207" s="1">
-        <f t="shared" si="56"/>
-        <v>0.37647058823529411</v>
-      </c>
-      <c r="G207" s="1">
-        <f t="shared" si="57"/>
-        <v>0.59523809523809534</v>
-      </c>
+      <c r="E207" s="4"/>
     </row>
     <row r="208" spans="5:7">
-      <c r="E208" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="F208" s="1">
-        <f t="shared" si="56"/>
-        <v>0.30980392156862746</v>
-      </c>
-      <c r="G208" s="1">
-        <f t="shared" si="57"/>
-        <v>0.51794340924775706</v>
-      </c>
-    </row>
-    <row r="209" spans="5:7">
-      <c r="E209" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="F209" s="1">
-        <f t="shared" si="56"/>
-        <v>0.2836601307189543</v>
-      </c>
-      <c r="G209" s="1">
-        <f t="shared" si="57"/>
-        <v>0.51794340924775706</v>
-      </c>
-    </row>
-    <row r="210" spans="5:7">
-      <c r="E210" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="F210" s="1">
-        <f t="shared" si="56"/>
-        <v>0.26143790849673199</v>
-      </c>
-      <c r="G210" s="1">
-        <f t="shared" si="57"/>
-        <v>0.51449275362318836</v>
-      </c>
-    </row>
-    <row r="211" spans="5:7">
-      <c r="E211" s="4">
-        <v>1</v>
-      </c>
-      <c r="F211" s="1">
-        <f t="shared" si="56"/>
-        <v>0.26143790849673199</v>
-      </c>
-      <c r="G211" s="1">
-        <f t="shared" si="57"/>
-        <v>0.45906254239587568</v>
-      </c>
+      <c r="E208" s="4"/>
+    </row>
+    <row r="209" spans="5:5">
+      <c r="E209" s="4"/>
+    </row>
+    <row r="210" spans="5:5">
+      <c r="E210" s="4"/>
+    </row>
+    <row r="211" spans="5:5">
+      <c r="E211" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="W153:X153"/>
-    <mergeCell ref="W53:X53"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="W88:X88"/>
     <mergeCell ref="F199:G199"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="J37:K37"/>
@@ -15826,6 +15590,13 @@
     <mergeCell ref="W137:X137"/>
     <mergeCell ref="J177:K177"/>
     <mergeCell ref="F175:G175"/>
+    <mergeCell ref="W153:X153"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="W88:X88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
